--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="460" windowWidth="23760" windowHeight="12360" tabRatio="500"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="23760" windowHeight="12360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="312">
   <si>
     <t>county_han</t>
   </si>
@@ -744,12 +744,314 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>俞元县</t>
+  </si>
+  <si>
+    <t>收靡县</t>
+  </si>
+  <si>
+    <t>穀昌县</t>
+  </si>
+  <si>
+    <t>秦臧县</t>
+  </si>
+  <si>
+    <t>邪龙县</t>
+  </si>
+  <si>
+    <t>叶榆县</t>
+  </si>
+  <si>
+    <t>律高县</t>
+  </si>
+  <si>
+    <t>巂唐县</t>
+  </si>
+  <si>
+    <t>毋棳县</t>
+  </si>
+  <si>
+    <t>有棳县</t>
+  </si>
+  <si>
+    <t>反</t>
+  </si>
+  <si>
+    <t>胜休县</t>
+  </si>
+  <si>
+    <t>胜豦县</t>
+  </si>
+  <si>
+    <t>来唯县</t>
+  </si>
+  <si>
+    <t>滇池县</t>
+  </si>
+  <si>
+    <t>双柏县</t>
+  </si>
+  <si>
+    <t>同劳县</t>
+  </si>
+  <si>
+    <t>铜濑县</t>
+  </si>
+  <si>
+    <t>连然县</t>
+  </si>
+  <si>
+    <t>味县</t>
+  </si>
+  <si>
+    <t>昆泽县</t>
+  </si>
+  <si>
+    <t>不韦县</t>
+  </si>
+  <si>
+    <t>云南县</t>
+  </si>
+  <si>
+    <t>弄栋县</t>
+  </si>
+  <si>
+    <t>比苏县</t>
+  </si>
+  <si>
+    <t>贲古县</t>
+  </si>
+  <si>
+    <t>健伶县</t>
+  </si>
+  <si>
+    <t>益州郡</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zhou'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就新郡</t>
+    <rPh sb="0" eb="1">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平夷县</t>
+  </si>
+  <si>
+    <t>同并县</t>
+  </si>
+  <si>
+    <t>漏江县</t>
+  </si>
+  <si>
+    <t>西随县</t>
+  </si>
+  <si>
+    <t>进桑县</t>
+  </si>
+  <si>
+    <t>故且兰县</t>
+  </si>
+  <si>
+    <t>镡封县</t>
+  </si>
+  <si>
+    <t>鄨县</t>
+  </si>
+  <si>
+    <t>漏卧县</t>
+  </si>
+  <si>
+    <t>谈指县</t>
+  </si>
+  <si>
+    <t>宛温县</t>
+  </si>
+  <si>
+    <t>毋敛县</t>
+  </si>
+  <si>
+    <t>有敛县</t>
+  </si>
+  <si>
+    <t>夜郎县</t>
+  </si>
+  <si>
+    <t>同亭县</t>
+  </si>
+  <si>
+    <t>毋单县</t>
+  </si>
+  <si>
+    <t>都梦县</t>
+  </si>
+  <si>
+    <t>谈稿县</t>
+  </si>
+  <si>
+    <t>句町县</t>
+  </si>
+  <si>
+    <t>从化县</t>
+  </si>
+  <si>
+    <t>同亭郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牂牁郡</t>
+    <rPh sb="0" eb="1">
+      <t>zang'ke'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涪陵县</t>
+  </si>
+  <si>
+    <t>巴亭县</t>
+  </si>
+  <si>
+    <t>江州县</t>
+  </si>
+  <si>
+    <t>临江县</t>
+  </si>
+  <si>
+    <t>监江县</t>
+  </si>
+  <si>
+    <t>枳县</t>
+  </si>
+  <si>
+    <t>阆中县</t>
+  </si>
+  <si>
+    <t>垫江县</t>
+  </si>
+  <si>
+    <t>朐忍县</t>
+  </si>
+  <si>
+    <t>安汉县</t>
+  </si>
+  <si>
+    <t>安新县</t>
+  </si>
+  <si>
+    <t>宕渠县</t>
+  </si>
+  <si>
+    <t>鱼复县</t>
+  </si>
+  <si>
+    <t>充国县</t>
+  </si>
+  <si>
+    <t>巴郡</t>
+    <rPh sb="0" eb="1">
+      <t>ba'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城郡</t>
+    <rPh sb="0" eb="1">
+      <t>jin'cheng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西海郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允吾县</t>
+  </si>
+  <si>
+    <t>修远县</t>
+  </si>
+  <si>
+    <t>浩亹县</t>
+  </si>
+  <si>
+    <t>兴武县</t>
+  </si>
+  <si>
+    <t>令居县</t>
+  </si>
+  <si>
+    <t>罕虏县</t>
+  </si>
+  <si>
+    <t>枝阳县</t>
+  </si>
+  <si>
+    <t>金城县</t>
+  </si>
+  <si>
+    <t>金屏县</t>
+  </si>
+  <si>
+    <t>榆中县</t>
+  </si>
+  <si>
+    <t>枹罕县</t>
+  </si>
+  <si>
+    <t>白石县</t>
+  </si>
+  <si>
+    <t>顺砾县</t>
+  </si>
+  <si>
+    <t>河关县</t>
+  </si>
+  <si>
+    <t>破羌县</t>
+  </si>
+  <si>
+    <t>安夷县</t>
+  </si>
+  <si>
+    <t>允街县</t>
+  </si>
+  <si>
+    <t>修远亭县</t>
+    <rPh sb="2" eb="3">
+      <t>ting</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临羌县</t>
+  </si>
+  <si>
+    <t>盐羌县</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -771,10 +1073,22 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -794,16 +1108,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1078,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110:G124"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3135,821 +3452,2316 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C90">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="F90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G90">
-        <v>60101</v>
+        <v>50501</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C91">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="E91" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
       </c>
       <c r="G91">
-        <v>60102</v>
+        <v>50502</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C92">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="G92">
-        <v>60103</v>
+        <v>50503</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C93">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G93">
-        <v>60104</v>
+        <v>50504</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C94">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
       </c>
       <c r="G94">
-        <v>60105</v>
+        <v>50505</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C95">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="F95" t="s">
         <v>7</v>
       </c>
       <c r="G95">
-        <v>60106</v>
+        <v>50506</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C96">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
       </c>
       <c r="G96">
-        <v>60107</v>
+        <v>50507</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C97">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
       </c>
       <c r="G97">
-        <v>60108</v>
+        <v>50508</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C98">
-        <v>601</v>
+        <v>505</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G98">
-        <v>60109</v>
+        <v>50509</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C99">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="F99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G99">
-        <v>60201</v>
+        <v>50510</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C100">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
       </c>
       <c r="G100">
-        <v>60202</v>
+        <v>50511</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C101">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="F101" t="s">
         <v>7</v>
       </c>
       <c r="G101">
-        <v>60203</v>
+        <v>50512</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C102">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E102" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G102">
-        <v>60204</v>
+        <v>50513</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C103">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>
       </c>
       <c r="G103">
-        <v>60205</v>
+        <v>50514</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C104">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="E104" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G104">
-        <v>60206</v>
+        <v>50515</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="C105">
-        <v>602</v>
+        <v>506</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G105">
-        <v>60207</v>
+        <v>50601</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="B106" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="C106">
-        <v>602</v>
+        <v>506</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="F106" t="s">
         <v>7</v>
       </c>
       <c r="G106">
-        <v>60208</v>
+        <v>50602</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="C107">
-        <v>602</v>
+        <v>506</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G107">
-        <v>60209</v>
+        <v>50603</v>
       </c>
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="C108">
-        <v>602</v>
+        <v>506</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="F108" t="s">
         <v>7</v>
       </c>
       <c r="G108">
-        <v>60210</v>
+        <v>50604</v>
       </c>
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="C109">
-        <v>602</v>
+        <v>506</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G109">
-        <v>60211</v>
+        <v>50605</v>
       </c>
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B110" t="s">
+        <v>252</v>
       </c>
       <c r="C110">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D110" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E110" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F110" t="s">
-        <v>207</v>
-      </c>
-      <c r="G110" s="1">
-        <v>50503</v>
+        <v>7</v>
+      </c>
+      <c r="G110">
+        <v>50606</v>
       </c>
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>222</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B111" t="s">
+        <v>252</v>
       </c>
       <c r="C111">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E111" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
       </c>
-      <c r="G111" s="1">
-        <v>50505</v>
+      <c r="G111">
+        <v>50607</v>
       </c>
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B112" t="s">
+        <v>252</v>
       </c>
       <c r="C112">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
       </c>
-      <c r="G112" s="1">
-        <v>50506</v>
+      <c r="G112">
+        <v>50608</v>
       </c>
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B113" t="s">
+        <v>252</v>
       </c>
       <c r="C113">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E113" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
       </c>
-      <c r="G113" s="1">
-        <v>50507</v>
+      <c r="G113">
+        <v>50609</v>
       </c>
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>222</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B114" t="s">
+        <v>252</v>
       </c>
       <c r="C114">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
       </c>
-      <c r="G114" s="1">
-        <v>50508</v>
+      <c r="G114">
+        <v>50610</v>
       </c>
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>222</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B115" t="s">
+        <v>252</v>
       </c>
       <c r="C115">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D115" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="E115" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="1">
-        <v>50509</v>
+      <c r="G115">
+        <v>50611</v>
       </c>
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>222</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B116" t="s">
+        <v>252</v>
       </c>
       <c r="C116">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D116" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="1">
-        <v>50510</v>
+      <c r="G116">
+        <v>50612</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>222</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B117" t="s">
+        <v>252</v>
       </c>
       <c r="C117">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="E117" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="1">
-        <v>50511</v>
+      <c r="G117">
+        <v>50613</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>222</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B118" t="s">
+        <v>252</v>
       </c>
       <c r="C118">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="1">
-        <v>50512</v>
+      <c r="G118">
+        <v>50614</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>222</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B119" t="s">
+        <v>252</v>
       </c>
       <c r="C119">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D119" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="E119" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="F119" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="1">
-        <v>50513</v>
+      <c r="G119">
+        <v>50615</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>222</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B120" t="s">
+        <v>252</v>
       </c>
       <c r="C120">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
       </c>
-      <c r="G120" s="1">
-        <v>50514</v>
+      <c r="G120">
+        <v>50616</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>222</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
       </c>
       <c r="C121">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D121" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E121" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="1">
-        <v>50501</v>
+      <c r="G121">
+        <v>50617</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>222</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B122" t="s">
+        <v>252</v>
       </c>
       <c r="C122">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D122" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="E122" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="F122" t="s">
         <v>7</v>
       </c>
-      <c r="G122" s="1">
-        <v>50502</v>
+      <c r="G122">
+        <v>50618</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
       </c>
       <c r="C123">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D123" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E123" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
       </c>
-      <c r="G123" s="1">
-        <v>50504</v>
+      <c r="G123">
+        <v>50619</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>222</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="B124" t="s">
+        <v>252</v>
       </c>
       <c r="C124">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D124" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="E124" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
       </c>
-      <c r="G124" s="1">
-        <v>50515</v>
+      <c r="G124">
+        <v>50620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125">
+        <v>506</v>
+      </c>
+      <c r="D125" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125" t="s">
+        <v>233</v>
+      </c>
+      <c r="F125" t="s">
+        <v>234</v>
+      </c>
+      <c r="G125">
+        <v>50621</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126">
+        <v>506</v>
+      </c>
+      <c r="D126" t="s">
+        <v>235</v>
+      </c>
+      <c r="E126" t="s">
+        <v>236</v>
+      </c>
+      <c r="F126" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126">
+        <v>50622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127">
+        <v>506</v>
+      </c>
+      <c r="D127" t="s">
+        <v>250</v>
+      </c>
+      <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>50623</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128">
+        <v>506</v>
+      </c>
+      <c r="D128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128" t="s">
+        <v>237</v>
+      </c>
+      <c r="F128" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128">
+        <v>50624</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>274</v>
+      </c>
+      <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129">
+        <v>507</v>
+      </c>
+      <c r="D129" t="s">
+        <v>258</v>
+      </c>
+      <c r="E129" t="s">
+        <v>258</v>
+      </c>
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>50701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130">
+        <v>507</v>
+      </c>
+      <c r="D130" t="s">
+        <v>259</v>
+      </c>
+      <c r="E130" t="s">
+        <v>259</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130">
+        <v>50702</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131">
+        <v>507</v>
+      </c>
+      <c r="D131" t="s">
+        <v>260</v>
+      </c>
+      <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>50703</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132">
+        <v>507</v>
+      </c>
+      <c r="D132" t="s">
+        <v>261</v>
+      </c>
+      <c r="E132" t="s">
+        <v>261</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132">
+        <v>50704</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>274</v>
+      </c>
+      <c r="B133" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133">
+        <v>507</v>
+      </c>
+      <c r="D133" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133" t="s">
+        <v>253</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133">
+        <v>50705</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s">
+        <v>273</v>
+      </c>
+      <c r="C134">
+        <v>507</v>
+      </c>
+      <c r="D134" t="s">
+        <v>254</v>
+      </c>
+      <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134">
+        <v>50706</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135">
+        <v>507</v>
+      </c>
+      <c r="D135" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135">
+        <v>50707</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136">
+        <v>507</v>
+      </c>
+      <c r="D136" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" t="s">
+        <v>263</v>
+      </c>
+      <c r="F136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136">
+        <v>50708</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137">
+        <v>507</v>
+      </c>
+      <c r="D137" t="s">
+        <v>264</v>
+      </c>
+      <c r="E137" t="s">
+        <v>265</v>
+      </c>
+      <c r="F137" t="s">
+        <v>234</v>
+      </c>
+      <c r="G137">
+        <v>50709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138">
+        <v>507</v>
+      </c>
+      <c r="D138" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" t="s">
+        <v>267</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138">
+        <v>50710</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+      <c r="C139">
+        <v>507</v>
+      </c>
+      <c r="D139" t="s">
+        <v>268</v>
+      </c>
+      <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139">
+        <v>50711</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140">
+        <v>507</v>
+      </c>
+      <c r="D140" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140" t="s">
+        <v>255</v>
+      </c>
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140">
+        <v>50712</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141">
+        <v>507</v>
+      </c>
+      <c r="D141" t="s">
+        <v>256</v>
+      </c>
+      <c r="E141" t="s">
+        <v>256</v>
+      </c>
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141">
+        <v>50713</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>274</v>
+      </c>
+      <c r="B142" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142">
+        <v>507</v>
+      </c>
+      <c r="D142" t="s">
+        <v>269</v>
+      </c>
+      <c r="E142" t="s">
+        <v>269</v>
+      </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142">
+        <v>50714</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" t="s">
+        <v>273</v>
+      </c>
+      <c r="C143">
+        <v>507</v>
+      </c>
+      <c r="D143" t="s">
+        <v>270</v>
+      </c>
+      <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143">
+        <v>50715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144">
+        <v>507</v>
+      </c>
+      <c r="D144" t="s">
+        <v>257</v>
+      </c>
+      <c r="E144" t="s">
+        <v>257</v>
+      </c>
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144">
+        <v>50716</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" t="s">
+        <v>273</v>
+      </c>
+      <c r="C145">
+        <v>507</v>
+      </c>
+      <c r="D145" t="s">
+        <v>271</v>
+      </c>
+      <c r="E145" t="s">
+        <v>272</v>
+      </c>
+      <c r="F145" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145">
+        <v>50717</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146">
+        <v>508</v>
+      </c>
+      <c r="D146" t="s">
+        <v>277</v>
+      </c>
+      <c r="E146" t="s">
+        <v>277</v>
+      </c>
+      <c r="F146" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146">
+        <v>50801</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147">
+        <v>508</v>
+      </c>
+      <c r="D147" t="s">
+        <v>278</v>
+      </c>
+      <c r="E147" t="s">
+        <v>279</v>
+      </c>
+      <c r="F147" t="s">
+        <v>169</v>
+      </c>
+      <c r="G147">
+        <v>50802</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148">
+        <v>508</v>
+      </c>
+      <c r="D148" t="s">
+        <v>280</v>
+      </c>
+      <c r="E148" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148">
+        <v>50803</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149">
+        <v>508</v>
+      </c>
+      <c r="D149" t="s">
+        <v>281</v>
+      </c>
+      <c r="E149" t="s">
+        <v>281</v>
+      </c>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149">
+        <v>50804</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>289</v>
+      </c>
+      <c r="B150" t="s">
+        <v>289</v>
+      </c>
+      <c r="C150">
+        <v>508</v>
+      </c>
+      <c r="D150" t="s">
+        <v>282</v>
+      </c>
+      <c r="E150" t="s">
+        <v>282</v>
+      </c>
+      <c r="F150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150">
+        <v>50805</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" t="s">
+        <v>289</v>
+      </c>
+      <c r="C151">
+        <v>508</v>
+      </c>
+      <c r="D151" t="s">
+        <v>283</v>
+      </c>
+      <c r="E151" t="s">
+        <v>283</v>
+      </c>
+      <c r="F151" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151">
+        <v>50806</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>289</v>
+      </c>
+      <c r="B152" t="s">
+        <v>289</v>
+      </c>
+      <c r="C152">
+        <v>508</v>
+      </c>
+      <c r="D152" t="s">
+        <v>284</v>
+      </c>
+      <c r="E152" t="s">
+        <v>285</v>
+      </c>
+      <c r="F152" t="s">
+        <v>151</v>
+      </c>
+      <c r="G152">
+        <v>50807</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>289</v>
+      </c>
+      <c r="B153" t="s">
+        <v>289</v>
+      </c>
+      <c r="C153">
+        <v>508</v>
+      </c>
+      <c r="D153" t="s">
+        <v>286</v>
+      </c>
+      <c r="E153" t="s">
+        <v>286</v>
+      </c>
+      <c r="F153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153">
+        <v>50808</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>289</v>
+      </c>
+      <c r="B154" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154">
+        <v>508</v>
+      </c>
+      <c r="D154" t="s">
+        <v>287</v>
+      </c>
+      <c r="E154" t="s">
+        <v>287</v>
+      </c>
+      <c r="F154" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154">
+        <v>50809</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>289</v>
+      </c>
+      <c r="B155" t="s">
+        <v>289</v>
+      </c>
+      <c r="C155">
+        <v>508</v>
+      </c>
+      <c r="D155" t="s">
+        <v>288</v>
+      </c>
+      <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155">
+        <v>50810</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" t="s">
+        <v>289</v>
+      </c>
+      <c r="C156">
+        <v>508</v>
+      </c>
+      <c r="D156" t="s">
+        <v>275</v>
+      </c>
+      <c r="E156" t="s">
+        <v>276</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156">
+        <v>50811</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157">
+        <v>601</v>
+      </c>
+      <c r="D157" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157">
+        <v>60101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158">
+        <v>601</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" t="s">
+        <v>7</v>
+      </c>
+      <c r="G158">
+        <v>60102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" t="s">
+        <v>139</v>
+      </c>
+      <c r="C159">
+        <v>601</v>
+      </c>
+      <c r="D159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" t="s">
+        <v>30</v>
+      </c>
+      <c r="F159" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159">
+        <v>60103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" t="s">
+        <v>139</v>
+      </c>
+      <c r="C160">
+        <v>601</v>
+      </c>
+      <c r="D160" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <v>60104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161">
+        <v>601</v>
+      </c>
+      <c r="D161" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" t="s">
+        <v>7</v>
+      </c>
+      <c r="G161">
+        <v>60105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" t="s">
+        <v>139</v>
+      </c>
+      <c r="C162">
+        <v>601</v>
+      </c>
+      <c r="D162" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162">
+        <v>60106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" t="s">
+        <v>139</v>
+      </c>
+      <c r="C163">
+        <v>601</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163">
+        <v>60107</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" t="s">
+        <v>139</v>
+      </c>
+      <c r="C164">
+        <v>601</v>
+      </c>
+      <c r="D164" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164">
+        <v>60108</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" t="s">
+        <v>139</v>
+      </c>
+      <c r="C165">
+        <v>601</v>
+      </c>
+      <c r="D165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" t="s">
+        <v>37</v>
+      </c>
+      <c r="F165" t="s">
+        <v>38</v>
+      </c>
+      <c r="G165">
+        <v>60109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" t="s">
+        <v>140</v>
+      </c>
+      <c r="C166">
+        <v>602</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166">
+        <v>60201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" t="s">
+        <v>140</v>
+      </c>
+      <c r="C167">
+        <v>602</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167">
+        <v>60202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168">
+        <v>602</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168">
+        <v>60203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169">
+        <v>602</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" t="s">
+        <v>160</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169">
+        <v>60204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" t="s">
+        <v>140</v>
+      </c>
+      <c r="C170">
+        <v>602</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170">
+        <v>60205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" t="s">
+        <v>140</v>
+      </c>
+      <c r="C171">
+        <v>602</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>161</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171">
+        <v>60206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B172" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172">
+        <v>602</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172">
+        <v>60207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173" t="s">
+        <v>140</v>
+      </c>
+      <c r="C173">
+        <v>602</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173">
+        <v>60208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174">
+        <v>602</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174">
+        <v>60209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" t="s">
+        <v>140</v>
+      </c>
+      <c r="C175">
+        <v>602</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175">
+        <v>60210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176">
+        <v>602</v>
+      </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G176">
+        <v>60211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>290</v>
+      </c>
+      <c r="B177" t="s">
+        <v>291</v>
+      </c>
+      <c r="C177">
+        <v>603</v>
+      </c>
+      <c r="D177" t="s">
+        <v>292</v>
+      </c>
+      <c r="E177" t="s">
+        <v>293</v>
+      </c>
+      <c r="F177" t="s">
+        <v>38</v>
+      </c>
+      <c r="G177">
+        <v>60301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>290</v>
+      </c>
+      <c r="B178" t="s">
+        <v>291</v>
+      </c>
+      <c r="C178">
+        <v>603</v>
+      </c>
+      <c r="D178" t="s">
+        <v>294</v>
+      </c>
+      <c r="E178" t="s">
+        <v>295</v>
+      </c>
+      <c r="F178" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178">
+        <v>60302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>290</v>
+      </c>
+      <c r="B179" t="s">
+        <v>291</v>
+      </c>
+      <c r="C179">
+        <v>603</v>
+      </c>
+      <c r="D179" t="s">
+        <v>296</v>
+      </c>
+      <c r="E179" t="s">
+        <v>297</v>
+      </c>
+      <c r="F179" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179">
+        <v>60303</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>290</v>
+      </c>
+      <c r="B180" t="s">
+        <v>291</v>
+      </c>
+      <c r="C180">
+        <v>603</v>
+      </c>
+      <c r="D180" t="s">
+        <v>298</v>
+      </c>
+      <c r="E180" t="s">
+        <v>298</v>
+      </c>
+      <c r="F180" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180">
+        <v>60304</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>290</v>
+      </c>
+      <c r="B181" t="s">
+        <v>291</v>
+      </c>
+      <c r="C181">
+        <v>603</v>
+      </c>
+      <c r="D181" t="s">
+        <v>299</v>
+      </c>
+      <c r="E181" t="s">
+        <v>300</v>
+      </c>
+      <c r="F181" t="s">
+        <v>151</v>
+      </c>
+      <c r="G181">
+        <v>60305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>290</v>
+      </c>
+      <c r="B182" t="s">
+        <v>291</v>
+      </c>
+      <c r="C182">
+        <v>603</v>
+      </c>
+      <c r="D182" t="s">
+        <v>301</v>
+      </c>
+      <c r="E182" t="s">
+        <v>301</v>
+      </c>
+      <c r="F182" t="s">
+        <v>7</v>
+      </c>
+      <c r="G182">
+        <v>60306</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>290</v>
+      </c>
+      <c r="B183" t="s">
+        <v>291</v>
+      </c>
+      <c r="C183">
+        <v>603</v>
+      </c>
+      <c r="D183" t="s">
+        <v>302</v>
+      </c>
+      <c r="E183" t="s">
+        <v>302</v>
+      </c>
+      <c r="F183" t="s">
+        <v>7</v>
+      </c>
+      <c r="G183">
+        <v>60307</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>290</v>
+      </c>
+      <c r="B184" t="s">
+        <v>291</v>
+      </c>
+      <c r="C184">
+        <v>603</v>
+      </c>
+      <c r="D184" t="s">
+        <v>303</v>
+      </c>
+      <c r="E184" t="s">
+        <v>304</v>
+      </c>
+      <c r="F184" t="s">
+        <v>80</v>
+      </c>
+      <c r="G184">
+        <v>60308</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>290</v>
+      </c>
+      <c r="B185" t="s">
+        <v>291</v>
+      </c>
+      <c r="C185">
+        <v>603</v>
+      </c>
+      <c r="D185" t="s">
+        <v>305</v>
+      </c>
+      <c r="E185" t="s">
+        <v>305</v>
+      </c>
+      <c r="F185" t="s">
+        <v>7</v>
+      </c>
+      <c r="G185">
+        <v>60309</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>290</v>
+      </c>
+      <c r="B186" t="s">
+        <v>291</v>
+      </c>
+      <c r="C186">
+        <v>603</v>
+      </c>
+      <c r="D186" t="s">
+        <v>306</v>
+      </c>
+      <c r="E186" t="s">
+        <v>306</v>
+      </c>
+      <c r="F186" t="s">
+        <v>7</v>
+      </c>
+      <c r="G186">
+        <v>60310</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>290</v>
+      </c>
+      <c r="B187" t="s">
+        <v>291</v>
+      </c>
+      <c r="C187">
+        <v>603</v>
+      </c>
+      <c r="D187" t="s">
+        <v>307</v>
+      </c>
+      <c r="E187" t="s">
+        <v>307</v>
+      </c>
+      <c r="F187" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187">
+        <v>60311</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>290</v>
+      </c>
+      <c r="B188" t="s">
+        <v>291</v>
+      </c>
+      <c r="C188">
+        <v>603</v>
+      </c>
+      <c r="D188" t="s">
+        <v>308</v>
+      </c>
+      <c r="E188" t="s">
+        <v>309</v>
+      </c>
+      <c r="F188" t="s">
+        <v>38</v>
+      </c>
+      <c r="G188">
+        <v>60312</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>290</v>
+      </c>
+      <c r="B189" t="s">
+        <v>291</v>
+      </c>
+      <c r="C189">
+        <v>603</v>
+      </c>
+      <c r="D189" t="s">
+        <v>310</v>
+      </c>
+      <c r="E189" t="s">
+        <v>311</v>
+      </c>
+      <c r="F189" t="s">
+        <v>169</v>
+      </c>
+      <c r="G189">
+        <v>60313</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G109">
-    <sortCondition ref="G103"/>
+  <sortState ref="A2:G189">
+    <sortCondition ref="G175"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="23760" windowHeight="12360" tabRatio="500"/>
+    <workbookView xWindow="1980" yWindow="1400" windowWidth="23760" windowHeight="12360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="373">
   <si>
     <t>county_han</t>
   </si>
@@ -1045,6 +1045,213 @@
   </si>
   <si>
     <t>盐羌县</t>
+  </si>
+  <si>
+    <t>天水郡</t>
+    <rPh sb="0" eb="1">
+      <t>tian'shui'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填戎郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平襄县</t>
+  </si>
+  <si>
+    <t>平相县</t>
+  </si>
+  <si>
+    <t>同音</t>
+  </si>
+  <si>
+    <t>街泉县</t>
+  </si>
+  <si>
+    <t>戎邑道</t>
+  </si>
+  <si>
+    <t>填戎亭县</t>
+  </si>
+  <si>
+    <t>望垣县</t>
+  </si>
+  <si>
+    <t>望亭县</t>
+  </si>
+  <si>
+    <t>罕开县</t>
+  </si>
+  <si>
+    <t>绵诸道</t>
+  </si>
+  <si>
+    <t>略阳道</t>
+  </si>
+  <si>
+    <t>勇士县</t>
+  </si>
+  <si>
+    <t>纪德县</t>
+  </si>
+  <si>
+    <t>成纪县</t>
+  </si>
+  <si>
+    <t>清水县</t>
+  </si>
+  <si>
+    <t>识睦县</t>
+  </si>
+  <si>
+    <t>陇县</t>
+  </si>
+  <si>
+    <t>豲道</t>
+  </si>
+  <si>
+    <t>阿阳县</t>
+  </si>
+  <si>
+    <t>冀县</t>
+  </si>
+  <si>
+    <t>冀治县</t>
+  </si>
+  <si>
+    <t>奉捷县</t>
+  </si>
+  <si>
+    <t>兰干县</t>
+  </si>
+  <si>
+    <t>兰盾县</t>
+  </si>
+  <si>
+    <t>姑臧县</t>
+  </si>
+  <si>
+    <t>张掖县</t>
+  </si>
+  <si>
+    <t>武威县</t>
+  </si>
+  <si>
+    <t>休屠县</t>
+  </si>
+  <si>
+    <t>晏然县</t>
+  </si>
+  <si>
+    <t>揟次县</t>
+  </si>
+  <si>
+    <t>播德县</t>
+  </si>
+  <si>
+    <t>鸾乌县</t>
+  </si>
+  <si>
+    <t>扑褱刂县</t>
+  </si>
+  <si>
+    <t>敷虏县</t>
+  </si>
+  <si>
+    <t>媪围县</t>
+  </si>
+  <si>
+    <t>苍松县</t>
+  </si>
+  <si>
+    <t>射楚县</t>
+  </si>
+  <si>
+    <t>宣威县</t>
+  </si>
+  <si>
+    <t>武威郡</t>
+    <rPh sb="0" eb="1">
+      <t>wu'wei'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张掖郡</t>
+    <rPh sb="2" eb="3">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船司空县</t>
+  </si>
+  <si>
+    <t>船利县</t>
+  </si>
+  <si>
+    <t>下邽县</t>
+  </si>
+  <si>
+    <t>奉明县</t>
+  </si>
+  <si>
+    <t>长安县</t>
+  </si>
+  <si>
+    <t>常安县</t>
+  </si>
+  <si>
+    <t>新丰县</t>
+  </si>
+  <si>
+    <t>蓝田县</t>
+  </si>
+  <si>
+    <t>华阴县</t>
+  </si>
+  <si>
+    <t>华坛县</t>
+  </si>
+  <si>
+    <t>郑县</t>
+  </si>
+  <si>
+    <t>湖县</t>
+  </si>
+  <si>
+    <t>南陵县</t>
+  </si>
+  <si>
+    <t>霸陵县</t>
+  </si>
+  <si>
+    <t>水章县</t>
+  </si>
+  <si>
+    <t>杜陵县</t>
+  </si>
+  <si>
+    <t>饶安县</t>
+  </si>
+  <si>
+    <t>京兆尹</t>
+    <rPh sb="0" eb="1">
+      <t>jign'zhao'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兆尹</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhao'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1395,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O189"/>
+  <dimension ref="A1:O227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1428,278 +1635,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C2">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="G2">
-        <v>23301</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C3">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
-        <v>23302</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C4">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>354</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>23303</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>361</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>361</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>23304</v>
+        <v>10104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C6">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>362</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="G6">
-        <v>23305</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C7">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>364</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>23306</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C8">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>365</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
       <c r="G8">
-        <v>23307</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C9">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
       <c r="G9">
-        <v>23308</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C10">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>23309</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C11">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
       <c r="G11">
-        <v>23310</v>
+        <v>10110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C12">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>367</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>23311</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="C13">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G13">
-        <v>23312</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1713,16 +1920,16 @@
         <v>233</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>23313</v>
+        <v>23301</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1736,16 +1943,16 @@
         <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>23314</v>
+        <v>23302</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1759,16 +1966,16 @@
         <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
       </c>
       <c r="G16">
-        <v>23315</v>
+        <v>23303</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1782,16 +1989,16 @@
         <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>23316</v>
+        <v>23304</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1805,16 +2012,16 @@
         <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
       <c r="G18">
-        <v>23317</v>
+        <v>23305</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1828,16 +2035,16 @@
         <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <v>23318</v>
+        <v>23306</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1851,16 +2058,16 @@
         <v>233</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
       </c>
       <c r="G20">
-        <v>23319</v>
+        <v>23307</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1874,16 +2081,16 @@
         <v>233</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
       </c>
       <c r="G21">
-        <v>23320</v>
+        <v>23308</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1897,16 +2104,16 @@
         <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G22">
-        <v>23321</v>
+        <v>23309</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1920,16 +2127,16 @@
         <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>23322</v>
+        <v>23310</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1943,16 +2150,16 @@
         <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>23323</v>
+        <v>23311</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1966,16 +2173,16 @@
         <v>233</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
       </c>
       <c r="G25">
-        <v>23324</v>
+        <v>23312</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1989,16 +2196,16 @@
         <v>233</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>23325</v>
+        <v>23313</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2012,16 +2219,16 @@
         <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G27">
-        <v>23326</v>
+        <v>23314</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2035,16 +2242,16 @@
         <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G28">
-        <v>23327</v>
+        <v>23315</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2058,16 +2265,16 @@
         <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G29">
-        <v>23328</v>
+        <v>23316</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2081,16 +2288,16 @@
         <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
       </c>
       <c r="G30">
-        <v>23329</v>
+        <v>23317</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2104,16 +2311,16 @@
         <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
       </c>
       <c r="G31">
-        <v>23330</v>
+        <v>23318</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2127,16 +2334,16 @@
         <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>23331</v>
+        <v>23319</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2150,16 +2357,16 @@
         <v>233</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
       </c>
       <c r="G33">
-        <v>23332</v>
+        <v>23320</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2173,16 +2380,16 @@
         <v>233</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
       </c>
       <c r="G34">
-        <v>23333</v>
+        <v>23321</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2196,16 +2403,16 @@
         <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G35">
-        <v>23334</v>
+        <v>23322</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2219,16 +2426,16 @@
         <v>233</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>23335</v>
+        <v>23323</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2242,16 +2449,16 @@
         <v>233</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
       </c>
       <c r="G37">
-        <v>23336</v>
+        <v>23324</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2265,16 +2472,16 @@
         <v>233</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="G38">
-        <v>23337</v>
+        <v>23325</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2288,16 +2495,16 @@
         <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
       </c>
       <c r="G39">
-        <v>23338</v>
+        <v>23326</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2311,16 +2518,16 @@
         <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G40">
-        <v>23339</v>
+        <v>23327</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2334,16 +2541,16 @@
         <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
       </c>
       <c r="G41">
-        <v>23340</v>
+        <v>23328</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2357,16 +2564,16 @@
         <v>233</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
       </c>
       <c r="G42">
-        <v>23341</v>
+        <v>23329</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2380,16 +2587,16 @@
         <v>233</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
       </c>
       <c r="G43">
-        <v>23342</v>
+        <v>23330</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2403,16 +2610,16 @@
         <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>23343</v>
+        <v>23331</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2426,16 +2633,16 @@
         <v>233</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
       </c>
       <c r="G45">
-        <v>23344</v>
+        <v>23332</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2449,16 +2656,16 @@
         <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
       </c>
       <c r="G46">
-        <v>23345</v>
+        <v>23333</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,16 +2679,16 @@
         <v>233</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
       </c>
       <c r="G47">
-        <v>23346</v>
+        <v>23334</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2495,16 +2702,16 @@
         <v>233</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="G48">
-        <v>23347</v>
+        <v>23335</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2518,16 +2725,16 @@
         <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="G49">
-        <v>23348</v>
+        <v>23336</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2541,16 +2748,16 @@
         <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="G50">
-        <v>23349</v>
+        <v>23337</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2564,16 +2771,16 @@
         <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G51">
-        <v>23350</v>
+        <v>23338</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2587,522 +2794,522 @@
         <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
       </c>
       <c r="G52">
-        <v>23351</v>
+        <v>23339</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C53">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
       </c>
       <c r="G53">
-        <v>40501</v>
+        <v>23340</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C54">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>40502</v>
+        <v>23341</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C55">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
       </c>
       <c r="G55">
-        <v>40503</v>
+        <v>23342</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C56">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
       </c>
       <c r="G56">
-        <v>40504</v>
+        <v>23343</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C57">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
       </c>
       <c r="G57">
-        <v>40505</v>
+        <v>23344</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C58">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
       </c>
       <c r="G58">
-        <v>40506</v>
+        <v>23345</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C59">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>40507</v>
+        <v>23346</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C60">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="G60">
-        <v>40508</v>
+        <v>23347</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C61">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="G61">
-        <v>40509</v>
+        <v>23348</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C62">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G62">
-        <v>40510</v>
+        <v>23349</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C63">
-        <v>503</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G63">
-        <v>50301</v>
+        <v>23350</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C64">
-        <v>503</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
       <c r="G64">
-        <v>50302</v>
+        <v>23351</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C65">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
       </c>
       <c r="G65">
-        <v>50303</v>
+        <v>40501</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C66">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
       </c>
       <c r="G66">
-        <v>50304</v>
+        <v>40502</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C67">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D67" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="G67">
-        <v>50305</v>
+        <v>40503</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C68">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
       </c>
       <c r="G68">
-        <v>50306</v>
+        <v>40504</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C69">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G69">
-        <v>50307</v>
+        <v>40505</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C70">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G70">
-        <v>50308</v>
+        <v>40506</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C71">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D71" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="G71">
-        <v>50309</v>
+        <v>40507</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C72">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G72">
-        <v>50310</v>
+        <v>40508</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C73">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G73">
-        <v>50311</v>
+        <v>40509</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C74">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D74" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="G74">
-        <v>50312</v>
+        <v>40510</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3116,16 +3323,16 @@
         <v>503</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
       </c>
       <c r="G75">
-        <v>50313</v>
+        <v>50301</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3139,16 +3346,16 @@
         <v>503</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
       </c>
       <c r="G76">
-        <v>50314</v>
+        <v>50302</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3162,568 +3369,568 @@
         <v>503</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G77">
-        <v>50315</v>
+        <v>50303</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C78">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>50401</v>
+        <v>50304</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C79">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F79" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="G79">
-        <v>50402</v>
+        <v>50305</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C80">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E80" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G80">
-        <v>50403</v>
+        <v>50306</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C81">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D81" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="G81">
-        <v>50404</v>
+        <v>50307</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C82">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G82">
-        <v>50405</v>
+        <v>50308</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C83">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D83" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>50406</v>
+        <v>50309</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C84">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F84" t="s">
         <v>7</v>
       </c>
       <c r="G84">
-        <v>50407</v>
+        <v>50310</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C85">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
       </c>
       <c r="G85">
-        <v>50408</v>
+        <v>50311</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C86">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>50409</v>
+        <v>50312</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C87">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F87" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>50410</v>
+        <v>50313</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C88">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
       </c>
       <c r="G88">
-        <v>50411</v>
+        <v>50314</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C89">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E89" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G89">
-        <v>50412</v>
+        <v>50315</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C90">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E90" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G90">
-        <v>50501</v>
+        <v>50401</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B91" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C91">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E91" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
       </c>
       <c r="G91">
-        <v>50502</v>
+        <v>50402</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B92" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C92">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D92" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E92" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F92" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="G92">
-        <v>50503</v>
+        <v>50403</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C93">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
       </c>
       <c r="G93">
-        <v>50504</v>
+        <v>50404</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B94" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C94">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F94" t="s">
         <v>7</v>
       </c>
       <c r="G94">
-        <v>50505</v>
+        <v>50405</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C95">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E95" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G95">
-        <v>50506</v>
+        <v>50406</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C96">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
       </c>
       <c r="G96">
-        <v>50507</v>
+        <v>50407</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C97">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D97" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
       </c>
       <c r="G97">
-        <v>50508</v>
+        <v>50408</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C98">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E98" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <v>50509</v>
+        <v>50409</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C99">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E99" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="G99">
-        <v>50510</v>
+        <v>50410</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C100">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D100" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E100" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
       </c>
       <c r="G100">
-        <v>50511</v>
+        <v>50411</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C101">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="E101" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
         <v>7</v>
       </c>
       <c r="G101">
-        <v>50512</v>
+        <v>50412</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -3737,16 +3944,16 @@
         <v>505</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E102" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F102" t="s">
         <v>7</v>
       </c>
       <c r="G102">
-        <v>50513</v>
+        <v>50501</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -3760,16 +3967,16 @@
         <v>505</v>
       </c>
       <c r="D103" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E103" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>
       </c>
       <c r="G103">
-        <v>50514</v>
+        <v>50502</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
@@ -3783,301 +3990,301 @@
         <v>505</v>
       </c>
       <c r="D104" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E104" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F104" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="G104">
-        <v>50515</v>
+        <v>50503</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C105">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D105" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E105" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="F105" t="s">
         <v>7</v>
       </c>
       <c r="G105">
-        <v>50601</v>
+        <v>50504</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C106">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D106" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="E106" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
         <v>7</v>
       </c>
       <c r="G106">
-        <v>50602</v>
+        <v>50505</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C107">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D107" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="E107" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
         <v>7</v>
       </c>
       <c r="G107">
-        <v>50603</v>
+        <v>50506</v>
       </c>
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C108">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D108" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="E108" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
         <v>7</v>
       </c>
       <c r="G108">
-        <v>50604</v>
+        <v>50507</v>
       </c>
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C109">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
       </c>
       <c r="G109">
-        <v>50605</v>
+        <v>50508</v>
       </c>
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C110">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D110" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E110" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
         <v>7</v>
       </c>
       <c r="G110">
-        <v>50606</v>
+        <v>50509</v>
       </c>
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C111">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D111" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E111" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
       </c>
       <c r="G111">
-        <v>50607</v>
+        <v>50510</v>
       </c>
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C112">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D112" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E112" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
       </c>
       <c r="G112">
-        <v>50608</v>
+        <v>50511</v>
       </c>
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C113">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D113" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E113" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
         <v>7</v>
       </c>
       <c r="G113">
-        <v>50609</v>
+        <v>50512</v>
       </c>
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C114">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D114" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E114" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
         <v>7</v>
       </c>
       <c r="G114">
-        <v>50610</v>
+        <v>50513</v>
       </c>
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C115">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E115" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
         <v>7</v>
       </c>
       <c r="G115">
-        <v>50611</v>
+        <v>50514</v>
       </c>
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C116">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D116" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E116" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
         <v>7</v>
       </c>
       <c r="G116">
-        <v>50612</v>
+        <v>50515</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
@@ -4091,16 +4298,16 @@
         <v>506</v>
       </c>
       <c r="D117" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
       </c>
       <c r="G117">
-        <v>50613</v>
+        <v>50601</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
@@ -4114,16 +4321,16 @@
         <v>506</v>
       </c>
       <c r="D118" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E118" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F118" t="s">
         <v>7</v>
       </c>
       <c r="G118">
-        <v>50614</v>
+        <v>50602</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
@@ -4137,16 +4344,16 @@
         <v>506</v>
       </c>
       <c r="D119" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E119" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F119" t="s">
         <v>7</v>
       </c>
       <c r="G119">
-        <v>50615</v>
+        <v>50603</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
@@ -4160,16 +4367,16 @@
         <v>506</v>
       </c>
       <c r="D120" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
       </c>
       <c r="G120">
-        <v>50616</v>
+        <v>50604</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -4183,16 +4390,16 @@
         <v>506</v>
       </c>
       <c r="D121" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F121" t="s">
         <v>7</v>
       </c>
       <c r="G121">
-        <v>50617</v>
+        <v>50605</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
@@ -4206,16 +4413,16 @@
         <v>506</v>
       </c>
       <c r="D122" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E122" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
         <v>7</v>
       </c>
       <c r="G122">
-        <v>50618</v>
+        <v>50606</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
@@ -4229,16 +4436,16 @@
         <v>506</v>
       </c>
       <c r="D123" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E123" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
       </c>
       <c r="G123">
-        <v>50619</v>
+        <v>50607</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
@@ -4252,16 +4459,16 @@
         <v>506</v>
       </c>
       <c r="D124" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="E124" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="F124" t="s">
         <v>7</v>
       </c>
       <c r="G124">
-        <v>50620</v>
+        <v>50608</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
@@ -4275,16 +4482,16 @@
         <v>506</v>
       </c>
       <c r="D125" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="G125">
-        <v>50621</v>
+        <v>50609</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
@@ -4298,16 +4505,16 @@
         <v>506</v>
       </c>
       <c r="D126" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E126" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F126" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="G126">
-        <v>50622</v>
+        <v>50610</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
@@ -4321,16 +4528,16 @@
         <v>506</v>
       </c>
       <c r="D127" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E127" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
         <v>7</v>
       </c>
       <c r="G127">
-        <v>50623</v>
+        <v>50611</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
@@ -4344,292 +4551,292 @@
         <v>506</v>
       </c>
       <c r="D128" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E128" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
         <v>7</v>
       </c>
       <c r="G128">
-        <v>50624</v>
+        <v>50612</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C129">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D129" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="E129" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="F129" t="s">
         <v>7</v>
       </c>
       <c r="G129">
-        <v>50701</v>
+        <v>50613</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C130">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D130" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F130" t="s">
         <v>7</v>
       </c>
       <c r="G130">
-        <v>50702</v>
+        <v>50614</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C131">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D131" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E131" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
         <v>7</v>
       </c>
       <c r="G131">
-        <v>50703</v>
+        <v>50615</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C132">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D132" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
         <v>7</v>
       </c>
       <c r="G132">
-        <v>50704</v>
+        <v>50616</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B133" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C133">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D133" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="F133" t="s">
         <v>7</v>
       </c>
       <c r="G133">
-        <v>50705</v>
+        <v>50617</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C134">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D134" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E134" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F134" t="s">
         <v>7</v>
       </c>
       <c r="G134">
-        <v>50706</v>
+        <v>50618</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C135">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D135" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E135" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
       </c>
       <c r="G135">
-        <v>50707</v>
+        <v>50619</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C136">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D136" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F136" t="s">
         <v>7</v>
       </c>
       <c r="G136">
-        <v>50708</v>
+        <v>50620</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C137">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D137" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="F137" t="s">
         <v>234</v>
       </c>
       <c r="G137">
-        <v>50709</v>
+        <v>50621</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C138">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D138" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G138">
-        <v>50710</v>
+        <v>50622</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C139">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D139" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E139" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
       </c>
       <c r="G139">
-        <v>50711</v>
+        <v>50623</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C140">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D140" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E140" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F140" t="s">
         <v>7</v>
       </c>
       <c r="G140">
-        <v>50712</v>
+        <v>50624</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -4643,16 +4850,16 @@
         <v>507</v>
       </c>
       <c r="D141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F141" t="s">
         <v>7</v>
       </c>
       <c r="G141">
-        <v>50713</v>
+        <v>50701</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -4666,16 +4873,16 @@
         <v>507</v>
       </c>
       <c r="D142" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F142" t="s">
         <v>7</v>
       </c>
       <c r="G142">
-        <v>50714</v>
+        <v>50702</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -4689,16 +4896,16 @@
         <v>507</v>
       </c>
       <c r="D143" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E143" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
       </c>
       <c r="G143">
-        <v>50715</v>
+        <v>50703</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -4712,16 +4919,16 @@
         <v>507</v>
       </c>
       <c r="D144" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E144" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
       </c>
       <c r="G144">
-        <v>50716</v>
+        <v>50704</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -4735,1005 +4942,1005 @@
         <v>507</v>
       </c>
       <c r="D145" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E145" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="F145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G145">
-        <v>50717</v>
+        <v>50705</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C146">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
       </c>
       <c r="G146">
-        <v>50801</v>
+        <v>50706</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C147">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D147" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F147" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="G147">
-        <v>50802</v>
+        <v>50707</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B148" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C148">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D148" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E148" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F148" t="s">
         <v>7</v>
       </c>
       <c r="G148">
-        <v>50803</v>
+        <v>50708</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B149" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C149">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D149" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="G149">
-        <v>50804</v>
+        <v>50709</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C150">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D150" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E150" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F150" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G150">
-        <v>50805</v>
+        <v>50710</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C151">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D151" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
       </c>
       <c r="G151">
-        <v>50806</v>
+        <v>50711</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B152" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C152">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D152" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="F152" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="G152">
-        <v>50807</v>
+        <v>50712</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C153">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D153" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="E153" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F153" t="s">
         <v>7</v>
       </c>
       <c r="G153">
-        <v>50808</v>
+        <v>50713</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B154" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C154">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D154" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="F154" t="s">
         <v>7</v>
       </c>
       <c r="G154">
-        <v>50809</v>
+        <v>50714</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B155" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C155">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D155" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E155" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F155" t="s">
         <v>7</v>
       </c>
       <c r="G155">
-        <v>50810</v>
+        <v>50715</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B156" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C156">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D156" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="E156" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F156" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G156">
-        <v>50811</v>
+        <v>50716</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="C157">
-        <v>601</v>
+        <v>507</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="E157" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="F157" t="s">
         <v>5</v>
       </c>
       <c r="G157">
-        <v>60101</v>
+        <v>50717</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B158" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="C158">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="E158" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="F158" t="s">
         <v>7</v>
       </c>
       <c r="G158">
-        <v>60102</v>
+        <v>50801</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B159" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="C159">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="G159">
-        <v>60103</v>
+        <v>50802</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B160" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="C160">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D160" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="E160" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G160">
-        <v>60104</v>
+        <v>50803</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B161" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="C161">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D161" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
       </c>
       <c r="G161">
-        <v>60105</v>
+        <v>50804</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B162" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="C162">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D162" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="F162" t="s">
         <v>7</v>
       </c>
       <c r="G162">
-        <v>60106</v>
+        <v>50805</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B163" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="C163">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D163" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="F163" t="s">
         <v>7</v>
       </c>
       <c r="G163">
-        <v>60107</v>
+        <v>50806</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B164" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="C164">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D164" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="F164" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="G164">
-        <v>60108</v>
+        <v>50807</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="C165">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D165" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G165">
-        <v>60109</v>
+        <v>50808</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="B166" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="C166">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="D166" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E166" t="s">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="F166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G166">
-        <v>60201</v>
+        <v>50809</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="B167" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="C167">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="E167" t="s">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="F167" t="s">
         <v>7</v>
       </c>
       <c r="G167">
-        <v>60202</v>
+        <v>50810</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="B168" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="C168">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="F168" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G168">
-        <v>60203</v>
+        <v>50811</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B169" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C169">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E169" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G169">
-        <v>60204</v>
+        <v>60101</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C170">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F170" t="s">
         <v>7</v>
       </c>
       <c r="G170">
-        <v>60205</v>
+        <v>60102</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B171" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C171">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G171">
-        <v>60206</v>
+        <v>60103</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C172">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D172" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E172" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G172">
-        <v>60207</v>
+        <v>60104</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B173" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C173">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F173" t="s">
         <v>7</v>
       </c>
       <c r="G173">
-        <v>60208</v>
+        <v>60105</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C174">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G174">
-        <v>60209</v>
+        <v>60106</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C175">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E175" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
         <v>7</v>
       </c>
       <c r="G175">
-        <v>60210</v>
+        <v>60107</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B176" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C176">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D176" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E176" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G176">
-        <v>60211</v>
+        <v>60108</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="B177" t="s">
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="C177">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D177" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="E177" t="s">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="F177" t="s">
         <v>38</v>
       </c>
       <c r="G177">
-        <v>60301</v>
+        <v>60109</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C178">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D178" t="s">
-        <v>294</v>
+        <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="F178" t="s">
         <v>5</v>
       </c>
       <c r="G178">
-        <v>60302</v>
+        <v>60201</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B179" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C179">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D179" t="s">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="E179" t="s">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="F179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G179">
-        <v>60303</v>
+        <v>60202</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B180" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C180">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D180" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
       <c r="E180" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
       <c r="F180" t="s">
         <v>7</v>
       </c>
       <c r="G180">
-        <v>60304</v>
+        <v>60203</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C181">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D181" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="F181" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G181">
-        <v>60305</v>
+        <v>60204</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C182">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D182" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
         <v>7</v>
       </c>
       <c r="G182">
-        <v>60306</v>
+        <v>60205</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C183">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D183" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>302</v>
+        <v>161</v>
       </c>
       <c r="F183" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G183">
-        <v>60307</v>
+        <v>60206</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B184" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C184">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D184" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="F184" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G184">
-        <v>60308</v>
+        <v>60207</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B185" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C185">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D185" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="F185" t="s">
         <v>7</v>
       </c>
       <c r="G185">
-        <v>60309</v>
+        <v>60208</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C186">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D186" t="s">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="E186" t="s">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="F186" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G186">
-        <v>60310</v>
+        <v>60209</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C187">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D187" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="E187" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="F187" t="s">
         <v>7</v>
       </c>
       <c r="G187">
-        <v>60311</v>
+        <v>60210</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C188">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D188" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G188">
-        <v>60312</v>
+        <v>60211</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -5747,21 +5954,895 @@
         <v>603</v>
       </c>
       <c r="D189" t="s">
+        <v>292</v>
+      </c>
+      <c r="E189" t="s">
+        <v>293</v>
+      </c>
+      <c r="F189" t="s">
+        <v>38</v>
+      </c>
+      <c r="G189">
+        <v>60301</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>290</v>
+      </c>
+      <c r="B190" t="s">
+        <v>291</v>
+      </c>
+      <c r="C190">
+        <v>603</v>
+      </c>
+      <c r="D190" t="s">
+        <v>294</v>
+      </c>
+      <c r="E190" t="s">
+        <v>295</v>
+      </c>
+      <c r="F190" t="s">
+        <v>5</v>
+      </c>
+      <c r="G190">
+        <v>60302</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>290</v>
+      </c>
+      <c r="B191" t="s">
+        <v>291</v>
+      </c>
+      <c r="C191">
+        <v>603</v>
+      </c>
+      <c r="D191" t="s">
+        <v>296</v>
+      </c>
+      <c r="E191" t="s">
+        <v>297</v>
+      </c>
+      <c r="F191" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191">
+        <v>60303</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>290</v>
+      </c>
+      <c r="B192" t="s">
+        <v>291</v>
+      </c>
+      <c r="C192">
+        <v>603</v>
+      </c>
+      <c r="D192" t="s">
+        <v>298</v>
+      </c>
+      <c r="E192" t="s">
+        <v>298</v>
+      </c>
+      <c r="F192" t="s">
+        <v>7</v>
+      </c>
+      <c r="G192">
+        <v>60304</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>290</v>
+      </c>
+      <c r="B193" t="s">
+        <v>291</v>
+      </c>
+      <c r="C193">
+        <v>603</v>
+      </c>
+      <c r="D193" t="s">
+        <v>299</v>
+      </c>
+      <c r="E193" t="s">
+        <v>300</v>
+      </c>
+      <c r="F193" t="s">
+        <v>151</v>
+      </c>
+      <c r="G193">
+        <v>60305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>290</v>
+      </c>
+      <c r="B194" t="s">
+        <v>291</v>
+      </c>
+      <c r="C194">
+        <v>603</v>
+      </c>
+      <c r="D194" t="s">
+        <v>301</v>
+      </c>
+      <c r="E194" t="s">
+        <v>301</v>
+      </c>
+      <c r="F194" t="s">
+        <v>7</v>
+      </c>
+      <c r="G194">
+        <v>60306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>290</v>
+      </c>
+      <c r="B195" t="s">
+        <v>291</v>
+      </c>
+      <c r="C195">
+        <v>603</v>
+      </c>
+      <c r="D195" t="s">
+        <v>302</v>
+      </c>
+      <c r="E195" t="s">
+        <v>302</v>
+      </c>
+      <c r="F195" t="s">
+        <v>7</v>
+      </c>
+      <c r="G195">
+        <v>60307</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>290</v>
+      </c>
+      <c r="B196" t="s">
+        <v>291</v>
+      </c>
+      <c r="C196">
+        <v>603</v>
+      </c>
+      <c r="D196" t="s">
+        <v>303</v>
+      </c>
+      <c r="E196" t="s">
+        <v>304</v>
+      </c>
+      <c r="F196" t="s">
+        <v>80</v>
+      </c>
+      <c r="G196">
+        <v>60308</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>290</v>
+      </c>
+      <c r="B197" t="s">
+        <v>291</v>
+      </c>
+      <c r="C197">
+        <v>603</v>
+      </c>
+      <c r="D197" t="s">
+        <v>305</v>
+      </c>
+      <c r="E197" t="s">
+        <v>305</v>
+      </c>
+      <c r="F197" t="s">
+        <v>7</v>
+      </c>
+      <c r="G197">
+        <v>60309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>290</v>
+      </c>
+      <c r="B198" t="s">
+        <v>291</v>
+      </c>
+      <c r="C198">
+        <v>603</v>
+      </c>
+      <c r="D198" t="s">
+        <v>306</v>
+      </c>
+      <c r="E198" t="s">
+        <v>306</v>
+      </c>
+      <c r="F198" t="s">
+        <v>7</v>
+      </c>
+      <c r="G198">
+        <v>60310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>290</v>
+      </c>
+      <c r="B199" t="s">
+        <v>291</v>
+      </c>
+      <c r="C199">
+        <v>603</v>
+      </c>
+      <c r="D199" t="s">
+        <v>307</v>
+      </c>
+      <c r="E199" t="s">
+        <v>307</v>
+      </c>
+      <c r="F199" t="s">
+        <v>7</v>
+      </c>
+      <c r="G199">
+        <v>60311</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>290</v>
+      </c>
+      <c r="B200" t="s">
+        <v>291</v>
+      </c>
+      <c r="C200">
+        <v>603</v>
+      </c>
+      <c r="D200" t="s">
+        <v>308</v>
+      </c>
+      <c r="E200" t="s">
+        <v>309</v>
+      </c>
+      <c r="F200" t="s">
+        <v>38</v>
+      </c>
+      <c r="G200">
+        <v>60312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>290</v>
+      </c>
+      <c r="B201" t="s">
+        <v>291</v>
+      </c>
+      <c r="C201">
+        <v>603</v>
+      </c>
+      <c r="D201" t="s">
         <v>310</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E201" t="s">
         <v>311</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F201" t="s">
         <v>169</v>
       </c>
-      <c r="G189">
+      <c r="G201">
         <v>60313</v>
       </c>
     </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>312</v>
+      </c>
+      <c r="B202" t="s">
+        <v>313</v>
+      </c>
+      <c r="C202">
+        <v>604</v>
+      </c>
+      <c r="D202" t="s">
+        <v>314</v>
+      </c>
+      <c r="E202" t="s">
+        <v>315</v>
+      </c>
+      <c r="F202" t="s">
+        <v>316</v>
+      </c>
+      <c r="G202">
+        <v>60401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>312</v>
+      </c>
+      <c r="B203" t="s">
+        <v>313</v>
+      </c>
+      <c r="C203">
+        <v>604</v>
+      </c>
+      <c r="D203" t="s">
+        <v>317</v>
+      </c>
+      <c r="E203" t="s">
+        <v>317</v>
+      </c>
+      <c r="F203" t="s">
+        <v>7</v>
+      </c>
+      <c r="G203">
+        <v>60402</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>312</v>
+      </c>
+      <c r="B204" t="s">
+        <v>313</v>
+      </c>
+      <c r="C204">
+        <v>604</v>
+      </c>
+      <c r="D204" t="s">
+        <v>318</v>
+      </c>
+      <c r="E204" t="s">
+        <v>319</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204">
+        <v>60403</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>312</v>
+      </c>
+      <c r="B205" t="s">
+        <v>313</v>
+      </c>
+      <c r="C205">
+        <v>604</v>
+      </c>
+      <c r="D205" t="s">
+        <v>320</v>
+      </c>
+      <c r="E205" t="s">
+        <v>321</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205">
+        <v>60404</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>312</v>
+      </c>
+      <c r="B206" t="s">
+        <v>313</v>
+      </c>
+      <c r="C206">
+        <v>604</v>
+      </c>
+      <c r="D206" t="s">
+        <v>322</v>
+      </c>
+      <c r="E206" t="s">
+        <v>322</v>
+      </c>
+      <c r="F206" t="s">
+        <v>7</v>
+      </c>
+      <c r="G206">
+        <v>60405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>312</v>
+      </c>
+      <c r="B207" t="s">
+        <v>313</v>
+      </c>
+      <c r="C207">
+        <v>604</v>
+      </c>
+      <c r="D207" t="s">
+        <v>323</v>
+      </c>
+      <c r="E207" t="s">
+        <v>323</v>
+      </c>
+      <c r="F207" t="s">
+        <v>7</v>
+      </c>
+      <c r="G207">
+        <v>60406</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>312</v>
+      </c>
+      <c r="B208" t="s">
+        <v>313</v>
+      </c>
+      <c r="C208">
+        <v>604</v>
+      </c>
+      <c r="D208" t="s">
+        <v>332</v>
+      </c>
+      <c r="E208" t="s">
+        <v>332</v>
+      </c>
+      <c r="F208" t="s">
+        <v>7</v>
+      </c>
+      <c r="G208">
+        <v>60407</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>312</v>
+      </c>
+      <c r="B209" t="s">
+        <v>313</v>
+      </c>
+      <c r="C209">
+        <v>604</v>
+      </c>
+      <c r="D209" t="s">
+        <v>324</v>
+      </c>
+      <c r="E209" t="s">
+        <v>324</v>
+      </c>
+      <c r="F209" t="s">
+        <v>7</v>
+      </c>
+      <c r="G209">
+        <v>60408</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>312</v>
+      </c>
+      <c r="B210" t="s">
+        <v>313</v>
+      </c>
+      <c r="C210">
+        <v>604</v>
+      </c>
+      <c r="D210" t="s">
+        <v>333</v>
+      </c>
+      <c r="E210" t="s">
+        <v>334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>23</v>
+      </c>
+      <c r="G210">
+        <v>60409</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>312</v>
+      </c>
+      <c r="B211" t="s">
+        <v>313</v>
+      </c>
+      <c r="C211">
+        <v>604</v>
+      </c>
+      <c r="D211" t="s">
+        <v>325</v>
+      </c>
+      <c r="E211" t="s">
+        <v>326</v>
+      </c>
+      <c r="F211" t="s">
+        <v>38</v>
+      </c>
+      <c r="G211">
+        <v>60410</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>312</v>
+      </c>
+      <c r="B212" t="s">
+        <v>313</v>
+      </c>
+      <c r="C212">
+        <v>604</v>
+      </c>
+      <c r="D212" t="s">
+        <v>327</v>
+      </c>
+      <c r="E212" t="s">
+        <v>327</v>
+      </c>
+      <c r="F212" t="s">
+        <v>7</v>
+      </c>
+      <c r="G212">
+        <v>60411</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>312</v>
+      </c>
+      <c r="B213" t="s">
+        <v>313</v>
+      </c>
+      <c r="C213">
+        <v>604</v>
+      </c>
+      <c r="D213" t="s">
+        <v>328</v>
+      </c>
+      <c r="E213" t="s">
+        <v>329</v>
+      </c>
+      <c r="F213" t="s">
+        <v>38</v>
+      </c>
+      <c r="G213">
+        <v>60412</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>312</v>
+      </c>
+      <c r="B214" t="s">
+        <v>313</v>
+      </c>
+      <c r="C214">
+        <v>604</v>
+      </c>
+      <c r="D214" t="s">
+        <v>335</v>
+      </c>
+      <c r="E214" t="s">
+        <v>335</v>
+      </c>
+      <c r="F214" t="s">
+        <v>7</v>
+      </c>
+      <c r="G214">
+        <v>60413</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>312</v>
+      </c>
+      <c r="B215" t="s">
+        <v>313</v>
+      </c>
+      <c r="C215">
+        <v>604</v>
+      </c>
+      <c r="D215" t="s">
+        <v>330</v>
+      </c>
+      <c r="E215" t="s">
+        <v>330</v>
+      </c>
+      <c r="F215" t="s">
+        <v>7</v>
+      </c>
+      <c r="G215">
+        <v>60414</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>312</v>
+      </c>
+      <c r="B216" t="s">
+        <v>313</v>
+      </c>
+      <c r="C216">
+        <v>604</v>
+      </c>
+      <c r="D216" t="s">
+        <v>331</v>
+      </c>
+      <c r="E216" t="s">
+        <v>331</v>
+      </c>
+      <c r="F216" t="s">
+        <v>7</v>
+      </c>
+      <c r="G216">
+        <v>60415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>312</v>
+      </c>
+      <c r="B217" t="s">
+        <v>313</v>
+      </c>
+      <c r="C217">
+        <v>604</v>
+      </c>
+      <c r="D217" t="s">
+        <v>336</v>
+      </c>
+      <c r="E217" t="s">
+        <v>337</v>
+      </c>
+      <c r="F217" t="s">
+        <v>234</v>
+      </c>
+      <c r="G217">
+        <v>60416</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>352</v>
+      </c>
+      <c r="B218" t="s">
+        <v>353</v>
+      </c>
+      <c r="C218">
+        <v>605</v>
+      </c>
+      <c r="D218" t="s">
+        <v>338</v>
+      </c>
+      <c r="E218" t="s">
+        <v>338</v>
+      </c>
+      <c r="F218" t="s">
+        <v>7</v>
+      </c>
+      <c r="G218">
+        <v>60501</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>352</v>
+      </c>
+      <c r="B219" t="s">
+        <v>353</v>
+      </c>
+      <c r="C219">
+        <v>605</v>
+      </c>
+      <c r="D219" t="s">
+        <v>339</v>
+      </c>
+      <c r="E219" t="s">
+        <v>339</v>
+      </c>
+      <c r="F219" t="s">
+        <v>7</v>
+      </c>
+      <c r="G219">
+        <v>60502</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>352</v>
+      </c>
+      <c r="B220" t="s">
+        <v>353</v>
+      </c>
+      <c r="C220">
+        <v>605</v>
+      </c>
+      <c r="D220" t="s">
+        <v>340</v>
+      </c>
+      <c r="E220" t="s">
+        <v>340</v>
+      </c>
+      <c r="F220" t="s">
+        <v>7</v>
+      </c>
+      <c r="G220">
+        <v>60503</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>352</v>
+      </c>
+      <c r="B221" t="s">
+        <v>353</v>
+      </c>
+      <c r="C221">
+        <v>605</v>
+      </c>
+      <c r="D221" t="s">
+        <v>341</v>
+      </c>
+      <c r="E221" t="s">
+        <v>342</v>
+      </c>
+      <c r="F221" t="s">
+        <v>38</v>
+      </c>
+      <c r="G221">
+        <v>60504</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>352</v>
+      </c>
+      <c r="B222" t="s">
+        <v>353</v>
+      </c>
+      <c r="C222">
+        <v>605</v>
+      </c>
+      <c r="D222" t="s">
+        <v>343</v>
+      </c>
+      <c r="E222" t="s">
+        <v>344</v>
+      </c>
+      <c r="F222" t="s">
+        <v>38</v>
+      </c>
+      <c r="G222">
+        <v>60505</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>352</v>
+      </c>
+      <c r="B223" t="s">
+        <v>353</v>
+      </c>
+      <c r="C223">
+        <v>605</v>
+      </c>
+      <c r="D223" t="s">
+        <v>345</v>
+      </c>
+      <c r="E223" t="s">
+        <v>345</v>
+      </c>
+      <c r="F223" t="s">
+        <v>7</v>
+      </c>
+      <c r="G223">
+        <v>60506</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>352</v>
+      </c>
+      <c r="B224" t="s">
+        <v>353</v>
+      </c>
+      <c r="C224">
+        <v>605</v>
+      </c>
+      <c r="D224" t="s">
+        <v>346</v>
+      </c>
+      <c r="E224" t="s">
+        <v>347</v>
+      </c>
+      <c r="F224" t="s">
+        <v>5</v>
+      </c>
+      <c r="G224">
+        <v>60507</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>352</v>
+      </c>
+      <c r="B225" t="s">
+        <v>353</v>
+      </c>
+      <c r="C225">
+        <v>605</v>
+      </c>
+      <c r="D225" t="s">
+        <v>348</v>
+      </c>
+      <c r="E225" t="s">
+        <v>348</v>
+      </c>
+      <c r="F225" t="s">
+        <v>7</v>
+      </c>
+      <c r="G225">
+        <v>60508</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>352</v>
+      </c>
+      <c r="B226" t="s">
+        <v>353</v>
+      </c>
+      <c r="C226">
+        <v>605</v>
+      </c>
+      <c r="D226" t="s">
+        <v>349</v>
+      </c>
+      <c r="E226" t="s">
+        <v>350</v>
+      </c>
+      <c r="F226" t="s">
+        <v>80</v>
+      </c>
+      <c r="G226">
+        <v>60509</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>352</v>
+      </c>
+      <c r="B227" t="s">
+        <v>353</v>
+      </c>
+      <c r="C227">
+        <v>605</v>
+      </c>
+      <c r="D227" t="s">
+        <v>351</v>
+      </c>
+      <c r="E227" t="s">
+        <v>351</v>
+      </c>
+      <c r="F227" t="s">
+        <v>7</v>
+      </c>
+      <c r="G227">
+        <v>60510</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:G189">
-    <sortCondition ref="G175"/>
+  <sortState ref="A2:G227">
+    <sortCondition ref="G222"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="630">
   <si>
     <t>prefecture_han</t>
   </si>
@@ -2053,6 +2053,59 @@
     <t>南曲侯国</t>
     <rPh sb="0" eb="1">
       <t>ting</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>真定县</t>
+  </si>
+  <si>
+    <t>思治县</t>
+  </si>
+  <si>
+    <t>稾城县</t>
+  </si>
+  <si>
+    <t>稾实县</t>
+  </si>
+  <si>
+    <t>肥累县</t>
+  </si>
+  <si>
+    <t>绵曼县</t>
+  </si>
+  <si>
+    <t>绵延县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真定国</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>zhen'ding</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真定郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3022,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="G388" sqref="G388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5081,95 +5134,95 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" t="s">
-        <v>96</v>
+      <c r="A90" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="C90">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>621</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>622</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="G90">
-        <v>23501</v>
+        <v>21201</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" t="s">
-        <v>96</v>
+      <c r="A91" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="C91">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>623</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>624</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G91">
-        <v>23502</v>
+        <v>21202</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
+      <c r="A92" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="C92">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>625</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>625</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
       </c>
       <c r="G92">
-        <v>23503</v>
+        <v>21203</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="s">
-        <v>96</v>
+      <c r="A93" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="C93">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>626</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>627</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G93">
-        <v>23504</v>
+        <v>21204</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5183,16 +5236,16 @@
         <v>233</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G94">
-        <v>23505</v>
+        <v>23501</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5206,16 +5259,16 @@
         <v>233</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="G95">
-        <v>23506</v>
+        <v>23502</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5229,16 +5282,16 @@
         <v>233</v>
       </c>
       <c r="D96" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
       </c>
       <c r="G96">
-        <v>23507</v>
+        <v>23503</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5252,16 +5305,16 @@
         <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
       <c r="G97">
-        <v>23508</v>
+        <v>23504</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5275,16 +5328,16 @@
         <v>233</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G98">
-        <v>23509</v>
+        <v>23505</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5298,16 +5351,16 @@
         <v>233</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G99">
-        <v>23510</v>
+        <v>23506</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5321,16 +5374,16 @@
         <v>233</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E100" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G100">
-        <v>23511</v>
+        <v>23507</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5344,16 +5397,16 @@
         <v>233</v>
       </c>
       <c r="D101" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E101" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
       </c>
       <c r="G101">
-        <v>23512</v>
+        <v>23508</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5367,16 +5420,16 @@
         <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E102" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G102">
-        <v>23513</v>
+        <v>23509</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5390,16 +5443,16 @@
         <v>233</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E103" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G103">
-        <v>23514</v>
+        <v>23510</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5413,16 +5466,16 @@
         <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E104" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G104">
-        <v>23515</v>
+        <v>23511</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5436,16 +5489,16 @@
         <v>233</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E105" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G105">
-        <v>23516</v>
+        <v>23512</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5459,16 +5512,16 @@
         <v>233</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E106" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
       </c>
       <c r="G106">
-        <v>23517</v>
+        <v>23513</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5482,16 +5535,16 @@
         <v>233</v>
       </c>
       <c r="D107" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E107" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G107">
-        <v>23518</v>
+        <v>23514</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5505,16 +5558,16 @@
         <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E108" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108">
-        <v>23519</v>
+        <v>23515</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5528,16 +5581,16 @@
         <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E109" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G109">
-        <v>23520</v>
+        <v>23516</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5551,16 +5604,16 @@
         <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E110" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110">
-        <v>23521</v>
+        <v>23517</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5574,16 +5627,16 @@
         <v>233</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E111" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G111">
-        <v>23522</v>
+        <v>23518</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5597,16 +5650,16 @@
         <v>233</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112">
-        <v>23523</v>
+        <v>23519</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5620,16 +5673,16 @@
         <v>233</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E113" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
       </c>
       <c r="G113">
-        <v>23524</v>
+        <v>23520</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5643,16 +5696,16 @@
         <v>233</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E114" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G114">
-        <v>23525</v>
+        <v>23521</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5666,16 +5719,16 @@
         <v>233</v>
       </c>
       <c r="D115" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G115">
-        <v>23526</v>
+        <v>23522</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5689,16 +5742,16 @@
         <v>233</v>
       </c>
       <c r="D116" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G116">
-        <v>23527</v>
+        <v>23523</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5712,16 +5765,16 @@
         <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E117" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117">
-        <v>23528</v>
+        <v>23524</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5735,16 +5788,16 @@
         <v>233</v>
       </c>
       <c r="D118" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E118" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G118">
-        <v>23529</v>
+        <v>23525</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5758,16 +5811,16 @@
         <v>233</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E119" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119">
-        <v>23530</v>
+        <v>23526</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5781,16 +5834,16 @@
         <v>233</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G120">
-        <v>23531</v>
+        <v>23527</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5804,16 +5857,16 @@
         <v>233</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E121" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
       </c>
       <c r="G121">
-        <v>23532</v>
+        <v>23528</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5827,16 +5880,16 @@
         <v>233</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E122" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
       </c>
       <c r="G122">
-        <v>23533</v>
+        <v>23529</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5850,16 +5903,16 @@
         <v>233</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E123" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
       </c>
       <c r="G123">
-        <v>23534</v>
+        <v>23530</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5873,16 +5926,16 @@
         <v>233</v>
       </c>
       <c r="D124" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E124" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G124">
-        <v>23535</v>
+        <v>23531</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5896,16 +5949,16 @@
         <v>233</v>
       </c>
       <c r="D125" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E125" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
       </c>
       <c r="G125">
-        <v>23536</v>
+        <v>23532</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5919,16 +5972,16 @@
         <v>233</v>
       </c>
       <c r="D126" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E126" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G126">
-        <v>23537</v>
+        <v>23533</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5942,16 +5995,16 @@
         <v>233</v>
       </c>
       <c r="D127" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E127" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
       </c>
       <c r="G127">
-        <v>23538</v>
+        <v>23534</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5965,16 +6018,16 @@
         <v>233</v>
       </c>
       <c r="D128" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E128" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G128">
-        <v>23539</v>
+        <v>23535</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5988,16 +6041,16 @@
         <v>233</v>
       </c>
       <c r="D129" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E129" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
       </c>
       <c r="G129">
-        <v>23540</v>
+        <v>23536</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -6011,16 +6064,16 @@
         <v>233</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E130" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G130">
-        <v>23541</v>
+        <v>23537</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -6034,16 +6087,16 @@
         <v>233</v>
       </c>
       <c r="D131" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
       </c>
       <c r="G131">
-        <v>23542</v>
+        <v>23538</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6057,16 +6110,16 @@
         <v>233</v>
       </c>
       <c r="D132" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E132" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
       </c>
       <c r="G132">
-        <v>23543</v>
+        <v>23539</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6080,16 +6133,16 @@
         <v>233</v>
       </c>
       <c r="D133" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E133" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
       </c>
       <c r="G133">
-        <v>23544</v>
+        <v>23540</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6103,16 +6156,16 @@
         <v>233</v>
       </c>
       <c r="D134" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E134" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
       <c r="G134">
-        <v>23545</v>
+        <v>23541</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -6126,16 +6179,16 @@
         <v>233</v>
       </c>
       <c r="D135" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E135" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
       </c>
       <c r="G135">
-        <v>23546</v>
+        <v>23542</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -6149,16 +6202,16 @@
         <v>233</v>
       </c>
       <c r="D136" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E136" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F136" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="G136">
-        <v>23547</v>
+        <v>23543</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -6172,16 +6225,16 @@
         <v>233</v>
       </c>
       <c r="D137" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E137" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F137" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="G137">
-        <v>23548</v>
+        <v>23544</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -6195,16 +6248,16 @@
         <v>233</v>
       </c>
       <c r="D138" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E138" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F138" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="G138">
-        <v>23549</v>
+        <v>23545</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6218,16 +6271,16 @@
         <v>233</v>
       </c>
       <c r="D139" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E139" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G139">
-        <v>23550</v>
+        <v>23546</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6241,108 +6294,108 @@
         <v>233</v>
       </c>
       <c r="D140" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E140" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="G140">
-        <v>23551</v>
+        <v>23547</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C141">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D141" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E141" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="G141">
-        <v>40501</v>
+        <v>23548</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B142" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C142">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D142" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E142" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="G142">
-        <v>40502</v>
+        <v>23549</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C143">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E143" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G143">
-        <v>40503</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C144">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E144" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
       </c>
       <c r="G144">
-        <v>40504</v>
+        <v>23551</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -6356,16 +6409,16 @@
         <v>405</v>
       </c>
       <c r="D145" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E145" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F145" t="s">
         <v>13</v>
       </c>
       <c r="G145">
-        <v>40505</v>
+        <v>40501</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6379,16 +6432,16 @@
         <v>405</v>
       </c>
       <c r="D146" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E146" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G146">
-        <v>40506</v>
+        <v>40502</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -6402,16 +6455,16 @@
         <v>405</v>
       </c>
       <c r="D147" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E147" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G147">
-        <v>40507</v>
+        <v>40503</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -6425,16 +6478,16 @@
         <v>405</v>
       </c>
       <c r="D148" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E148" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G148">
-        <v>40508</v>
+        <v>40504</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -6448,16 +6501,16 @@
         <v>405</v>
       </c>
       <c r="D149" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E149" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F149" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="G149">
-        <v>40509</v>
+        <v>40505</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -6471,108 +6524,108 @@
         <v>405</v>
       </c>
       <c r="D150" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E150" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G150">
-        <v>40510</v>
+        <v>40506</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C151">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D151" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E151" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G151">
-        <v>50301</v>
+        <v>40507</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C152">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D152" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E152" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G152">
-        <v>50302</v>
+        <v>40508</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B153" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C153">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D153" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E153" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G153">
-        <v>50303</v>
+        <v>40509</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C154">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D154" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E154" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G154">
-        <v>50304</v>
+        <v>40510</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6586,16 +6639,16 @@
         <v>503</v>
       </c>
       <c r="D155" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E155" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G155">
-        <v>50305</v>
+        <v>50301</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6609,16 +6662,16 @@
         <v>503</v>
       </c>
       <c r="D156" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E156" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F156" t="s">
         <v>13</v>
       </c>
       <c r="G156">
-        <v>50306</v>
+        <v>50302</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6632,16 +6685,16 @@
         <v>503</v>
       </c>
       <c r="D157" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E157" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G157">
-        <v>50307</v>
+        <v>50303</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6655,16 +6708,16 @@
         <v>503</v>
       </c>
       <c r="D158" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E158" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F158" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="G158">
-        <v>50308</v>
+        <v>50304</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6678,16 +6731,16 @@
         <v>503</v>
       </c>
       <c r="D159" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E159" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G159">
-        <v>50309</v>
+        <v>50305</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6701,16 +6754,16 @@
         <v>503</v>
       </c>
       <c r="D160" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E160" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
       </c>
       <c r="G160">
-        <v>50310</v>
+        <v>50306</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6724,16 +6777,16 @@
         <v>503</v>
       </c>
       <c r="D161" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E161" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G161">
-        <v>50311</v>
+        <v>50307</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6747,16 +6800,16 @@
         <v>503</v>
       </c>
       <c r="D162" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E162" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G162">
-        <v>50312</v>
+        <v>50308</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6770,16 +6823,16 @@
         <v>503</v>
       </c>
       <c r="D163" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E163" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
       </c>
       <c r="G163">
-        <v>50313</v>
+        <v>50309</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6793,16 +6846,16 @@
         <v>503</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E164" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
       </c>
       <c r="G164">
-        <v>50314</v>
+        <v>50310</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6816,108 +6869,108 @@
         <v>503</v>
       </c>
       <c r="D165" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E165" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G165">
-        <v>50315</v>
+        <v>50311</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C166">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D166" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E166" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F166" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="G166">
-        <v>50401</v>
+        <v>50312</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C167">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D167" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E167" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
       </c>
       <c r="G167">
-        <v>50402</v>
+        <v>50313</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C168">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D168" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E168" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F168" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G168">
-        <v>50403</v>
+        <v>50314</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C169">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D169" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E169" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G169">
-        <v>50404</v>
+        <v>50315</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6931,16 +6984,16 @@
         <v>504</v>
       </c>
       <c r="D170" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E170" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G170">
-        <v>50405</v>
+        <v>50401</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6954,16 +7007,16 @@
         <v>504</v>
       </c>
       <c r="D171" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E171" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F171" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="G171">
-        <v>50406</v>
+        <v>50402</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6977,16 +7030,16 @@
         <v>504</v>
       </c>
       <c r="D172" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E172" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G172">
-        <v>50407</v>
+        <v>50403</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7000,16 +7053,16 @@
         <v>504</v>
       </c>
       <c r="D173" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E173" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F173" t="s">
         <v>13</v>
       </c>
       <c r="G173">
-        <v>50408</v>
+        <v>50404</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -7023,16 +7076,16 @@
         <v>504</v>
       </c>
       <c r="D174" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E174" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F174" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G174">
-        <v>50409</v>
+        <v>50405</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -7046,16 +7099,16 @@
         <v>504</v>
       </c>
       <c r="D175" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E175" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G175">
-        <v>50410</v>
+        <v>50406</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -7069,16 +7122,16 @@
         <v>504</v>
       </c>
       <c r="D176" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E176" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
       </c>
       <c r="G176">
-        <v>50411</v>
+        <v>50407</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -7092,108 +7145,108 @@
         <v>504</v>
       </c>
       <c r="D177" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E177" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
       </c>
       <c r="G177">
-        <v>50412</v>
+        <v>50408</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B178" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C178">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D178" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E178" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G178">
-        <v>50501</v>
+        <v>50409</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B179" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C179">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D179" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E179" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G179">
-        <v>50502</v>
+        <v>50410</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B180" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C180">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D180" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E180" t="s">
-        <v>496</v>
+        <v>247</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
       </c>
       <c r="G180">
-        <v>50503</v>
+        <v>50411</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C181">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D181" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E181" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
       </c>
       <c r="G181">
-        <v>50504</v>
+        <v>50412</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -7207,16 +7260,16 @@
         <v>505</v>
       </c>
       <c r="D182" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E182" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F182" t="s">
         <v>13</v>
       </c>
       <c r="G182">
-        <v>50505</v>
+        <v>50501</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -7230,16 +7283,16 @@
         <v>505</v>
       </c>
       <c r="D183" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E183" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F183" t="s">
         <v>13</v>
       </c>
       <c r="G183">
-        <v>50506</v>
+        <v>50502</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -7253,16 +7306,16 @@
         <v>505</v>
       </c>
       <c r="D184" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E184" t="s">
-        <v>257</v>
+        <v>496</v>
       </c>
       <c r="F184" t="s">
         <v>13</v>
       </c>
       <c r="G184">
-        <v>50507</v>
+        <v>50503</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -7276,16 +7329,16 @@
         <v>505</v>
       </c>
       <c r="D185" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E185" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F185" t="s">
         <v>13</v>
       </c>
       <c r="G185">
-        <v>50508</v>
+        <v>50504</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -7299,16 +7352,16 @@
         <v>505</v>
       </c>
       <c r="D186" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E186" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
       </c>
       <c r="G186">
-        <v>50509</v>
+        <v>50505</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -7322,16 +7375,16 @@
         <v>505</v>
       </c>
       <c r="D187" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E187" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F187" t="s">
         <v>13</v>
       </c>
       <c r="G187">
-        <v>50510</v>
+        <v>50506</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -7345,16 +7398,16 @@
         <v>505</v>
       </c>
       <c r="D188" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E188" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
       </c>
       <c r="G188">
-        <v>50511</v>
+        <v>50507</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -7368,16 +7421,16 @@
         <v>505</v>
       </c>
       <c r="D189" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E189" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F189" t="s">
         <v>13</v>
       </c>
       <c r="G189">
-        <v>50512</v>
+        <v>50508</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -7391,16 +7444,16 @@
         <v>505</v>
       </c>
       <c r="D190" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E190" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
       </c>
       <c r="G190">
-        <v>50513</v>
+        <v>50509</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7414,16 +7467,16 @@
         <v>505</v>
       </c>
       <c r="D191" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E191" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F191" t="s">
         <v>13</v>
       </c>
       <c r="G191">
-        <v>50514</v>
+        <v>50510</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7437,108 +7490,108 @@
         <v>505</v>
       </c>
       <c r="D192" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E192" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F192" t="s">
         <v>13</v>
       </c>
       <c r="G192">
-        <v>50515</v>
+        <v>50511</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C193">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D193" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E193" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F193" t="s">
         <v>13</v>
       </c>
       <c r="G193">
-        <v>50601</v>
+        <v>50512</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C194">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D194" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E194" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F194" t="s">
         <v>13</v>
       </c>
       <c r="G194">
-        <v>50602</v>
+        <v>50513</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B195" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C195">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D195" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E195" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F195" t="s">
         <v>13</v>
       </c>
       <c r="G195">
-        <v>50603</v>
+        <v>50514</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B196" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C196">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D196" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E196" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F196" t="s">
         <v>13</v>
       </c>
       <c r="G196">
-        <v>50604</v>
+        <v>50515</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -7552,16 +7605,16 @@
         <v>506</v>
       </c>
       <c r="D197" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E197" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F197" t="s">
         <v>13</v>
       </c>
       <c r="G197">
-        <v>50605</v>
+        <v>50601</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -7575,16 +7628,16 @@
         <v>506</v>
       </c>
       <c r="D198" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E198" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F198" t="s">
         <v>13</v>
       </c>
       <c r="G198">
-        <v>50606</v>
+        <v>50602</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -7598,16 +7651,16 @@
         <v>506</v>
       </c>
       <c r="D199" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E199" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
       </c>
       <c r="G199">
-        <v>50607</v>
+        <v>50603</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -7621,16 +7674,16 @@
         <v>506</v>
       </c>
       <c r="D200" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E200" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F200" t="s">
         <v>13</v>
       </c>
       <c r="G200">
-        <v>50608</v>
+        <v>50604</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -7644,16 +7697,16 @@
         <v>506</v>
       </c>
       <c r="D201" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E201" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
       </c>
       <c r="G201">
-        <v>50609</v>
+        <v>50605</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -7667,16 +7720,16 @@
         <v>506</v>
       </c>
       <c r="D202" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E202" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202">
-        <v>50610</v>
+        <v>50606</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -7690,16 +7743,16 @@
         <v>506</v>
       </c>
       <c r="D203" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E203" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
       </c>
       <c r="G203">
-        <v>50611</v>
+        <v>50607</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -7713,16 +7766,16 @@
         <v>506</v>
       </c>
       <c r="D204" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E204" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F204" t="s">
         <v>13</v>
       </c>
       <c r="G204">
-        <v>50612</v>
+        <v>50608</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -7736,16 +7789,16 @@
         <v>506</v>
       </c>
       <c r="D205" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E205" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F205" t="s">
         <v>13</v>
       </c>
       <c r="G205">
-        <v>50613</v>
+        <v>50609</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -7759,16 +7812,16 @@
         <v>506</v>
       </c>
       <c r="D206" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E206" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F206" t="s">
         <v>13</v>
       </c>
       <c r="G206">
-        <v>50614</v>
+        <v>50610</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -7782,16 +7835,16 @@
         <v>506</v>
       </c>
       <c r="D207" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E207" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F207" t="s">
         <v>13</v>
       </c>
       <c r="G207">
-        <v>50615</v>
+        <v>50611</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -7805,16 +7858,16 @@
         <v>506</v>
       </c>
       <c r="D208" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E208" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F208" t="s">
         <v>13</v>
       </c>
       <c r="G208">
-        <v>50616</v>
+        <v>50612</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -7828,16 +7881,16 @@
         <v>506</v>
       </c>
       <c r="D209" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E209" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209">
-        <v>50617</v>
+        <v>50613</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -7851,16 +7904,16 @@
         <v>506</v>
       </c>
       <c r="D210" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E210" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
       </c>
       <c r="G210">
-        <v>50618</v>
+        <v>50614</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -7874,16 +7927,16 @@
         <v>506</v>
       </c>
       <c r="D211" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E211" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F211" t="s">
         <v>13</v>
       </c>
       <c r="G211">
-        <v>50619</v>
+        <v>50615</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -7897,16 +7950,16 @@
         <v>506</v>
       </c>
       <c r="D212" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E212" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
       <c r="G212">
-        <v>50620</v>
+        <v>50616</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -7920,16 +7973,16 @@
         <v>506</v>
       </c>
       <c r="D213" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E213" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F213" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="G213">
-        <v>50621</v>
+        <v>50617</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7943,16 +7996,16 @@
         <v>506</v>
       </c>
       <c r="D214" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E214" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F214" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="G214">
-        <v>50622</v>
+        <v>50618</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7966,16 +8019,16 @@
         <v>506</v>
       </c>
       <c r="D215" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E215" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
       <c r="G215">
-        <v>50623</v>
+        <v>50619</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7989,108 +8042,108 @@
         <v>506</v>
       </c>
       <c r="D216" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E216" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F216" t="s">
         <v>13</v>
       </c>
       <c r="G216">
-        <v>50624</v>
+        <v>50620</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C217">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D217" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E217" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G217">
-        <v>50701</v>
+        <v>50621</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B218" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C218">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D218" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E218" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G218">
-        <v>50702</v>
+        <v>50622</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B219" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C219">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D219" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E219" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F219" t="s">
         <v>13</v>
       </c>
       <c r="G219">
-        <v>50703</v>
+        <v>50623</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B220" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C220">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D220" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E220" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F220" t="s">
         <v>13</v>
       </c>
       <c r="G220">
-        <v>50704</v>
+        <v>50624</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -8104,16 +8157,16 @@
         <v>507</v>
       </c>
       <c r="D221" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E221" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F221" t="s">
         <v>13</v>
       </c>
       <c r="G221">
-        <v>50705</v>
+        <v>50701</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -8127,16 +8180,16 @@
         <v>507</v>
       </c>
       <c r="D222" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E222" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F222" t="s">
         <v>13</v>
       </c>
       <c r="G222">
-        <v>50706</v>
+        <v>50702</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -8150,16 +8203,16 @@
         <v>507</v>
       </c>
       <c r="D223" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E223" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F223" t="s">
         <v>13</v>
       </c>
       <c r="G223">
-        <v>50707</v>
+        <v>50703</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -8173,16 +8226,16 @@
         <v>507</v>
       </c>
       <c r="D224" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E224" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F224" t="s">
         <v>13</v>
       </c>
       <c r="G224">
-        <v>50708</v>
+        <v>50704</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -8196,16 +8249,16 @@
         <v>507</v>
       </c>
       <c r="D225" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E225" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F225" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="G225">
-        <v>50709</v>
+        <v>50705</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -8219,16 +8272,16 @@
         <v>507</v>
       </c>
       <c r="D226" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E226" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G226">
-        <v>50710</v>
+        <v>50706</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -8242,16 +8295,16 @@
         <v>507</v>
       </c>
       <c r="D227" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E227" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F227" t="s">
         <v>13</v>
       </c>
       <c r="G227">
-        <v>50711</v>
+        <v>50707</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -8265,16 +8318,16 @@
         <v>507</v>
       </c>
       <c r="D228" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E228" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F228" t="s">
         <v>13</v>
       </c>
       <c r="G228">
-        <v>50712</v>
+        <v>50708</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -8288,16 +8341,16 @@
         <v>507</v>
       </c>
       <c r="D229" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E229" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F229" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G229">
-        <v>50713</v>
+        <v>50709</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -8311,16 +8364,16 @@
         <v>507</v>
       </c>
       <c r="D230" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E230" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F230" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G230">
-        <v>50714</v>
+        <v>50710</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -8334,16 +8387,16 @@
         <v>507</v>
       </c>
       <c r="D231" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E231" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F231" t="s">
         <v>13</v>
       </c>
       <c r="G231">
-        <v>50715</v>
+        <v>50711</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -8357,16 +8410,16 @@
         <v>507</v>
       </c>
       <c r="D232" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E232" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F232" t="s">
         <v>13</v>
       </c>
       <c r="G232">
-        <v>50716</v>
+        <v>50712</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -8380,108 +8433,108 @@
         <v>507</v>
       </c>
       <c r="D233" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E233" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F233" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G233">
-        <v>50717</v>
+        <v>50713</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B234" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C234">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D234" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E234" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F234" t="s">
         <v>13</v>
       </c>
       <c r="G234">
-        <v>50801</v>
+        <v>50714</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B235" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C235">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D235" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E235" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F235" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G235">
-        <v>50802</v>
+        <v>50715</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B236" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C236">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D236" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E236" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
       </c>
       <c r="G236">
-        <v>50803</v>
+        <v>50716</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B237" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C237">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D237" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E237" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F237" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G237">
-        <v>50804</v>
+        <v>50717</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -8495,16 +8548,16 @@
         <v>508</v>
       </c>
       <c r="D238" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E238" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
       </c>
       <c r="G238">
-        <v>50805</v>
+        <v>50801</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -8518,16 +8571,16 @@
         <v>508</v>
       </c>
       <c r="D239" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E239" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F239" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G239">
-        <v>50806</v>
+        <v>50802</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -8541,16 +8594,16 @@
         <v>508</v>
       </c>
       <c r="D240" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E240" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F240" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G240">
-        <v>50807</v>
+        <v>50803</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -8564,16 +8617,16 @@
         <v>508</v>
       </c>
       <c r="D241" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E241" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F241" t="s">
         <v>13</v>
       </c>
       <c r="G241">
-        <v>50808</v>
+        <v>50804</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -8587,16 +8640,16 @@
         <v>508</v>
       </c>
       <c r="D242" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E242" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F242" t="s">
         <v>13</v>
       </c>
       <c r="G242">
-        <v>50809</v>
+        <v>50805</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -8610,16 +8663,16 @@
         <v>508</v>
       </c>
       <c r="D243" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E243" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F243" t="s">
         <v>13</v>
       </c>
       <c r="G243">
-        <v>50810</v>
+        <v>50806</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -8633,108 +8686,108 @@
         <v>508</v>
       </c>
       <c r="D244" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E244" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G244">
-        <v>50811</v>
+        <v>50807</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B245" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C245">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D245" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E245" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F245" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G245">
-        <v>60101</v>
+        <v>50808</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B246" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C246">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D246" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E246" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F246" t="s">
         <v>13</v>
       </c>
       <c r="G246">
-        <v>60102</v>
+        <v>50809</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B247" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C247">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D247" t="s">
-        <v>497</v>
+        <v>329</v>
       </c>
       <c r="E247" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F247" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="G247">
-        <v>60103</v>
+        <v>50810</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B248" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C248">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D248" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E248" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F248" t="s">
         <v>39</v>
       </c>
       <c r="G248">
-        <v>60104</v>
+        <v>50811</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -8748,16 +8801,16 @@
         <v>601</v>
       </c>
       <c r="D249" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E249" t="s">
-        <v>498</v>
+        <v>335</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G249">
-        <v>60105</v>
+        <v>60101</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -8771,16 +8824,16 @@
         <v>601</v>
       </c>
       <c r="D250" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E250" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F250" t="s">
         <v>13</v>
       </c>
       <c r="G250">
-        <v>60106</v>
+        <v>60102</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -8794,16 +8847,16 @@
         <v>601</v>
       </c>
       <c r="D251" t="s">
-        <v>342</v>
+        <v>497</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>337</v>
       </c>
       <c r="F251" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G251">
-        <v>60107</v>
+        <v>60103</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8817,16 +8870,16 @@
         <v>601</v>
       </c>
       <c r="D252" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E252" t="s">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="F252" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G252">
-        <v>60108</v>
+        <v>60104</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -8840,108 +8893,108 @@
         <v>601</v>
       </c>
       <c r="D253" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E253" t="s">
-        <v>345</v>
+        <v>498</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G253">
-        <v>60109</v>
+        <v>60105</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B254" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C254">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D254" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E254" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F254" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G254">
-        <v>60201</v>
+        <v>60106</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B255" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C255">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D255" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E255" t="s">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="F255" t="s">
         <v>13</v>
       </c>
       <c r="G255">
-        <v>60202</v>
+        <v>60107</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B256" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C256">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D256" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E256" t="s">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
         <v>13</v>
       </c>
       <c r="G256">
-        <v>60203</v>
+        <v>60108</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B257" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C257">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D257" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>345</v>
       </c>
       <c r="F257" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G257">
-        <v>60204</v>
+        <v>60109</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -8955,16 +9008,16 @@
         <v>602</v>
       </c>
       <c r="D258" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E258" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F258" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G258">
-        <v>60205</v>
+        <v>60201</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -8978,16 +9031,16 @@
         <v>602</v>
       </c>
       <c r="D259" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E259" t="s">
-        <v>502</v>
+        <v>350</v>
       </c>
       <c r="F259" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G259">
-        <v>60206</v>
+        <v>60202</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -9001,16 +9054,16 @@
         <v>602</v>
       </c>
       <c r="D260" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E260" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F260" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G260">
-        <v>60207</v>
+        <v>60203</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -9024,16 +9077,16 @@
         <v>602</v>
       </c>
       <c r="D261" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G261">
-        <v>60208</v>
+        <v>60204</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -9047,16 +9100,16 @@
         <v>602</v>
       </c>
       <c r="D262" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E262" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F262" t="s">
-        <v>360</v>
+        <v>13</v>
       </c>
       <c r="G262">
-        <v>60209</v>
+        <v>60205</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -9070,16 +9123,16 @@
         <v>602</v>
       </c>
       <c r="D263" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E263" t="s">
-        <v>361</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G263">
-        <v>60210</v>
+        <v>60206</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -9093,108 +9146,108 @@
         <v>602</v>
       </c>
       <c r="D264" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E264" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F264" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="G264">
-        <v>60211</v>
+        <v>60207</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B265" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C265">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D265" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E265" t="s">
-        <v>367</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G265">
-        <v>60301</v>
+        <v>60208</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B266" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C266">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D266" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E266" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F266" t="s">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="G266">
-        <v>60302</v>
+        <v>60209</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B267" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C267">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D267" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E267" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F267" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G267">
-        <v>60303</v>
+        <v>60210</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B268" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C268">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D268" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E268" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F268" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G268">
-        <v>60304</v>
+        <v>60211</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -9208,16 +9261,16 @@
         <v>603</v>
       </c>
       <c r="D269" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E269" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F269" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G269">
-        <v>60305</v>
+        <v>60301</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -9231,16 +9284,16 @@
         <v>603</v>
       </c>
       <c r="D270" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E270" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F270" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G270">
-        <v>60306</v>
+        <v>60302</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -9254,16 +9307,16 @@
         <v>603</v>
       </c>
       <c r="D271" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E271" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F271" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G271">
-        <v>60307</v>
+        <v>60303</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -9277,16 +9330,16 @@
         <v>603</v>
       </c>
       <c r="D272" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E272" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G272">
-        <v>60308</v>
+        <v>60304</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -9300,16 +9353,16 @@
         <v>603</v>
       </c>
       <c r="D273" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E273" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F273" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G273">
-        <v>60309</v>
+        <v>60305</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -9323,16 +9376,16 @@
         <v>603</v>
       </c>
       <c r="D274" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E274" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F274" t="s">
         <v>13</v>
       </c>
       <c r="G274">
-        <v>60310</v>
+        <v>60306</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -9346,16 +9399,16 @@
         <v>603</v>
       </c>
       <c r="D275" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E275" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F275" t="s">
         <v>13</v>
       </c>
       <c r="G275">
-        <v>60311</v>
+        <v>60307</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -9369,16 +9422,16 @@
         <v>603</v>
       </c>
       <c r="D276" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E276" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F276" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G276">
-        <v>60312</v>
+        <v>60308</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -9392,108 +9445,108 @@
         <v>603</v>
       </c>
       <c r="D277" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E277" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F277" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G277">
-        <v>60313</v>
+        <v>60309</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B278" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C278">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D278" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E278" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F278" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G278">
-        <v>60401</v>
+        <v>60310</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B279" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C279">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D279" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E279" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F279" t="s">
         <v>13</v>
       </c>
       <c r="G279">
-        <v>60402</v>
+        <v>60311</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B280" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C280">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D280" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E280" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="F280" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G280">
-        <v>60403</v>
+        <v>60312</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B281" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C281">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D281" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E281" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G281">
-        <v>60404</v>
+        <v>60313</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -9507,16 +9560,16 @@
         <v>604</v>
       </c>
       <c r="D282" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E282" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F282" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G282">
-        <v>60405</v>
+        <v>60401</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -9530,16 +9583,16 @@
         <v>604</v>
       </c>
       <c r="D283" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E283" t="s">
-        <v>504</v>
+        <v>389</v>
       </c>
       <c r="F283" t="s">
         <v>13</v>
       </c>
       <c r="G283">
-        <v>60406</v>
+        <v>60402</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -9553,16 +9606,16 @@
         <v>604</v>
       </c>
       <c r="D284" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E284" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F284" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G284">
-        <v>60407</v>
+        <v>60403</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -9576,16 +9629,16 @@
         <v>604</v>
       </c>
       <c r="D285" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E285" t="s">
-        <v>505</v>
+        <v>393</v>
       </c>
       <c r="F285" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G285">
-        <v>60408</v>
+        <v>60404</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -9599,16 +9652,16 @@
         <v>604</v>
       </c>
       <c r="D286" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E286" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F286" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="G286">
-        <v>60409</v>
+        <v>60405</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -9622,16 +9675,16 @@
         <v>604</v>
       </c>
       <c r="D287" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E287" t="s">
-        <v>401</v>
+        <v>504</v>
       </c>
       <c r="F287" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G287">
-        <v>60410</v>
+        <v>60406</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -9645,16 +9698,16 @@
         <v>604</v>
       </c>
       <c r="D288" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E288" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F288" t="s">
         <v>13</v>
       </c>
       <c r="G288">
-        <v>60411</v>
+        <v>60407</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -9668,16 +9721,16 @@
         <v>604</v>
       </c>
       <c r="D289" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E289" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G289">
-        <v>60412</v>
+        <v>60408</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -9691,16 +9744,16 @@
         <v>604</v>
       </c>
       <c r="D290" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E290" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F290" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G290">
-        <v>60413</v>
+        <v>60409</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -9714,16 +9767,16 @@
         <v>604</v>
       </c>
       <c r="D291" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E291" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F291" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G291">
-        <v>60414</v>
+        <v>60410</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -9737,16 +9790,16 @@
         <v>604</v>
       </c>
       <c r="D292" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E292" t="s">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="F292" t="s">
         <v>13</v>
       </c>
       <c r="G292">
-        <v>60415</v>
+        <v>60411</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -9760,108 +9813,108 @@
         <v>604</v>
       </c>
       <c r="D293" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E293" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F293" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="G293">
-        <v>60416</v>
+        <v>60412</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B294" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C294">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D294" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E294" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F294" t="s">
         <v>13</v>
       </c>
       <c r="G294">
-        <v>60501</v>
+        <v>60413</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B295" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C295">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D295" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E295" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F295" t="s">
         <v>13</v>
       </c>
       <c r="G295">
-        <v>60502</v>
+        <v>60414</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B296" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C296">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D296" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E296" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="F296" t="s">
         <v>13</v>
       </c>
       <c r="G296">
-        <v>60503</v>
+        <v>60415</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B297" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C297">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D297" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E297" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="G297">
-        <v>60504</v>
+        <v>60416</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -9875,16 +9928,16 @@
         <v>605</v>
       </c>
       <c r="D298" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E298" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F298" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G298">
-        <v>60505</v>
+        <v>60501</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -9898,16 +9951,16 @@
         <v>605</v>
       </c>
       <c r="D299" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E299" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F299" t="s">
         <v>13</v>
       </c>
       <c r="G299">
-        <v>60506</v>
+        <v>60502</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -9921,16 +9974,16 @@
         <v>605</v>
       </c>
       <c r="D300" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E300" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F300" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G300">
-        <v>60507</v>
+        <v>60503</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -9944,16 +9997,16 @@
         <v>605</v>
       </c>
       <c r="D301" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E301" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F301" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G301">
-        <v>60508</v>
+        <v>60504</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -9967,16 +10020,16 @@
         <v>605</v>
       </c>
       <c r="D302" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E302" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G302">
-        <v>60509</v>
+        <v>60505</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -9990,108 +10043,108 @@
         <v>605</v>
       </c>
       <c r="D303" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E303" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F303" t="s">
         <v>13</v>
       </c>
       <c r="G303">
-        <v>60510</v>
+        <v>60506</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B304" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C304">
-        <v>719</v>
+        <v>605</v>
       </c>
       <c r="D304" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E304" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F304" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G304">
-        <v>71901</v>
+        <v>60507</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B305" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C305">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D305" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E305" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F305" t="s">
         <v>13</v>
       </c>
       <c r="G305">
-        <v>71901</v>
+        <v>60508</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B306" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C306">
-        <v>719</v>
+        <v>605</v>
       </c>
       <c r="D306" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E306" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F306" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G306">
-        <v>71902</v>
+        <v>60509</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B307" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C307">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D307" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="E307" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F307" t="s">
         <v>13</v>
       </c>
       <c r="G307">
-        <v>71902</v>
+        <v>60510</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -10105,16 +10158,16 @@
         <v>719</v>
       </c>
       <c r="D308" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E308" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G308">
-        <v>71903</v>
+        <v>71901</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -10128,39 +10181,39 @@
         <v>720</v>
       </c>
       <c r="D309" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
       <c r="E309" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G309">
-        <v>71903</v>
+        <v>71901</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B310" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C310">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D310" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E310" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F310" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G310">
-        <v>71904</v>
+        <v>71902</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -10174,39 +10227,39 @@
         <v>720</v>
       </c>
       <c r="D311" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E311" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F311" t="s">
         <v>13</v>
       </c>
       <c r="G311">
-        <v>71905</v>
+        <v>71902</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B312" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C312">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D312" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E312" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F312" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G312">
-        <v>71906</v>
+        <v>71903</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -10220,16 +10273,16 @@
         <v>720</v>
       </c>
       <c r="D313" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="E313" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F313" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G313">
-        <v>71907</v>
+        <v>71903</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -10243,16 +10296,16 @@
         <v>720</v>
       </c>
       <c r="D314" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E314" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F314" t="s">
         <v>13</v>
       </c>
       <c r="G314">
-        <v>71908</v>
+        <v>71904</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -10266,16 +10319,16 @@
         <v>720</v>
       </c>
       <c r="D315" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E315" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F315" t="s">
         <v>13</v>
       </c>
       <c r="G315">
-        <v>71909</v>
+        <v>71905</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -10289,16 +10342,16 @@
         <v>720</v>
       </c>
       <c r="D316" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E316" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F316" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G316">
-        <v>71910</v>
+        <v>71906</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -10312,16 +10365,16 @@
         <v>720</v>
       </c>
       <c r="D317" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E317" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F317" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G317">
-        <v>71911</v>
+        <v>71907</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -10335,16 +10388,16 @@
         <v>720</v>
       </c>
       <c r="D318" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E318" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F318" t="s">
         <v>13</v>
       </c>
       <c r="G318">
-        <v>71912</v>
+        <v>71908</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -10358,16 +10411,16 @@
         <v>720</v>
       </c>
       <c r="D319" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E319" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F319" t="s">
         <v>13</v>
       </c>
       <c r="G319">
-        <v>71913</v>
+        <v>71909</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -10381,16 +10434,16 @@
         <v>720</v>
       </c>
       <c r="D320" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E320" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F320" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G320">
-        <v>71914</v>
+        <v>71910</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -10404,16 +10457,16 @@
         <v>720</v>
       </c>
       <c r="D321" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E321" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F321" t="s">
         <v>13</v>
       </c>
       <c r="G321">
-        <v>71915</v>
+        <v>71911</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -10427,16 +10480,16 @@
         <v>720</v>
       </c>
       <c r="D322" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E322" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F322" t="s">
         <v>13</v>
       </c>
       <c r="G322">
-        <v>71916</v>
+        <v>71912</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -10450,16 +10503,16 @@
         <v>720</v>
       </c>
       <c r="D323" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E323" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F323" t="s">
         <v>13</v>
       </c>
       <c r="G323">
-        <v>71917</v>
+        <v>71913</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -10473,16 +10526,16 @@
         <v>720</v>
       </c>
       <c r="D324" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E324" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F324" t="s">
         <v>13</v>
       </c>
       <c r="G324">
-        <v>71918</v>
+        <v>71914</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -10496,16 +10549,16 @@
         <v>720</v>
       </c>
       <c r="D325" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E325" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F325" t="s">
         <v>13</v>
       </c>
       <c r="G325">
-        <v>71919</v>
+        <v>71915</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -10519,16 +10572,16 @@
         <v>720</v>
       </c>
       <c r="D326" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E326" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F326" t="s">
         <v>13</v>
       </c>
       <c r="G326">
-        <v>71920</v>
+        <v>71916</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -10542,16 +10595,16 @@
         <v>720</v>
       </c>
       <c r="D327" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E327" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F327" t="s">
         <v>13</v>
       </c>
       <c r="G327">
-        <v>71921</v>
+        <v>71917</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -10565,16 +10618,16 @@
         <v>720</v>
       </c>
       <c r="D328" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E328" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F328" t="s">
         <v>13</v>
       </c>
       <c r="G328">
-        <v>71922</v>
+        <v>71918</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -10588,16 +10641,16 @@
         <v>720</v>
       </c>
       <c r="D329" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E329" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F329" t="s">
         <v>13</v>
       </c>
       <c r="G329">
-        <v>71923</v>
+        <v>71919</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -10611,16 +10664,16 @@
         <v>720</v>
       </c>
       <c r="D330" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E330" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F330" t="s">
         <v>13</v>
       </c>
       <c r="G330">
-        <v>71924</v>
+        <v>71920</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -10634,108 +10687,108 @@
         <v>720</v>
       </c>
       <c r="D331" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E331" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F331" t="s">
         <v>13</v>
       </c>
       <c r="G331">
-        <v>71925</v>
+        <v>71921</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B332" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C332">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D332" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="E332" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="F332" t="s">
         <v>13</v>
       </c>
       <c r="G332">
-        <v>80101</v>
+        <v>71922</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B333" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C333">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D333" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="E333" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="F333" t="s">
         <v>13</v>
       </c>
       <c r="G333">
-        <v>80102</v>
+        <v>71923</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B334" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C334">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D334" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="E334" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="F334" t="s">
         <v>13</v>
       </c>
       <c r="G334">
-        <v>80103</v>
+        <v>71924</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B335" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C335">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D335" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="E335" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="F335" t="s">
         <v>13</v>
       </c>
       <c r="G335">
-        <v>80104</v>
+        <v>71925</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -10749,16 +10802,16 @@
         <v>801</v>
       </c>
       <c r="D336" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E336" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F336" t="s">
         <v>13</v>
       </c>
       <c r="G336">
-        <v>80105</v>
+        <v>80101</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -10772,108 +10825,108 @@
         <v>801</v>
       </c>
       <c r="D337" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E337" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F337" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G337">
-        <v>80106</v>
+        <v>80102</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B338" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C338">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D338" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E338" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F338" t="s">
         <v>13</v>
       </c>
       <c r="G338">
-        <v>80201</v>
+        <v>80103</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B339" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C339">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D339" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E339" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F339" t="s">
         <v>13</v>
       </c>
       <c r="G339">
-        <v>80202</v>
+        <v>80104</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B340" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C340">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D340" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E340" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F340" t="s">
         <v>13</v>
       </c>
       <c r="G340">
-        <v>80203</v>
+        <v>80105</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B341" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C341">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D341" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E341" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F341" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G341">
-        <v>80204</v>
+        <v>80106</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -10887,16 +10940,16 @@
         <v>802</v>
       </c>
       <c r="D342" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E342" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F342" t="s">
         <v>13</v>
       </c>
       <c r="G342">
-        <v>80205</v>
+        <v>80201</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -10910,16 +10963,16 @@
         <v>802</v>
       </c>
       <c r="D343" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E343" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F343" t="s">
         <v>13</v>
       </c>
       <c r="G343">
-        <v>80206</v>
+        <v>80202</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -10933,16 +10986,16 @@
         <v>802</v>
       </c>
       <c r="D344" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E344" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F344" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="G344">
-        <v>80207</v>
+        <v>80203</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -10956,16 +11009,16 @@
         <v>802</v>
       </c>
       <c r="D345" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E345" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F345" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G345">
-        <v>80208</v>
+        <v>80204</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -10979,16 +11032,16 @@
         <v>802</v>
       </c>
       <c r="D346" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E346" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F346" t="s">
         <v>13</v>
       </c>
       <c r="G346">
-        <v>80209</v>
+        <v>80205</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -11002,16 +11055,16 @@
         <v>802</v>
       </c>
       <c r="D347" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E347" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F347" t="s">
         <v>13</v>
       </c>
       <c r="G347">
-        <v>80210</v>
+        <v>80206</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -11025,16 +11078,16 @@
         <v>802</v>
       </c>
       <c r="D348" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E348" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F348" t="s">
-        <v>13</v>
+        <v>526</v>
       </c>
       <c r="G348">
-        <v>80211</v>
+        <v>80207</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -11048,108 +11101,108 @@
         <v>802</v>
       </c>
       <c r="D349" t="s">
+        <v>527</v>
+      </c>
+      <c r="E349" t="s">
+        <v>528</v>
+      </c>
+      <c r="F349" t="s">
+        <v>46</v>
+      </c>
+      <c r="G349">
+        <v>80208</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>517</v>
+      </c>
+      <c r="B350" t="s">
+        <v>516</v>
+      </c>
+      <c r="C350">
+        <v>802</v>
+      </c>
+      <c r="D350" t="s">
+        <v>529</v>
+      </c>
+      <c r="E350" t="s">
+        <v>529</v>
+      </c>
+      <c r="F350" t="s">
+        <v>13</v>
+      </c>
+      <c r="G350">
+        <v>80209</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" t="s">
+        <v>517</v>
+      </c>
+      <c r="B351" t="s">
+        <v>516</v>
+      </c>
+      <c r="C351">
+        <v>802</v>
+      </c>
+      <c r="D351" t="s">
+        <v>530</v>
+      </c>
+      <c r="E351" t="s">
+        <v>530</v>
+      </c>
+      <c r="F351" t="s">
+        <v>13</v>
+      </c>
+      <c r="G351">
+        <v>80210</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>517</v>
+      </c>
+      <c r="B352" t="s">
+        <v>516</v>
+      </c>
+      <c r="C352">
+        <v>802</v>
+      </c>
+      <c r="D352" t="s">
+        <v>531</v>
+      </c>
+      <c r="E352" t="s">
+        <v>531</v>
+      </c>
+      <c r="F352" t="s">
+        <v>13</v>
+      </c>
+      <c r="G352">
+        <v>80211</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>517</v>
+      </c>
+      <c r="B353" t="s">
+        <v>516</v>
+      </c>
+      <c r="C353">
+        <v>802</v>
+      </c>
+      <c r="D353" t="s">
         <v>532</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E353" t="s">
         <v>532</v>
       </c>
-      <c r="F349" t="s">
-        <v>13</v>
-      </c>
-      <c r="G349">
+      <c r="F353" t="s">
+        <v>13</v>
+      </c>
+      <c r="G353">
         <v>80212</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
-      <c r="A350" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C350">
-        <v>803</v>
-      </c>
-      <c r="D350" t="s">
-        <v>535</v>
-      </c>
-      <c r="E350" t="s">
-        <v>536</v>
-      </c>
-      <c r="F350" t="s">
-        <v>39</v>
-      </c>
-      <c r="G350">
-        <v>80301</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C351">
-        <v>803</v>
-      </c>
-      <c r="D351" t="s">
-        <v>537</v>
-      </c>
-      <c r="E351" t="s">
-        <v>537</v>
-      </c>
-      <c r="F351" t="s">
-        <v>13</v>
-      </c>
-      <c r="G351">
-        <v>80302</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C352">
-        <v>803</v>
-      </c>
-      <c r="D352" t="s">
-        <v>538</v>
-      </c>
-      <c r="E352" t="s">
-        <v>538</v>
-      </c>
-      <c r="F352" t="s">
-        <v>13</v>
-      </c>
-      <c r="G352">
-        <v>80303</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C353">
-        <v>803</v>
-      </c>
-      <c r="D353" t="s">
-        <v>539</v>
-      </c>
-      <c r="E353" t="s">
-        <v>539</v>
-      </c>
-      <c r="F353" t="s">
-        <v>13</v>
-      </c>
-      <c r="G353">
-        <v>80304</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -11163,16 +11216,16 @@
         <v>803</v>
       </c>
       <c r="D354" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E354" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F354" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G354">
-        <v>80305</v>
+        <v>80301</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -11186,16 +11239,16 @@
         <v>803</v>
       </c>
       <c r="D355" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E355" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F355" t="s">
         <v>13</v>
       </c>
       <c r="G355">
-        <v>80306</v>
+        <v>80302</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -11209,16 +11262,16 @@
         <v>803</v>
       </c>
       <c r="D356" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E356" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F356" t="s">
         <v>13</v>
       </c>
       <c r="G356">
-        <v>80307</v>
+        <v>80303</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -11232,16 +11285,16 @@
         <v>803</v>
       </c>
       <c r="D357" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E357" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F357" t="s">
         <v>13</v>
       </c>
       <c r="G357">
-        <v>80308</v>
+        <v>80304</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -11255,16 +11308,16 @@
         <v>803</v>
       </c>
       <c r="D358" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E358" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F358" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G358">
-        <v>80309</v>
+        <v>80305</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -11278,108 +11331,108 @@
         <v>803</v>
       </c>
       <c r="D359" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E359" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F359" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G359">
-        <v>80310</v>
+        <v>80306</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C360">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D360" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E360" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="F360" t="s">
         <v>13</v>
       </c>
       <c r="G360">
-        <v>80401</v>
+        <v>80307</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C361">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D361" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E361" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F361" t="s">
         <v>13</v>
       </c>
       <c r="G361">
-        <v>80402</v>
+        <v>80308</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C362">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D362" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E362" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F362" t="s">
         <v>13</v>
       </c>
       <c r="G362">
-        <v>80403</v>
+        <v>80309</v>
       </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C363">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D363" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="E363" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F363" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G363">
-        <v>80404</v>
+        <v>80310</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -11393,16 +11446,16 @@
         <v>804</v>
       </c>
       <c r="D364" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E364" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F364" t="s">
         <v>13</v>
       </c>
       <c r="G364">
-        <v>80405</v>
+        <v>80401</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -11416,16 +11469,16 @@
         <v>804</v>
       </c>
       <c r="D365" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="E365" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F365" t="s">
         <v>13</v>
       </c>
       <c r="G365">
-        <v>80406</v>
+        <v>80402</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -11439,16 +11492,16 @@
         <v>804</v>
       </c>
       <c r="D366" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E366" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F366" t="s">
         <v>13</v>
       </c>
       <c r="G366">
-        <v>80407</v>
+        <v>80403</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -11462,16 +11515,16 @@
         <v>804</v>
       </c>
       <c r="D367" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E367" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F367" t="s">
         <v>13</v>
       </c>
       <c r="G367">
-        <v>80408</v>
+        <v>80404</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -11485,16 +11538,16 @@
         <v>804</v>
       </c>
       <c r="D368" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="E368" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F368" t="s">
         <v>13</v>
       </c>
       <c r="G368">
-        <v>80409</v>
+        <v>80405</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -11508,108 +11561,108 @@
         <v>804</v>
       </c>
       <c r="D369" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E369" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F369" t="s">
         <v>13</v>
       </c>
       <c r="G369">
-        <v>80410</v>
+        <v>80406</v>
       </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C370">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D370" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E370" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F370" t="s">
         <v>13</v>
       </c>
       <c r="G370">
-        <v>80501</v>
+        <v>80407</v>
       </c>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C371">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D371" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="E371" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F371" t="s">
         <v>13</v>
       </c>
       <c r="G371">
-        <v>80502</v>
+        <v>80408</v>
       </c>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C372">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D372" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E372" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G372">
-        <v>80503</v>
+        <v>80409</v>
       </c>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C373">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D373" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E373" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F373" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G373">
-        <v>80504</v>
+        <v>80410</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -11623,108 +11676,108 @@
         <v>805</v>
       </c>
       <c r="D374" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E374" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F374" t="s">
         <v>13</v>
       </c>
       <c r="G374">
-        <v>80505</v>
+        <v>80501</v>
       </c>
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C375">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D375" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E375" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F375" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G375">
-        <v>80601</v>
+        <v>80502</v>
       </c>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C376">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D376" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E376" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F376" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G376">
-        <v>80602</v>
+        <v>80503</v>
       </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C377">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D377" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E377" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F377" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G377">
-        <v>80603</v>
+        <v>80504</v>
       </c>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C378">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D378" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E378" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F378" t="s">
         <v>13</v>
       </c>
       <c r="G378">
-        <v>80604</v>
+        <v>80505</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -11738,16 +11791,16 @@
         <v>806</v>
       </c>
       <c r="D379" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E379" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F379" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G379">
-        <v>80605</v>
+        <v>80601</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -11761,16 +11814,16 @@
         <v>806</v>
       </c>
       <c r="D380" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E380" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F380" t="s">
         <v>13</v>
       </c>
       <c r="G380">
-        <v>80606</v>
+        <v>80602</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -11784,108 +11837,108 @@
         <v>806</v>
       </c>
       <c r="D381" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E381" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F381" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G381">
-        <v>80607</v>
+        <v>80603</v>
       </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C382">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D382" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E382" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F382" t="s">
         <v>13</v>
       </c>
       <c r="G382">
-        <v>80701</v>
+        <v>80604</v>
       </c>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C383">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D383" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E383" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F383" t="s">
         <v>13</v>
       </c>
       <c r="G383">
-        <v>80702</v>
+        <v>80605</v>
       </c>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C384">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D384" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E384" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F384" t="s">
         <v>13</v>
       </c>
       <c r="G384">
-        <v>80703</v>
+        <v>80606</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C385">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D385" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E385" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F385" t="s">
         <v>39</v>
       </c>
       <c r="G385">
-        <v>80704</v>
+        <v>80607</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -11899,21 +11952,113 @@
         <v>807</v>
       </c>
       <c r="D386" t="s">
+        <v>579</v>
+      </c>
+      <c r="E386" t="s">
+        <v>579</v>
+      </c>
+      <c r="F386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386">
+        <v>80701</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C387">
+        <v>807</v>
+      </c>
+      <c r="D387" t="s">
+        <v>580</v>
+      </c>
+      <c r="E387" t="s">
+        <v>580</v>
+      </c>
+      <c r="F387" t="s">
+        <v>13</v>
+      </c>
+      <c r="G387">
+        <v>80702</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C388">
+        <v>807</v>
+      </c>
+      <c r="D388" t="s">
+        <v>581</v>
+      </c>
+      <c r="E388" t="s">
+        <v>581</v>
+      </c>
+      <c r="F388" t="s">
+        <v>13</v>
+      </c>
+      <c r="G388">
+        <v>80703</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C389">
+        <v>807</v>
+      </c>
+      <c r="D389" t="s">
+        <v>582</v>
+      </c>
+      <c r="E389" t="s">
+        <v>583</v>
+      </c>
+      <c r="F389" t="s">
+        <v>39</v>
+      </c>
+      <c r="G389">
+        <v>80704</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C390">
+        <v>807</v>
+      </c>
+      <c r="D390" t="s">
         <v>584</v>
       </c>
-      <c r="E386" t="s">
+      <c r="E390" t="s">
         <v>584</v>
       </c>
-      <c r="F386" t="s">
-        <v>13</v>
-      </c>
-      <c r="G386">
+      <c r="F390" t="s">
+        <v>13</v>
+      </c>
+      <c r="G390">
         <v>80705</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H386">
-    <sortCondition ref="G373"/>
+  <sortState ref="A2:H390">
+    <sortCondition ref="G388"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="655">
   <si>
     <t>prefecture_han</t>
   </si>
@@ -2106,6 +2106,107 @@
     </r>
     <rPh sb="0" eb="1">
       <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢奴县</t>
+  </si>
+  <si>
+    <t>北平县</t>
+  </si>
+  <si>
+    <t>善和县</t>
+  </si>
+  <si>
+    <t>北新成县</t>
+  </si>
+  <si>
+    <t>朔平县</t>
+  </si>
+  <si>
+    <t>唐县</t>
+  </si>
+  <si>
+    <t>和亲县</t>
+  </si>
+  <si>
+    <t>深泽县</t>
+  </si>
+  <si>
+    <t>翼和县</t>
+  </si>
+  <si>
+    <t>苦陉县</t>
+  </si>
+  <si>
+    <t>北陉县</t>
+  </si>
+  <si>
+    <t>安国县</t>
+  </si>
+  <si>
+    <t>兴睦县</t>
+  </si>
+  <si>
+    <t>曲逆县</t>
+  </si>
+  <si>
+    <t>顺平县</t>
+  </si>
+  <si>
+    <t>望都县</t>
+  </si>
+  <si>
+    <t>顺调县</t>
+  </si>
+  <si>
+    <t>新市县</t>
+  </si>
+  <si>
+    <t>新处县</t>
+  </si>
+  <si>
+    <t>毋极县</t>
+  </si>
+  <si>
+    <t>陆成县</t>
+  </si>
+  <si>
+    <t>安险县</t>
+  </si>
+  <si>
+    <t>宁险县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中山国</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>zhogn'shan'guo</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常山郡</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>chang'shan</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3075,10 +3176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H390"/>
+  <dimension ref="A1:H404"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="G388" sqref="G388"/>
+      <selection activeCell="G397" sqref="G397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5226,325 +5327,325 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="s">
-        <v>96</v>
+      <c r="A94" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C94">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>630</v>
       </c>
       <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94">
+        <v>21301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C95">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>631</v>
+      </c>
+      <c r="E95" t="s">
+        <v>632</v>
+      </c>
+      <c r="F95" t="s">
         <v>30</v>
       </c>
-      <c r="G94">
-        <v>23501</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95">
-        <v>233</v>
-      </c>
-      <c r="D95" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" t="s">
-        <v>99</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
       <c r="G95">
-        <v>23502</v>
+        <v>21302</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>96</v>
+      <c r="A96" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C96">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>633</v>
       </c>
       <c r="E96" t="s">
-        <v>100</v>
+        <v>634</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="G96">
-        <v>23503</v>
+        <v>21303</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>96</v>
+      <c r="A97" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C97">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>635</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
+        <v>636</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G97">
-        <v>23504</v>
+        <v>21304</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" t="s">
-        <v>96</v>
+      <c r="A98" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C98">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>637</v>
       </c>
       <c r="E98" t="s">
-        <v>102</v>
+        <v>638</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G98">
-        <v>23505</v>
+        <v>21305</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" t="s">
-        <v>96</v>
+      <c r="A99" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C99">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>639</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>640</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G99">
-        <v>23506</v>
+        <v>21306</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100" t="s">
-        <v>96</v>
+      <c r="A100" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C100">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>641</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>642</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G100">
-        <v>23507</v>
+        <v>21307</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>95</v>
-      </c>
-      <c r="B101" t="s">
-        <v>96</v>
+      <c r="A101" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C101">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
+        <v>643</v>
       </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>644</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G101">
-        <v>23508</v>
+        <v>21308</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" t="s">
-        <v>96</v>
+      <c r="A102" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C102">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>645</v>
       </c>
       <c r="E102" t="s">
-        <v>109</v>
+        <v>646</v>
       </c>
       <c r="F102" t="s">
         <v>30</v>
       </c>
       <c r="G102">
-        <v>23509</v>
+        <v>21309</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" t="s">
-        <v>96</v>
+      <c r="A103" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C103">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D103" t="s">
-        <v>110</v>
+        <v>647</v>
       </c>
       <c r="E103" t="s">
-        <v>111</v>
+        <v>647</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
       </c>
       <c r="G103">
-        <v>23510</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" t="s">
-        <v>95</v>
-      </c>
-      <c r="B104" t="s">
-        <v>96</v>
+      <c r="A104" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C104">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s">
-        <v>112</v>
+        <v>648</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>648</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G104">
-        <v>23511</v>
+        <v>21311</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" t="s">
-        <v>96</v>
+      <c r="A105" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C105">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>114</v>
+        <v>649</v>
       </c>
       <c r="E105" t="s">
-        <v>114</v>
+        <v>649</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105">
-        <v>23512</v>
+        <v>21312</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" t="s">
-        <v>96</v>
+      <c r="A106" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C106">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D106" t="s">
-        <v>115</v>
+        <v>650</v>
       </c>
       <c r="E106" t="s">
-        <v>116</v>
+        <v>650</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
       </c>
       <c r="G106">
-        <v>23513</v>
+        <v>21313</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" t="s">
-        <v>95</v>
-      </c>
-      <c r="B107" t="s">
-        <v>96</v>
+      <c r="A107" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C107">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="E107" t="s">
-        <v>118</v>
+        <v>652</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G107">
-        <v>23514</v>
+        <v>21314</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5558,16 +5659,16 @@
         <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E108" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G108">
-        <v>23515</v>
+        <v>23501</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5581,16 +5682,16 @@
         <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E109" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G109">
-        <v>23516</v>
+        <v>23502</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5604,16 +5705,16 @@
         <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110">
-        <v>23517</v>
+        <v>23503</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5627,16 +5728,16 @@
         <v>233</v>
       </c>
       <c r="D111" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E111" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
       </c>
       <c r="G111">
-        <v>23518</v>
+        <v>23504</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5650,16 +5751,16 @@
         <v>233</v>
       </c>
       <c r="D112" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E112" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112">
-        <v>23519</v>
+        <v>23505</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5673,16 +5774,16 @@
         <v>233</v>
       </c>
       <c r="D113" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E113" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G113">
-        <v>23520</v>
+        <v>23506</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5696,16 +5797,16 @@
         <v>233</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E114" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
       </c>
       <c r="G114">
-        <v>23521</v>
+        <v>23507</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5719,16 +5820,16 @@
         <v>233</v>
       </c>
       <c r="D115" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E115" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G115">
-        <v>23522</v>
+        <v>23508</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5742,16 +5843,16 @@
         <v>233</v>
       </c>
       <c r="D116" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G116">
-        <v>23523</v>
+        <v>23509</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5765,16 +5866,16 @@
         <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E117" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117">
-        <v>23524</v>
+        <v>23510</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5788,16 +5889,16 @@
         <v>233</v>
       </c>
       <c r="D118" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E118" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G118">
-        <v>23525</v>
+        <v>23511</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5811,16 +5912,16 @@
         <v>233</v>
       </c>
       <c r="D119" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E119" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119">
-        <v>23526</v>
+        <v>23512</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5834,16 +5935,16 @@
         <v>233</v>
       </c>
       <c r="D120" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E120" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G120">
-        <v>23527</v>
+        <v>23513</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5857,16 +5958,16 @@
         <v>233</v>
       </c>
       <c r="D121" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G121">
-        <v>23528</v>
+        <v>23514</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5880,16 +5981,16 @@
         <v>233</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E122" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
       </c>
       <c r="G122">
-        <v>23529</v>
+        <v>23515</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5903,16 +6004,16 @@
         <v>233</v>
       </c>
       <c r="D123" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G123">
-        <v>23530</v>
+        <v>23516</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5926,16 +6027,16 @@
         <v>233</v>
       </c>
       <c r="D124" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G124">
-        <v>23531</v>
+        <v>23517</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5949,16 +6050,16 @@
         <v>233</v>
       </c>
       <c r="D125" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E125" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
       </c>
       <c r="G125">
-        <v>23532</v>
+        <v>23518</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5972,16 +6073,16 @@
         <v>233</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
       </c>
       <c r="G126">
-        <v>23533</v>
+        <v>23519</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5995,16 +6096,16 @@
         <v>233</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
       </c>
       <c r="G127">
-        <v>23534</v>
+        <v>23520</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -6018,16 +6119,16 @@
         <v>233</v>
       </c>
       <c r="D128" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G128">
-        <v>23535</v>
+        <v>23521</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -6041,16 +6142,16 @@
         <v>233</v>
       </c>
       <c r="D129" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E129" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G129">
-        <v>23536</v>
+        <v>23522</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -6064,16 +6165,16 @@
         <v>233</v>
       </c>
       <c r="D130" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G130">
-        <v>23537</v>
+        <v>23523</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -6087,16 +6188,16 @@
         <v>233</v>
       </c>
       <c r="D131" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
       </c>
       <c r="G131">
-        <v>23538</v>
+        <v>23524</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6110,16 +6211,16 @@
         <v>233</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G132">
-        <v>23539</v>
+        <v>23525</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6133,16 +6234,16 @@
         <v>233</v>
       </c>
       <c r="D133" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
       </c>
       <c r="G133">
-        <v>23540</v>
+        <v>23526</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6156,16 +6257,16 @@
         <v>233</v>
       </c>
       <c r="D134" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G134">
-        <v>23541</v>
+        <v>23527</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -6179,16 +6280,16 @@
         <v>233</v>
       </c>
       <c r="D135" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="E135" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
       </c>
       <c r="G135">
-        <v>23542</v>
+        <v>23528</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -6202,16 +6303,16 @@
         <v>233</v>
       </c>
       <c r="D136" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="E136" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
       </c>
       <c r="G136">
-        <v>23543</v>
+        <v>23529</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -6225,16 +6326,16 @@
         <v>233</v>
       </c>
       <c r="D137" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="E137" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F137" t="s">
         <v>13</v>
       </c>
       <c r="G137">
-        <v>23544</v>
+        <v>23530</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -6248,16 +6349,16 @@
         <v>233</v>
       </c>
       <c r="D138" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="E138" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G138">
-        <v>23545</v>
+        <v>23531</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6271,16 +6372,16 @@
         <v>233</v>
       </c>
       <c r="D139" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E139" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F139" t="s">
         <v>13</v>
       </c>
       <c r="G139">
-        <v>23546</v>
+        <v>23532</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6294,16 +6395,16 @@
         <v>233</v>
       </c>
       <c r="D140" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="F140" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="G140">
-        <v>23547</v>
+        <v>23533</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6317,16 +6418,16 @@
         <v>233</v>
       </c>
       <c r="D141" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="E141" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="F141" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="G141">
-        <v>23548</v>
+        <v>23534</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6340,16 +6441,16 @@
         <v>233</v>
       </c>
       <c r="D142" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="E142" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="F142" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G142">
-        <v>23549</v>
+        <v>23535</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -6363,16 +6464,16 @@
         <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="E143" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G143">
-        <v>23550</v>
+        <v>23536</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -6386,568 +6487,568 @@
         <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E144" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G144">
-        <v>23551</v>
+        <v>23537</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C145">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="E145" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="F145" t="s">
         <v>13</v>
       </c>
       <c r="G145">
-        <v>40501</v>
+        <v>23538</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C146">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D146" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="E146" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G146">
-        <v>40502</v>
+        <v>23539</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B147" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C147">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D147" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="E147" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F147" t="s">
         <v>13</v>
       </c>
       <c r="G147">
-        <v>40503</v>
+        <v>23540</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B148" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C148">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D148" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E148" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
       </c>
       <c r="G148">
-        <v>40504</v>
+        <v>23541</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B149" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C149">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D149" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="E149" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="F149" t="s">
         <v>13</v>
       </c>
       <c r="G149">
-        <v>40505</v>
+        <v>23542</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B150" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C150">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D150" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E150" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
       </c>
       <c r="G150">
-        <v>40506</v>
+        <v>23543</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B151" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C151">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D151" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E151" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G151">
-        <v>40507</v>
+        <v>23544</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B152" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C152">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D152" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E152" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G152">
-        <v>40508</v>
+        <v>23545</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B153" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C153">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D153" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="E153" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="F153" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="G153">
-        <v>40509</v>
+        <v>23546</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B154" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C154">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="D154" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="E154" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="G154">
-        <v>40510</v>
+        <v>23547</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="B155" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C155">
-        <v>503</v>
+        <v>233</v>
       </c>
       <c r="D155" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E155" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="G155">
-        <v>50301</v>
+        <v>23548</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="B156" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C156">
-        <v>503</v>
+        <v>233</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="E156" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="G156">
-        <v>50302</v>
+        <v>23549</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="B157" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C157">
-        <v>503</v>
+        <v>233</v>
       </c>
       <c r="D157" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="E157" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G157">
-        <v>50303</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="B158" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C158">
-        <v>503</v>
+        <v>233</v>
       </c>
       <c r="D158" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E158" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G158">
-        <v>50304</v>
+        <v>23551</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C159">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D159" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E159" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G159">
-        <v>50305</v>
+        <v>40501</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B160" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C160">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D160" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="E160" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G160">
-        <v>50306</v>
+        <v>40502</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B161" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C161">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D161" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E161" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G161">
-        <v>50307</v>
+        <v>40503</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C162">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D162" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E162" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F162" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="G162">
-        <v>50308</v>
+        <v>40504</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C163">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D163" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="E163" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
       </c>
       <c r="G163">
-        <v>50309</v>
+        <v>40505</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B164" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C164">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D164" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E164" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
       </c>
       <c r="G164">
-        <v>50310</v>
+        <v>40506</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B165" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C165">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D165" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="E165" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G165">
-        <v>50311</v>
+        <v>40507</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C166">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D166" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E166" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G166">
-        <v>50312</v>
+        <v>40508</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B167" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C167">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D167" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E167" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G167">
-        <v>50313</v>
+        <v>40509</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C168">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D168" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="E168" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G168">
-        <v>50314</v>
+        <v>40510</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6961,614 +7062,614 @@
         <v>503</v>
       </c>
       <c r="D169" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E169" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G169">
-        <v>50315</v>
+        <v>50301</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B170" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C170">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D170" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E170" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F170" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="G170">
-        <v>50401</v>
+        <v>50302</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B171" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C171">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D171" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E171" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F171" t="s">
         <v>13</v>
       </c>
       <c r="G171">
-        <v>50402</v>
+        <v>50303</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B172" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C172">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D172" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="E172" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="F172" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G172">
-        <v>50403</v>
+        <v>50304</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B173" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C173">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D173" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E173" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G173">
-        <v>50404</v>
+        <v>50305</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B174" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C174">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D174" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E174" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
       </c>
       <c r="G174">
-        <v>50405</v>
+        <v>50306</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C175">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D175" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E175" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F175" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G175">
-        <v>50406</v>
+        <v>50307</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C176">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D176" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="E176" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G176">
-        <v>50407</v>
+        <v>50308</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B177" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C177">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D177" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E177" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
       </c>
       <c r="G177">
-        <v>50408</v>
+        <v>50309</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C178">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D178" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E178" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F178" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G178">
-        <v>50409</v>
+        <v>50310</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C179">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D179" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="E179" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G179">
-        <v>50410</v>
+        <v>50311</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C180">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D180" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E180" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
       </c>
       <c r="G180">
-        <v>50411</v>
+        <v>50312</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C181">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D181" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E181" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
       </c>
       <c r="G181">
-        <v>50412</v>
+        <v>50313</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="C182">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D182" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="E182" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="F182" t="s">
         <v>13</v>
       </c>
       <c r="G182">
-        <v>50501</v>
+        <v>50314</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="C183">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D183" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E183" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="F183" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G183">
-        <v>50502</v>
+        <v>50315</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C184">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D184" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E184" t="s">
-        <v>496</v>
+        <v>233</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G184">
-        <v>50503</v>
+        <v>50401</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B185" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C185">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D185" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E185" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="F185" t="s">
         <v>13</v>
       </c>
       <c r="G185">
-        <v>50504</v>
+        <v>50402</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B186" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C186">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D186" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="E186" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G186">
-        <v>50505</v>
+        <v>50403</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B187" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C187">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D187" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E187" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F187" t="s">
         <v>13</v>
       </c>
       <c r="G187">
-        <v>50506</v>
+        <v>50404</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B188" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C188">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D188" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="E188" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
       </c>
       <c r="G188">
-        <v>50507</v>
+        <v>50405</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B189" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C189">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D189" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E189" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G189">
-        <v>50508</v>
+        <v>50406</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B190" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C190">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D190" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E190" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
       </c>
       <c r="G190">
-        <v>50509</v>
+        <v>50407</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B191" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C191">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D191" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E191" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="F191" t="s">
         <v>13</v>
       </c>
       <c r="G191">
-        <v>50510</v>
+        <v>50408</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B192" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C192">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D192" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E192" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G192">
-        <v>50511</v>
+        <v>50409</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B193" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C193">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D193" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="E193" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G193">
-        <v>50512</v>
+        <v>50410</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B194" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C194">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D194" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E194" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F194" t="s">
         <v>13</v>
       </c>
       <c r="G194">
-        <v>50513</v>
+        <v>50411</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B195" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C195">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D195" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E195" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F195" t="s">
         <v>13</v>
       </c>
       <c r="G195">
-        <v>50514</v>
+        <v>50412</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -7582,338 +7683,338 @@
         <v>505</v>
       </c>
       <c r="D196" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E196" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F196" t="s">
         <v>13</v>
       </c>
       <c r="G196">
-        <v>50515</v>
+        <v>50501</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C197">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D197" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E197" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F197" t="s">
         <v>13</v>
       </c>
       <c r="G197">
-        <v>50601</v>
+        <v>50502</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C198">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D198" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E198" t="s">
-        <v>269</v>
+        <v>496</v>
       </c>
       <c r="F198" t="s">
         <v>13</v>
       </c>
       <c r="G198">
-        <v>50602</v>
+        <v>50503</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B199" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C199">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D199" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E199" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
       </c>
       <c r="G199">
-        <v>50603</v>
+        <v>50504</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B200" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C200">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D200" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E200" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F200" t="s">
         <v>13</v>
       </c>
       <c r="G200">
-        <v>50604</v>
+        <v>50505</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B201" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C201">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D201" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E201" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
       </c>
       <c r="G201">
-        <v>50605</v>
+        <v>50506</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B202" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C202">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D202" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E202" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
       </c>
       <c r="G202">
-        <v>50606</v>
+        <v>50507</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B203" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C203">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D203" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E203" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
       </c>
       <c r="G203">
-        <v>50607</v>
+        <v>50508</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B204" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C204">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D204" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E204" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F204" t="s">
         <v>13</v>
       </c>
       <c r="G204">
-        <v>50608</v>
+        <v>50509</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B205" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C205">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D205" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E205" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="F205" t="s">
         <v>13</v>
       </c>
       <c r="G205">
-        <v>50609</v>
+        <v>50510</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B206" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C206">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E206" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F206" t="s">
         <v>13</v>
       </c>
       <c r="G206">
-        <v>50610</v>
+        <v>50511</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B207" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C207">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D207" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E207" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="F207" t="s">
         <v>13</v>
       </c>
       <c r="G207">
-        <v>50611</v>
+        <v>50512</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B208" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C208">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D208" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E208" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F208" t="s">
         <v>13</v>
       </c>
       <c r="G208">
-        <v>50612</v>
+        <v>50513</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B209" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C209">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D209" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E209" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F209" t="s">
         <v>13</v>
       </c>
       <c r="G209">
-        <v>50613</v>
+        <v>50514</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B210" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C210">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D210" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E210" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
       </c>
       <c r="G210">
-        <v>50614</v>
+        <v>50515</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -7927,16 +8028,16 @@
         <v>506</v>
       </c>
       <c r="D211" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E211" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="F211" t="s">
         <v>13</v>
       </c>
       <c r="G211">
-        <v>50615</v>
+        <v>50601</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -7950,16 +8051,16 @@
         <v>506</v>
       </c>
       <c r="D212" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E212" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
       </c>
       <c r="G212">
-        <v>50616</v>
+        <v>50602</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -7973,16 +8074,16 @@
         <v>506</v>
       </c>
       <c r="D213" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E213" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
       </c>
       <c r="G213">
-        <v>50617</v>
+        <v>50603</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7996,16 +8097,16 @@
         <v>506</v>
       </c>
       <c r="D214" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E214" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
       </c>
       <c r="G214">
-        <v>50618</v>
+        <v>50604</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -8019,16 +8120,16 @@
         <v>506</v>
       </c>
       <c r="D215" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E215" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
       </c>
       <c r="G215">
-        <v>50619</v>
+        <v>50605</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -8042,16 +8143,16 @@
         <v>506</v>
       </c>
       <c r="D216" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E216" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F216" t="s">
         <v>13</v>
       </c>
       <c r="G216">
-        <v>50620</v>
+        <v>50606</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -8065,16 +8166,16 @@
         <v>506</v>
       </c>
       <c r="D217" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E217" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F217" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="G217">
-        <v>50621</v>
+        <v>50607</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -8088,16 +8189,16 @@
         <v>506</v>
       </c>
       <c r="D218" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E218" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F218" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="G218">
-        <v>50622</v>
+        <v>50608</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -8111,16 +8212,16 @@
         <v>506</v>
       </c>
       <c r="D219" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E219" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F219" t="s">
         <v>13</v>
       </c>
       <c r="G219">
-        <v>50623</v>
+        <v>50609</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -8134,338 +8235,338 @@
         <v>506</v>
       </c>
       <c r="D220" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E220" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F220" t="s">
         <v>13</v>
       </c>
       <c r="G220">
-        <v>50624</v>
+        <v>50610</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C221">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D221" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E221" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="F221" t="s">
         <v>13</v>
       </c>
       <c r="G221">
-        <v>50701</v>
+        <v>50611</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B222" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C222">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D222" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E222" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="F222" t="s">
         <v>13</v>
       </c>
       <c r="G222">
-        <v>50702</v>
+        <v>50612</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B223" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C223">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D223" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E223" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="F223" t="s">
         <v>13</v>
       </c>
       <c r="G223">
-        <v>50703</v>
+        <v>50613</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B224" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C224">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D224" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E224" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="F224" t="s">
         <v>13</v>
       </c>
       <c r="G224">
-        <v>50704</v>
+        <v>50614</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B225" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C225">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D225" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E225" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="F225" t="s">
         <v>13</v>
       </c>
       <c r="G225">
-        <v>50705</v>
+        <v>50615</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B226" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C226">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D226" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="E226" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="F226" t="s">
         <v>13</v>
       </c>
       <c r="G226">
-        <v>50706</v>
+        <v>50616</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B227" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C227">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D227" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E227" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="F227" t="s">
         <v>13</v>
       </c>
       <c r="G227">
-        <v>50707</v>
+        <v>50617</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B228" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C228">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E228" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="F228" t="s">
         <v>13</v>
       </c>
       <c r="G228">
-        <v>50708</v>
+        <v>50618</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C229">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D229" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E229" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="F229" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="G229">
-        <v>50709</v>
+        <v>50619</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B230" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C230">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D230" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E230" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G230">
-        <v>50710</v>
+        <v>50620</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B231" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C231">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D231" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E231" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="F231" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G231">
-        <v>50711</v>
+        <v>50621</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B232" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C232">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D232" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="E232" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F232" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G232">
-        <v>50712</v>
+        <v>50622</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C233">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D233" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="E233" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F233" t="s">
         <v>13</v>
       </c>
       <c r="G233">
-        <v>50713</v>
+        <v>50623</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B234" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C234">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D234" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E234" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="F234" t="s">
         <v>13</v>
       </c>
       <c r="G234">
-        <v>50714</v>
+        <v>50624</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -8479,16 +8580,16 @@
         <v>507</v>
       </c>
       <c r="D235" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E235" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F235" t="s">
         <v>13</v>
       </c>
       <c r="G235">
-        <v>50715</v>
+        <v>50701</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -8502,16 +8603,16 @@
         <v>507</v>
       </c>
       <c r="D236" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E236" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
       </c>
       <c r="G236">
-        <v>50716</v>
+        <v>50702</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -8525,1350 +8626,1350 @@
         <v>507</v>
       </c>
       <c r="D237" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E237" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F237" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G237">
-        <v>50717</v>
+        <v>50703</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B238" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C238">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D238" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E238" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
       </c>
       <c r="G238">
-        <v>50801</v>
+        <v>50704</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B239" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C239">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D239" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="E239" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F239" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G239">
-        <v>50802</v>
+        <v>50705</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B240" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C240">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D240" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E240" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F240" t="s">
         <v>13</v>
       </c>
       <c r="G240">
-        <v>50803</v>
+        <v>50706</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B241" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C241">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D241" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E241" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="F241" t="s">
         <v>13</v>
       </c>
       <c r="G241">
-        <v>50804</v>
+        <v>50707</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B242" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C242">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D242" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E242" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F242" t="s">
         <v>13</v>
       </c>
       <c r="G242">
-        <v>50805</v>
+        <v>50708</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B243" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C243">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D243" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="E243" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G243">
-        <v>50806</v>
+        <v>50709</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B244" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C244">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D244" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E244" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="F244" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G244">
-        <v>50807</v>
+        <v>50710</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B245" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C245">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D245" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="E245" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="F245" t="s">
         <v>13</v>
       </c>
       <c r="G245">
-        <v>50808</v>
+        <v>50711</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B246" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C246">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D246" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E246" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F246" t="s">
         <v>13</v>
       </c>
       <c r="G246">
-        <v>50809</v>
+        <v>50712</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B247" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C247">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D247" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E247" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="F247" t="s">
         <v>13</v>
       </c>
       <c r="G247">
-        <v>50810</v>
+        <v>50713</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B248" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C248">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D248" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E248" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G248">
-        <v>50811</v>
+        <v>50714</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B249" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="C249">
-        <v>601</v>
+        <v>507</v>
       </c>
       <c r="D249" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="E249" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="F249" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G249">
-        <v>60101</v>
+        <v>50715</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B250" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="C250">
-        <v>601</v>
+        <v>507</v>
       </c>
       <c r="D250" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="E250" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="F250" t="s">
         <v>13</v>
       </c>
       <c r="G250">
-        <v>60102</v>
+        <v>50716</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B251" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="C251">
-        <v>601</v>
+        <v>507</v>
       </c>
       <c r="D251" t="s">
-        <v>497</v>
+        <v>315</v>
       </c>
       <c r="E251" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="F251" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="G251">
-        <v>60103</v>
+        <v>50717</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B252" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C252">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D252" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E252" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="F252" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G252">
-        <v>60104</v>
+        <v>50801</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B253" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C253">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D253" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E253" t="s">
-        <v>498</v>
+        <v>320</v>
       </c>
       <c r="F253" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G253">
-        <v>60105</v>
+        <v>50802</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B254" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C254">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D254" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E254" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="F254" t="s">
         <v>13</v>
       </c>
       <c r="G254">
-        <v>60106</v>
+        <v>50803</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B255" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C255">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D255" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>322</v>
       </c>
       <c r="F255" t="s">
         <v>13</v>
       </c>
       <c r="G255">
-        <v>60107</v>
+        <v>50804</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B256" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C256">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D256" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E256" t="s">
-        <v>500</v>
+        <v>323</v>
       </c>
       <c r="F256" t="s">
         <v>13</v>
       </c>
       <c r="G256">
-        <v>60108</v>
+        <v>50805</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B257" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C257">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="D257" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E257" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G257">
-        <v>60109</v>
+        <v>50806</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B258" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C258">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="D258" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E258" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="F258" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G258">
-        <v>60201</v>
+        <v>50807</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B259" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C259">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="D259" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E259" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="F259" t="s">
         <v>13</v>
       </c>
       <c r="G259">
-        <v>60202</v>
+        <v>50808</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B260" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C260">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="D260" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E260" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="F260" t="s">
         <v>13</v>
       </c>
       <c r="G260">
-        <v>60203</v>
+        <v>50809</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B261" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C261">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="D261" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>329</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G261">
-        <v>60204</v>
+        <v>50810</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B262" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C262">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="D262" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E262" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="F262" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G262">
-        <v>60205</v>
+        <v>50811</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B263" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C263">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D263" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E263" t="s">
-        <v>502</v>
+        <v>335</v>
       </c>
       <c r="F263" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G263">
-        <v>60206</v>
+        <v>60101</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B264" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C264">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D264" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E264" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="F264" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G264">
-        <v>60207</v>
+        <v>60102</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B265" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C265">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D265" t="s">
-        <v>357</v>
+        <v>497</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>337</v>
       </c>
       <c r="F265" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G265">
-        <v>60208</v>
+        <v>60103</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B266" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C266">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D266" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E266" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="F266" t="s">
-        <v>360</v>
+        <v>39</v>
       </c>
       <c r="G266">
-        <v>60209</v>
+        <v>60104</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B267" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C267">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D267" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="E267" t="s">
-        <v>361</v>
+        <v>498</v>
       </c>
       <c r="F267" t="s">
         <v>13</v>
       </c>
       <c r="G267">
-        <v>60210</v>
+        <v>60105</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B268" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C268">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D268" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E268" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="F268" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="G268">
-        <v>60211</v>
+        <v>60106</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="B269" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C269">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D269" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="E269" t="s">
-        <v>367</v>
+        <v>499</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G269">
-        <v>60301</v>
+        <v>60107</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="B270" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C270">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D270" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="E270" t="s">
-        <v>369</v>
+        <v>500</v>
       </c>
       <c r="F270" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G270">
-        <v>60302</v>
+        <v>60108</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="B271" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C271">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D271" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="E271" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="F271" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G271">
-        <v>60303</v>
+        <v>60109</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B272" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C272">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D272" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="E272" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="F272" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G272">
-        <v>60304</v>
+        <v>60201</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B273" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C273">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D273" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="E273" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G273">
-        <v>60305</v>
+        <v>60202</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B274" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C274">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D274" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="E274" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="F274" t="s">
         <v>13</v>
       </c>
       <c r="G274">
-        <v>60306</v>
+        <v>60203</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B275" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C275">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D275" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="E275" t="s">
-        <v>376</v>
+        <v>501</v>
       </c>
       <c r="F275" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G275">
-        <v>60307</v>
+        <v>60204</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B276" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C276">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D276" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="E276" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G276">
-        <v>60308</v>
+        <v>60205</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B277" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C277">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D277" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="E277" t="s">
-        <v>379</v>
+        <v>502</v>
       </c>
       <c r="F277" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G277">
-        <v>60309</v>
+        <v>60206</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B278" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C278">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D278" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="E278" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="F278" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G278">
-        <v>60310</v>
+        <v>60207</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B279" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C279">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D279" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="E279" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
       <c r="F279" t="s">
         <v>13</v>
       </c>
       <c r="G279">
-        <v>60311</v>
+        <v>60208</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B280" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C280">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D280" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="E280" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F280" t="s">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="G280">
-        <v>60312</v>
+        <v>60209</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B281" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C281">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D281" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="E281" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G281">
-        <v>60313</v>
+        <v>60210</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="B282" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="C282">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D282" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="E282" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="F282" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="G282">
-        <v>60401</v>
+        <v>60211</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B283" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C283">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D283" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E283" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="F283" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G283">
-        <v>60402</v>
+        <v>60301</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B284" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C284">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D284" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="E284" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="F284" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G284">
-        <v>60403</v>
+        <v>60302</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B285" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C285">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D285" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="E285" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="F285" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G285">
-        <v>60404</v>
+        <v>60303</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B286" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C286">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D286" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="E286" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="F286" t="s">
         <v>13</v>
       </c>
       <c r="G286">
-        <v>60405</v>
+        <v>60304</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B287" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C287">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D287" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="E287" t="s">
-        <v>504</v>
+        <v>374</v>
       </c>
       <c r="F287" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G287">
-        <v>60406</v>
+        <v>60305</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B288" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C288">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D288" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E288" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="F288" t="s">
         <v>13</v>
       </c>
       <c r="G288">
-        <v>60407</v>
+        <v>60306</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B289" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C289">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D289" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="E289" t="s">
-        <v>505</v>
+        <v>376</v>
       </c>
       <c r="F289" t="s">
         <v>13</v>
       </c>
       <c r="G289">
-        <v>60408</v>
+        <v>60307</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B290" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C290">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D290" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="E290" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="F290" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="G290">
-        <v>60409</v>
+        <v>60308</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B291" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C291">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D291" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="E291" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G291">
-        <v>60410</v>
+        <v>60309</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B292" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C292">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D292" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="E292" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="F292" t="s">
         <v>13</v>
       </c>
       <c r="G292">
-        <v>60411</v>
+        <v>60310</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B293" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C293">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D293" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="E293" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G293">
-        <v>60412</v>
+        <v>60311</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B294" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C294">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D294" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="E294" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="F294" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G294">
-        <v>60413</v>
+        <v>60312</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B295" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C295">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D295" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="E295" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="F295" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G295">
-        <v>60414</v>
+        <v>60313</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -9882,16 +9983,16 @@
         <v>604</v>
       </c>
       <c r="D296" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="E296" t="s">
-        <v>506</v>
+        <v>388</v>
       </c>
       <c r="F296" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G296">
-        <v>60415</v>
+        <v>60401</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -9905,591 +10006,591 @@
         <v>604</v>
       </c>
       <c r="D297" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E297" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="F297" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="G297">
-        <v>60416</v>
+        <v>60402</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B298" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C298">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D298" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E298" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="F298" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G298">
-        <v>60501</v>
+        <v>60403</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B299" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C299">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D299" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E299" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="F299" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G299">
-        <v>60502</v>
+        <v>60404</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B300" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C300">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D300" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="E300" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="F300" t="s">
         <v>13</v>
       </c>
       <c r="G300">
-        <v>60503</v>
+        <v>60405</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B301" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C301">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D301" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="E301" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G301">
-        <v>60504</v>
+        <v>60406</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B302" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C302">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D302" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E302" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="F302" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G302">
-        <v>60505</v>
+        <v>60407</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B303" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C303">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D303" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="E303" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="F303" t="s">
         <v>13</v>
       </c>
       <c r="G303">
-        <v>60506</v>
+        <v>60408</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B304" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C304">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D304" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="E304" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="F304" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="G304">
-        <v>60507</v>
+        <v>60409</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B305" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C305">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D305" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="E305" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="F305" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G305">
-        <v>60508</v>
+        <v>60410</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B306" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C306">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D306" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E306" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="F306" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G306">
-        <v>60509</v>
+        <v>60411</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B307" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C307">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D307" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="E307" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F307" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G307">
-        <v>60510</v>
+        <v>60412</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="B308" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="C308">
-        <v>719</v>
+        <v>604</v>
       </c>
       <c r="D308" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="E308" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="F308" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G308">
-        <v>71901</v>
+        <v>60413</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="B309" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="C309">
-        <v>720</v>
+        <v>604</v>
       </c>
       <c r="D309" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="E309" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="F309" t="s">
         <v>13</v>
       </c>
       <c r="G309">
-        <v>71901</v>
+        <v>60414</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="B310" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="C310">
-        <v>719</v>
+        <v>604</v>
       </c>
       <c r="D310" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="E310" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="F310" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G310">
-        <v>71902</v>
+        <v>60415</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="B311" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="C311">
-        <v>720</v>
+        <v>604</v>
       </c>
       <c r="D311" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="E311" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="F311" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G311">
-        <v>71902</v>
+        <v>60416</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B312" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C312">
-        <v>719</v>
+        <v>605</v>
       </c>
       <c r="D312" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E312" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="F312" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G312">
-        <v>71903</v>
+        <v>60501</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B313" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C313">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D313" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="E313" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="F313" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G313">
-        <v>71903</v>
+        <v>60502</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B314" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C314">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D314" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="E314" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="F314" t="s">
         <v>13</v>
       </c>
       <c r="G314">
-        <v>71904</v>
+        <v>60503</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B315" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C315">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D315" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="E315" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="F315" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G315">
-        <v>71905</v>
+        <v>60504</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B316" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C316">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D316" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="E316" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="F316" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G316">
-        <v>71906</v>
+        <v>60505</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B317" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C317">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D317" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="E317" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="F317" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G317">
-        <v>71907</v>
+        <v>60506</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B318" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C318">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D318" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="E318" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F318" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G318">
-        <v>71908</v>
+        <v>60507</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B319" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C319">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D319" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="E319" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="F319" t="s">
         <v>13</v>
       </c>
       <c r="G319">
-        <v>71909</v>
+        <v>60508</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B320" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C320">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D320" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="E320" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="F320" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G320">
-        <v>71910</v>
+        <v>60509</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B321" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C321">
-        <v>720</v>
+        <v>605</v>
       </c>
       <c r="D321" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="E321" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="F321" t="s">
         <v>13</v>
       </c>
       <c r="G321">
-        <v>71911</v>
+        <v>60510</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B322" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C322">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D322" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="E322" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="F322" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G322">
-        <v>71912</v>
+        <v>71901</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -10503,39 +10604,39 @@
         <v>720</v>
       </c>
       <c r="D323" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E323" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F323" t="s">
         <v>13</v>
       </c>
       <c r="G323">
-        <v>71913</v>
+        <v>71901</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B324" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C324">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D324" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="E324" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F324" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G324">
-        <v>71914</v>
+        <v>71902</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -10549,39 +10650,39 @@
         <v>720</v>
       </c>
       <c r="D325" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="E325" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F325" t="s">
         <v>13</v>
       </c>
       <c r="G325">
-        <v>71915</v>
+        <v>71902</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B326" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C326">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D326" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="E326" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="F326" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G326">
-        <v>71916</v>
+        <v>71903</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -10595,16 +10696,16 @@
         <v>720</v>
       </c>
       <c r="D327" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="E327" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F327" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G327">
-        <v>71917</v>
+        <v>71903</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -10618,16 +10719,16 @@
         <v>720</v>
       </c>
       <c r="D328" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E328" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F328" t="s">
         <v>13</v>
       </c>
       <c r="G328">
-        <v>71918</v>
+        <v>71904</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -10641,16 +10742,16 @@
         <v>720</v>
       </c>
       <c r="D329" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="E329" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F329" t="s">
         <v>13</v>
       </c>
       <c r="G329">
-        <v>71919</v>
+        <v>71905</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -10664,16 +10765,16 @@
         <v>720</v>
       </c>
       <c r="D330" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="E330" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F330" t="s">
         <v>13</v>
       </c>
       <c r="G330">
-        <v>71920</v>
+        <v>71906</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -10687,16 +10788,16 @@
         <v>720</v>
       </c>
       <c r="D331" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="E331" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F331" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G331">
-        <v>71921</v>
+        <v>71907</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -10710,16 +10811,16 @@
         <v>720</v>
       </c>
       <c r="D332" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="E332" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F332" t="s">
         <v>13</v>
       </c>
       <c r="G332">
-        <v>71922</v>
+        <v>71908</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -10733,16 +10834,16 @@
         <v>720</v>
       </c>
       <c r="D333" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="E333" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F333" t="s">
         <v>13</v>
       </c>
       <c r="G333">
-        <v>71923</v>
+        <v>71909</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -10756,16 +10857,16 @@
         <v>720</v>
       </c>
       <c r="D334" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="E334" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F334" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G334">
-        <v>71924</v>
+        <v>71910</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -10779,1286 +10880,1608 @@
         <v>720</v>
       </c>
       <c r="D335" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="E335" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="F335" t="s">
         <v>13</v>
       </c>
       <c r="G335">
-        <v>71925</v>
+        <v>71911</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B336" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C336">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D336" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="E336" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="F336" t="s">
         <v>13</v>
       </c>
       <c r="G336">
-        <v>80101</v>
+        <v>71912</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B337" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C337">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D337" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="E337" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="F337" t="s">
         <v>13</v>
       </c>
       <c r="G337">
-        <v>80102</v>
+        <v>71913</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B338" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C338">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D338" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="E338" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="F338" t="s">
         <v>13</v>
       </c>
       <c r="G338">
-        <v>80103</v>
+        <v>71914</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B339" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C339">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D339" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="E339" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="F339" t="s">
         <v>13</v>
       </c>
       <c r="G339">
-        <v>80104</v>
+        <v>71915</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B340" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C340">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D340" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="E340" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="F340" t="s">
         <v>13</v>
       </c>
       <c r="G340">
-        <v>80105</v>
+        <v>71916</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>515</v>
+        <v>433</v>
       </c>
       <c r="B341" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="C341">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="D341" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="E341" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="F341" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G341">
-        <v>80106</v>
+        <v>71917</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="B342" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C342">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="D342" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="E342" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="F342" t="s">
         <v>13</v>
       </c>
       <c r="G342">
-        <v>80201</v>
+        <v>71918</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="B343" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C343">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="D343" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="E343" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="F343" t="s">
         <v>13</v>
       </c>
       <c r="G343">
-        <v>80202</v>
+        <v>71919</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="B344" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C344">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="D344" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="E344" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="F344" t="s">
         <v>13</v>
       </c>
       <c r="G344">
-        <v>80203</v>
+        <v>71920</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="B345" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C345">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="D345" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="E345" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="F345" t="s">
         <v>13</v>
       </c>
       <c r="G345">
-        <v>80204</v>
+        <v>71921</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="B346" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C346">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="D346" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="E346" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="F346" t="s">
         <v>13</v>
       </c>
       <c r="G346">
-        <v>80205</v>
+        <v>71922</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="B347" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C347">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="D347" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="E347" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="F347" t="s">
         <v>13</v>
       </c>
       <c r="G347">
-        <v>80206</v>
+        <v>71923</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="B348" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C348">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="D348" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="E348" t="s">
-        <v>525</v>
+        <v>460</v>
       </c>
       <c r="F348" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="G348">
-        <v>80207</v>
+        <v>71924</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="B349" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C349">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="D349" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="E349" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="F349" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G349">
-        <v>80208</v>
+        <v>71925</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B350" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C350">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D350" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="E350" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="F350" t="s">
         <v>13</v>
       </c>
       <c r="G350">
-        <v>80209</v>
+        <v>80101</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B351" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C351">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D351" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="E351" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="F351" t="s">
         <v>13</v>
       </c>
       <c r="G351">
-        <v>80210</v>
+        <v>80102</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B352" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C352">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D352" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="E352" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="F352" t="s">
         <v>13</v>
       </c>
       <c r="G352">
-        <v>80211</v>
+        <v>80103</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" t="s">
+        <v>515</v>
+      </c>
+      <c r="B353" t="s">
+        <v>515</v>
+      </c>
+      <c r="C353">
+        <v>801</v>
+      </c>
+      <c r="D353" t="s">
+        <v>511</v>
+      </c>
+      <c r="E353" t="s">
+        <v>511</v>
+      </c>
+      <c r="F353" t="s">
+        <v>13</v>
+      </c>
+      <c r="G353">
+        <v>80104</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>515</v>
+      </c>
+      <c r="B354" t="s">
+        <v>515</v>
+      </c>
+      <c r="C354">
+        <v>801</v>
+      </c>
+      <c r="D354" t="s">
+        <v>512</v>
+      </c>
+      <c r="E354" t="s">
+        <v>512</v>
+      </c>
+      <c r="F354" t="s">
+        <v>13</v>
+      </c>
+      <c r="G354">
+        <v>80105</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>515</v>
+      </c>
+      <c r="B355" t="s">
+        <v>515</v>
+      </c>
+      <c r="C355">
+        <v>801</v>
+      </c>
+      <c r="D355" t="s">
+        <v>513</v>
+      </c>
+      <c r="E355" t="s">
+        <v>514</v>
+      </c>
+      <c r="F355" t="s">
+        <v>39</v>
+      </c>
+      <c r="G355">
+        <v>80106</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
         <v>517</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B356" t="s">
         <v>516</v>
       </c>
-      <c r="C353">
+      <c r="C356">
         <v>802</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D356" t="s">
+        <v>518</v>
+      </c>
+      <c r="E356" t="s">
+        <v>518</v>
+      </c>
+      <c r="F356" t="s">
+        <v>13</v>
+      </c>
+      <c r="G356">
+        <v>80201</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>517</v>
+      </c>
+      <c r="B357" t="s">
+        <v>516</v>
+      </c>
+      <c r="C357">
+        <v>802</v>
+      </c>
+      <c r="D357" t="s">
+        <v>519</v>
+      </c>
+      <c r="E357" t="s">
+        <v>519</v>
+      </c>
+      <c r="F357" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357">
+        <v>80202</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>517</v>
+      </c>
+      <c r="B358" t="s">
+        <v>516</v>
+      </c>
+      <c r="C358">
+        <v>802</v>
+      </c>
+      <c r="D358" t="s">
+        <v>520</v>
+      </c>
+      <c r="E358" t="s">
+        <v>520</v>
+      </c>
+      <c r="F358" t="s">
+        <v>13</v>
+      </c>
+      <c r="G358">
+        <v>80203</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>517</v>
+      </c>
+      <c r="B359" t="s">
+        <v>516</v>
+      </c>
+      <c r="C359">
+        <v>802</v>
+      </c>
+      <c r="D359" t="s">
+        <v>521</v>
+      </c>
+      <c r="E359" t="s">
+        <v>521</v>
+      </c>
+      <c r="F359" t="s">
+        <v>13</v>
+      </c>
+      <c r="G359">
+        <v>80204</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" t="s">
+        <v>517</v>
+      </c>
+      <c r="B360" t="s">
+        <v>516</v>
+      </c>
+      <c r="C360">
+        <v>802</v>
+      </c>
+      <c r="D360" t="s">
+        <v>522</v>
+      </c>
+      <c r="E360" t="s">
+        <v>522</v>
+      </c>
+      <c r="F360" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360">
+        <v>80205</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" t="s">
+        <v>517</v>
+      </c>
+      <c r="B361" t="s">
+        <v>516</v>
+      </c>
+      <c r="C361">
+        <v>802</v>
+      </c>
+      <c r="D361" t="s">
+        <v>523</v>
+      </c>
+      <c r="E361" t="s">
+        <v>523</v>
+      </c>
+      <c r="F361" t="s">
+        <v>13</v>
+      </c>
+      <c r="G361">
+        <v>80206</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" t="s">
+        <v>517</v>
+      </c>
+      <c r="B362" t="s">
+        <v>516</v>
+      </c>
+      <c r="C362">
+        <v>802</v>
+      </c>
+      <c r="D362" t="s">
+        <v>524</v>
+      </c>
+      <c r="E362" t="s">
+        <v>525</v>
+      </c>
+      <c r="F362" t="s">
+        <v>526</v>
+      </c>
+      <c r="G362">
+        <v>80207</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" t="s">
+        <v>517</v>
+      </c>
+      <c r="B363" t="s">
+        <v>516</v>
+      </c>
+      <c r="C363">
+        <v>802</v>
+      </c>
+      <c r="D363" t="s">
+        <v>527</v>
+      </c>
+      <c r="E363" t="s">
+        <v>528</v>
+      </c>
+      <c r="F363" t="s">
+        <v>46</v>
+      </c>
+      <c r="G363">
+        <v>80208</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" t="s">
+        <v>517</v>
+      </c>
+      <c r="B364" t="s">
+        <v>516</v>
+      </c>
+      <c r="C364">
+        <v>802</v>
+      </c>
+      <c r="D364" t="s">
+        <v>529</v>
+      </c>
+      <c r="E364" t="s">
+        <v>529</v>
+      </c>
+      <c r="F364" t="s">
+        <v>13</v>
+      </c>
+      <c r="G364">
+        <v>80209</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" t="s">
+        <v>517</v>
+      </c>
+      <c r="B365" t="s">
+        <v>516</v>
+      </c>
+      <c r="C365">
+        <v>802</v>
+      </c>
+      <c r="D365" t="s">
+        <v>530</v>
+      </c>
+      <c r="E365" t="s">
+        <v>530</v>
+      </c>
+      <c r="F365" t="s">
+        <v>13</v>
+      </c>
+      <c r="G365">
+        <v>80210</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" t="s">
+        <v>517</v>
+      </c>
+      <c r="B366" t="s">
+        <v>516</v>
+      </c>
+      <c r="C366">
+        <v>802</v>
+      </c>
+      <c r="D366" t="s">
+        <v>531</v>
+      </c>
+      <c r="E366" t="s">
+        <v>531</v>
+      </c>
+      <c r="F366" t="s">
+        <v>13</v>
+      </c>
+      <c r="G366">
+        <v>80211</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" t="s">
+        <v>517</v>
+      </c>
+      <c r="B367" t="s">
+        <v>516</v>
+      </c>
+      <c r="C367">
+        <v>802</v>
+      </c>
+      <c r="D367" t="s">
         <v>532</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E367" t="s">
         <v>532</v>
       </c>
-      <c r="F353" t="s">
-        <v>13</v>
-      </c>
-      <c r="G353">
+      <c r="F367" t="s">
+        <v>13</v>
+      </c>
+      <c r="G367">
         <v>80212</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C354">
-        <v>803</v>
-      </c>
-      <c r="D354" t="s">
-        <v>535</v>
-      </c>
-      <c r="E354" t="s">
-        <v>536</v>
-      </c>
-      <c r="F354" t="s">
-        <v>39</v>
-      </c>
-      <c r="G354">
-        <v>80301</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C355">
-        <v>803</v>
-      </c>
-      <c r="D355" t="s">
-        <v>537</v>
-      </c>
-      <c r="E355" t="s">
-        <v>537</v>
-      </c>
-      <c r="F355" t="s">
-        <v>13</v>
-      </c>
-      <c r="G355">
-        <v>80302</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C356">
-        <v>803</v>
-      </c>
-      <c r="D356" t="s">
-        <v>538</v>
-      </c>
-      <c r="E356" t="s">
-        <v>538</v>
-      </c>
-      <c r="F356" t="s">
-        <v>13</v>
-      </c>
-      <c r="G356">
-        <v>80303</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="A357" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C357">
-        <v>803</v>
-      </c>
-      <c r="D357" t="s">
-        <v>539</v>
-      </c>
-      <c r="E357" t="s">
-        <v>539</v>
-      </c>
-      <c r="F357" t="s">
-        <v>13</v>
-      </c>
-      <c r="G357">
-        <v>80304</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
-      <c r="A358" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C358">
-        <v>803</v>
-      </c>
-      <c r="D358" t="s">
-        <v>540</v>
-      </c>
-      <c r="E358" t="s">
-        <v>541</v>
-      </c>
-      <c r="F358" t="s">
-        <v>20</v>
-      </c>
-      <c r="G358">
-        <v>80305</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
-      <c r="A359" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C359">
-        <v>803</v>
-      </c>
-      <c r="D359" t="s">
-        <v>542</v>
-      </c>
-      <c r="E359" t="s">
-        <v>542</v>
-      </c>
-      <c r="F359" t="s">
-        <v>13</v>
-      </c>
-      <c r="G359">
-        <v>80306</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C360">
-        <v>803</v>
-      </c>
-      <c r="D360" t="s">
-        <v>543</v>
-      </c>
-      <c r="E360" t="s">
-        <v>543</v>
-      </c>
-      <c r="F360" t="s">
-        <v>13</v>
-      </c>
-      <c r="G360">
-        <v>80307</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C361">
-        <v>803</v>
-      </c>
-      <c r="D361" t="s">
-        <v>544</v>
-      </c>
-      <c r="E361" t="s">
-        <v>544</v>
-      </c>
-      <c r="F361" t="s">
-        <v>13</v>
-      </c>
-      <c r="G361">
-        <v>80308</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
-      <c r="A362" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C362">
-        <v>803</v>
-      </c>
-      <c r="D362" t="s">
-        <v>545</v>
-      </c>
-      <c r="E362" t="s">
-        <v>545</v>
-      </c>
-      <c r="F362" t="s">
-        <v>13</v>
-      </c>
-      <c r="G362">
-        <v>80309</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="A363" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C363">
-        <v>803</v>
-      </c>
-      <c r="D363" t="s">
-        <v>546</v>
-      </c>
-      <c r="E363" t="s">
-        <v>547</v>
-      </c>
-      <c r="F363" t="s">
-        <v>20</v>
-      </c>
-      <c r="G363">
-        <v>80310</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="A364" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C364">
-        <v>804</v>
-      </c>
-      <c r="D364" t="s">
-        <v>556</v>
-      </c>
-      <c r="E364" t="s">
-        <v>556</v>
-      </c>
-      <c r="F364" t="s">
-        <v>13</v>
-      </c>
-      <c r="G364">
-        <v>80401</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
-      <c r="A365" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C365">
-        <v>804</v>
-      </c>
-      <c r="D365" t="s">
-        <v>548</v>
-      </c>
-      <c r="E365" t="s">
-        <v>548</v>
-      </c>
-      <c r="F365" t="s">
-        <v>13</v>
-      </c>
-      <c r="G365">
-        <v>80402</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
-      <c r="A366" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C366">
-        <v>804</v>
-      </c>
-      <c r="D366" t="s">
-        <v>549</v>
-      </c>
-      <c r="E366" t="s">
-        <v>549</v>
-      </c>
-      <c r="F366" t="s">
-        <v>13</v>
-      </c>
-      <c r="G366">
-        <v>80403</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
-      <c r="A367" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C367">
-        <v>804</v>
-      </c>
-      <c r="D367" t="s">
-        <v>557</v>
-      </c>
-      <c r="E367" t="s">
-        <v>557</v>
-      </c>
-      <c r="F367" t="s">
-        <v>13</v>
-      </c>
-      <c r="G367">
-        <v>80404</v>
       </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C368">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D368" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="E368" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="F368" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G368">
-        <v>80405</v>
+        <v>80301</v>
       </c>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C369">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D369" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="E369" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="F369" t="s">
         <v>13</v>
       </c>
       <c r="G369">
-        <v>80406</v>
+        <v>80302</v>
       </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C370">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D370" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E370" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="F370" t="s">
         <v>13</v>
       </c>
       <c r="G370">
-        <v>80407</v>
+        <v>80303</v>
       </c>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C371">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D371" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E371" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F371" t="s">
         <v>13</v>
       </c>
       <c r="G371">
-        <v>80408</v>
+        <v>80304</v>
       </c>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C372">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D372" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E372" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="F372" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G372">
-        <v>80409</v>
+        <v>80305</v>
       </c>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C373">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D373" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E373" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F373" t="s">
         <v>13</v>
       </c>
       <c r="G373">
-        <v>80410</v>
+        <v>80306</v>
       </c>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="1" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="C374">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D374" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="E374" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="F374" t="s">
         <v>13</v>
       </c>
       <c r="G374">
-        <v>80501</v>
+        <v>80307</v>
       </c>
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="1" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="C375">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D375" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="E375" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="F375" t="s">
         <v>13</v>
       </c>
       <c r="G375">
-        <v>80502</v>
+        <v>80308</v>
       </c>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="1" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="C376">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D376" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="E376" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="F376" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G376">
-        <v>80503</v>
+        <v>80309</v>
       </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="1" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="C377">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D377" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="E377" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F377" t="s">
         <v>20</v>
       </c>
       <c r="G377">
-        <v>80504</v>
+        <v>80310</v>
       </c>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C378">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D378" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="E378" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="F378" t="s">
         <v>13</v>
       </c>
       <c r="G378">
-        <v>80505</v>
+        <v>80401</v>
       </c>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="C379">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D379" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="E379" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="F379" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G379">
-        <v>80601</v>
+        <v>80402</v>
       </c>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="C380">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D380" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="E380" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="F380" t="s">
         <v>13</v>
       </c>
       <c r="G380">
-        <v>80602</v>
+        <v>80403</v>
       </c>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="C381">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D381" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="E381" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="F381" t="s">
         <v>13</v>
       </c>
       <c r="G381">
-        <v>80603</v>
+        <v>80404</v>
       </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="C382">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D382" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="E382" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F382" t="s">
         <v>13</v>
       </c>
       <c r="G382">
-        <v>80604</v>
+        <v>80405</v>
       </c>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="C383">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D383" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="E383" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="F383" t="s">
         <v>13</v>
       </c>
       <c r="G383">
-        <v>80605</v>
+        <v>80406</v>
       </c>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="C384">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D384" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="E384" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="F384" t="s">
         <v>13</v>
       </c>
       <c r="G384">
-        <v>80606</v>
+        <v>80407</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="C385">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D385" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="E385" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="F385" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G385">
-        <v>80607</v>
+        <v>80408</v>
       </c>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="C386">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D386" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="E386" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="F386" t="s">
         <v>13</v>
       </c>
       <c r="G386">
-        <v>80701</v>
+        <v>80409</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="C387">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D387" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="E387" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="F387" t="s">
         <v>13</v>
       </c>
       <c r="G387">
-        <v>80702</v>
+        <v>80410</v>
       </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C388">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D388" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="E388" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="F388" t="s">
         <v>13</v>
       </c>
       <c r="G388">
-        <v>80703</v>
+        <v>80501</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C389">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D389" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="E389" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="F389" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G389">
-        <v>80704</v>
+        <v>80502</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C390">
+        <v>805</v>
+      </c>
+      <c r="D390" t="s">
+        <v>564</v>
+      </c>
+      <c r="E390" t="s">
+        <v>565</v>
+      </c>
+      <c r="F390" t="s">
+        <v>39</v>
+      </c>
+      <c r="G390">
+        <v>80503</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C391">
+        <v>805</v>
+      </c>
+      <c r="D391" t="s">
+        <v>566</v>
+      </c>
+      <c r="E391" t="s">
+        <v>567</v>
+      </c>
+      <c r="F391" t="s">
+        <v>20</v>
+      </c>
+      <c r="G391">
+        <v>80504</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C392">
+        <v>805</v>
+      </c>
+      <c r="D392" t="s">
+        <v>568</v>
+      </c>
+      <c r="E392" t="s">
+        <v>568</v>
+      </c>
+      <c r="F392" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392">
+        <v>80505</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C393">
+        <v>806</v>
+      </c>
+      <c r="D393" t="s">
+        <v>569</v>
+      </c>
+      <c r="E393" t="s">
+        <v>570</v>
+      </c>
+      <c r="F393" t="s">
+        <v>34</v>
+      </c>
+      <c r="G393">
+        <v>80601</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C394">
+        <v>806</v>
+      </c>
+      <c r="D394" t="s">
+        <v>571</v>
+      </c>
+      <c r="E394" t="s">
+        <v>571</v>
+      </c>
+      <c r="F394" t="s">
+        <v>13</v>
+      </c>
+      <c r="G394">
+        <v>80602</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C395">
+        <v>806</v>
+      </c>
+      <c r="D395" t="s">
+        <v>572</v>
+      </c>
+      <c r="E395" t="s">
+        <v>572</v>
+      </c>
+      <c r="F395" t="s">
+        <v>13</v>
+      </c>
+      <c r="G395">
+        <v>80603</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C396">
+        <v>806</v>
+      </c>
+      <c r="D396" t="s">
+        <v>573</v>
+      </c>
+      <c r="E396" t="s">
+        <v>573</v>
+      </c>
+      <c r="F396" t="s">
+        <v>13</v>
+      </c>
+      <c r="G396">
+        <v>80604</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C397">
+        <v>806</v>
+      </c>
+      <c r="D397" t="s">
+        <v>574</v>
+      </c>
+      <c r="E397" t="s">
+        <v>574</v>
+      </c>
+      <c r="F397" t="s">
+        <v>13</v>
+      </c>
+      <c r="G397">
+        <v>80605</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C398">
+        <v>806</v>
+      </c>
+      <c r="D398" t="s">
+        <v>575</v>
+      </c>
+      <c r="E398" t="s">
+        <v>575</v>
+      </c>
+      <c r="F398" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398">
+        <v>80606</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C399">
+        <v>806</v>
+      </c>
+      <c r="D399" t="s">
+        <v>576</v>
+      </c>
+      <c r="E399" t="s">
+        <v>577</v>
+      </c>
+      <c r="F399" t="s">
+        <v>39</v>
+      </c>
+      <c r="G399">
+        <v>80607</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="B400" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C390">
+      <c r="C400">
         <v>807</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D400" t="s">
+        <v>579</v>
+      </c>
+      <c r="E400" t="s">
+        <v>579</v>
+      </c>
+      <c r="F400" t="s">
+        <v>13</v>
+      </c>
+      <c r="G400">
+        <v>80701</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C401">
+        <v>807</v>
+      </c>
+      <c r="D401" t="s">
+        <v>580</v>
+      </c>
+      <c r="E401" t="s">
+        <v>580</v>
+      </c>
+      <c r="F401" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401">
+        <v>80702</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C402">
+        <v>807</v>
+      </c>
+      <c r="D402" t="s">
+        <v>581</v>
+      </c>
+      <c r="E402" t="s">
+        <v>581</v>
+      </c>
+      <c r="F402" t="s">
+        <v>13</v>
+      </c>
+      <c r="G402">
+        <v>80703</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C403">
+        <v>807</v>
+      </c>
+      <c r="D403" t="s">
+        <v>582</v>
+      </c>
+      <c r="E403" t="s">
+        <v>583</v>
+      </c>
+      <c r="F403" t="s">
+        <v>39</v>
+      </c>
+      <c r="G403">
+        <v>80704</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C404">
+        <v>807</v>
+      </c>
+      <c r="D404" t="s">
         <v>584</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E404" t="s">
         <v>584</v>
       </c>
-      <c r="F390" t="s">
-        <v>13</v>
-      </c>
-      <c r="G390">
+      <c r="F404" t="s">
+        <v>13</v>
+      </c>
+      <c r="G404">
         <v>80705</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H390">
-    <sortCondition ref="G388"/>
+  <sortState ref="A2:H404">
+    <sortCondition ref="G397"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14580"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
@@ -2214,7 +2214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="12"/>
@@ -3175,11 +3175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="G397" sqref="G397"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12485,5 +12485,6 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC5DC9-39BA-4C41-9FF2-B1736669F5A4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25500" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$A$1:$H$379</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="686">
   <si>
     <t>prefecture_han</t>
   </si>
@@ -1318,12 +1322,6 @@
   </si>
   <si>
     <t>玄菟亭县</t>
-  </si>
-  <si>
-    <t>乐浪郡</t>
-  </si>
-  <si>
-    <t>乐鲜郡</t>
   </si>
   <si>
     <t>朝鲜县</t>
@@ -1544,10 +1542,6 @@
   </si>
   <si>
     <t>豲道县</t>
-  </si>
-  <si>
-    <t>浿水县</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>番禺县</t>
@@ -2210,12 +2204,205 @@
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>浿水县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乐浪郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>le'lang'jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乐鲜郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>觻得县</t>
+  </si>
+  <si>
+    <t>官式县</t>
+  </si>
+  <si>
+    <t>昭武县</t>
+  </si>
+  <si>
+    <t>渠武县</t>
+  </si>
+  <si>
+    <t>删丹县</t>
+  </si>
+  <si>
+    <t>贯虏县</t>
+  </si>
+  <si>
+    <t>氐池县</t>
+  </si>
+  <si>
+    <t>否武县</t>
+  </si>
+  <si>
+    <t>屋兰县</t>
+  </si>
+  <si>
+    <t>传武县</t>
+  </si>
+  <si>
+    <t>日勒县</t>
+  </si>
+  <si>
+    <t>勒治县</t>
+  </si>
+  <si>
+    <t>骊靬县</t>
+  </si>
+  <si>
+    <t>揭虏县</t>
+  </si>
+  <si>
+    <t>番和县</t>
+  </si>
+  <si>
+    <t>罗虏县</t>
+  </si>
+  <si>
+    <t>居延县</t>
+  </si>
+  <si>
+    <t>居成县</t>
+  </si>
+  <si>
+    <t>显美县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设屏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张掖郡</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>z'y</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌县</t>
+  </si>
+  <si>
+    <t>敦德县</t>
+  </si>
+  <si>
+    <t>冥安县</t>
+  </si>
+  <si>
+    <t>渊泉县</t>
+  </si>
+  <si>
+    <t>广至县</t>
+  </si>
+  <si>
+    <t>广桓县</t>
+  </si>
+  <si>
+    <t>龙勒县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敦煌郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敦德郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>dun'de</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>效谷县</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2386,6 +2573,32 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Adobe Fangsong Std R"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2814,13 +3027,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3176,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H404"/>
+  <dimension ref="A1:K420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="G408" sqref="G408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3382,10 +3601,10 @@
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -4040,19 +4259,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C38">
         <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F38" t="s">
         <v>27</v>
@@ -4063,19 +4282,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C39">
         <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E39" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F39" t="s">
         <v>205</v>
@@ -4086,19 +4305,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C40">
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E40" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -4109,19 +4328,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C41">
         <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E41" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -4132,19 +4351,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B42" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C42">
         <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -4155,19 +4374,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C43">
         <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -4178,19 +4397,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C44">
         <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -4201,19 +4420,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B45" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C45">
         <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E45" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -4224,19 +4443,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B46" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C46">
         <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E46" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -4247,19 +4466,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B47" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C47">
         <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E47" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F47" t="s">
         <v>205</v>
@@ -4270,19 +4489,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C48">
         <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E48" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -4293,19 +4512,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B49" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C49">
         <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F49" t="s">
         <v>39</v>
@@ -4316,19 +4535,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C50">
         <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -4339,19 +4558,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B51" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C51">
         <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E51" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -4362,19 +4581,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B52" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C52">
         <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E52" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -4385,19 +4604,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B53" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C53">
         <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
@@ -4408,19 +4627,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B54" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C54">
         <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -4431,19 +4650,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B55" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C55">
         <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F55" t="s">
         <v>30</v>
@@ -4454,19 +4673,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C56">
         <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E56" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F56" t="s">
         <v>184</v>
@@ -4477,19 +4696,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B57" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C57">
         <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E57" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
@@ -4500,19 +4719,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C58">
         <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F58" t="s">
         <v>27</v>
@@ -4776,19 +4995,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C70">
         <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E70" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -4799,19 +5018,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C71">
         <v>210</v>
       </c>
       <c r="D71" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E71" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -4822,19 +5041,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C72">
         <v>210</v>
       </c>
       <c r="D72" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E72" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F72" t="s">
         <v>30</v>
@@ -4845,19 +5064,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C73">
         <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E73" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -4868,19 +5087,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C74">
         <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E74" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -4891,19 +5110,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C75">
         <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E75" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -4914,19 +5133,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C76">
         <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E76" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -4937,19 +5156,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C77">
         <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
@@ -4960,19 +5179,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C78">
         <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E78" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F78" t="s">
         <v>205</v>
@@ -4983,19 +5202,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C79">
         <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E79" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
@@ -5006,19 +5225,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C80">
         <v>211</v>
       </c>
       <c r="D80" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E80" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -5029,19 +5248,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C81">
         <v>211</v>
       </c>
       <c r="D81" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E81" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F81" t="s">
         <v>290</v>
@@ -5052,19 +5271,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C82">
         <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E82" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -5075,19 +5294,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C83">
         <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E83" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F83" t="s">
         <v>290</v>
@@ -5098,19 +5317,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C84">
         <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E84" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -5121,19 +5340,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C85">
         <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E85" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -5144,19 +5363,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C86">
         <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E86" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -5167,19 +5386,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C87">
         <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E87" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -5190,19 +5409,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C88">
         <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E88" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F88" t="s">
         <v>30</v>
@@ -5213,19 +5432,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C89">
         <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E89" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -5236,19 +5455,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C90">
         <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E90" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F90" t="s">
         <v>205</v>
@@ -5259,19 +5478,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C91">
         <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E91" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -5282,19 +5501,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C92">
         <v>212</v>
       </c>
       <c r="D92" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E92" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -5305,19 +5524,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C93">
         <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E93" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -5328,19 +5547,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C94">
         <v>213</v>
       </c>
       <c r="D94" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E94" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -5351,19 +5570,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C95">
         <v>213</v>
       </c>
       <c r="D95" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E95" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F95" t="s">
         <v>30</v>
@@ -5374,19 +5593,19 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C96">
         <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E96" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F96" t="s">
         <v>184</v>
@@ -5397,19 +5616,19 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C97">
         <v>213</v>
       </c>
       <c r="D97" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E97" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F97" t="s">
         <v>27</v>
@@ -5420,19 +5639,19 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C98">
         <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E98" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F98" t="s">
         <v>30</v>
@@ -5443,19 +5662,19 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C99">
         <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E99" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -5466,19 +5685,19 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C100">
         <v>213</v>
       </c>
       <c r="D100" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E100" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F100" t="s">
         <v>30</v>
@@ -5489,19 +5708,19 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C101">
         <v>213</v>
       </c>
       <c r="D101" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E101" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F101" t="s">
         <v>290</v>
@@ -5512,19 +5731,19 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C102">
         <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E102" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F102" t="s">
         <v>30</v>
@@ -5535,19 +5754,19 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C103">
         <v>213</v>
       </c>
       <c r="D103" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E103" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -5558,19 +5777,19 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C104">
         <v>213</v>
       </c>
       <c r="D104" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E104" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -5581,19 +5800,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C105">
         <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E105" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -5604,19 +5823,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C106">
         <v>213</v>
       </c>
       <c r="D106" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E106" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -5627,19 +5846,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C107">
         <v>213</v>
       </c>
       <c r="D107" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E107" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
@@ -7732,7 +7951,7 @@
         <v>253</v>
       </c>
       <c r="E198" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F198" t="s">
         <v>13</v>
@@ -9270,7 +9489,7 @@
         <v>601</v>
       </c>
       <c r="D265" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E265" t="s">
         <v>337</v>
@@ -9319,7 +9538,7 @@
         <v>340</v>
       </c>
       <c r="E267" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F267" t="s">
         <v>13</v>
@@ -9365,7 +9584,7 @@
         <v>342</v>
       </c>
       <c r="E269" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F269" t="s">
         <v>13</v>
@@ -9388,7 +9607,7 @@
         <v>343</v>
       </c>
       <c r="E270" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F270" t="s">
         <v>13</v>
@@ -9503,7 +9722,7 @@
         <v>352</v>
       </c>
       <c r="E275" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F275" t="s">
         <v>39</v>
@@ -9549,7 +9768,7 @@
         <v>354</v>
       </c>
       <c r="E277" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F277" t="s">
         <v>16</v>
@@ -9595,7 +9814,7 @@
         <v>357</v>
       </c>
       <c r="E279" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F279" t="s">
         <v>13</v>
@@ -10101,7 +10320,7 @@
         <v>395</v>
       </c>
       <c r="E301" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F301" t="s">
         <v>13</v>
@@ -10147,7 +10366,7 @@
         <v>397</v>
       </c>
       <c r="E303" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F303" t="s">
         <v>13</v>
@@ -10308,7 +10527,7 @@
         <v>407</v>
       </c>
       <c r="E310" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F310" t="s">
         <v>13</v>
@@ -10571,1917 +10790,2290 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C322">
+        <v>606</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G322" s="3">
+        <v>60601</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C323">
+        <v>606</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G323" s="3">
+        <v>60602</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C324">
+        <v>606</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G324" s="3">
+        <v>60603</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C325">
+        <v>606</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G325" s="3">
+        <v>60604</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C326">
+        <v>606</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G326" s="3">
+        <v>60605</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C327">
+        <v>606</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G327" s="3">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C328">
+        <v>606</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G328" s="3">
+        <v>60607</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C329">
+        <v>606</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G329" s="3">
+        <v>60608</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C330">
+        <v>606</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G330" s="3">
+        <v>60609</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C331">
+        <v>606</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331" s="3">
+        <v>60610</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C332">
+        <v>608</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G332" s="3">
+        <v>60801</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C333">
+        <v>608</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333" s="3">
+        <v>60802</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C334">
+        <v>608</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G334" s="3">
+        <v>60803</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C335">
+        <v>608</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G335" s="3">
+        <v>60804</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C336">
+        <v>608</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G336" s="3">
+        <v>60805</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C337">
+        <v>608</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G337" s="3">
+        <v>60806</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" t="s">
         <v>426</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B338" t="s">
         <v>426</v>
       </c>
-      <c r="C322">
+      <c r="C338">
         <v>719</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D338" t="s">
         <v>427</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E338" t="s">
         <v>428</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F338" t="s">
         <v>20</v>
       </c>
-      <c r="G322">
+      <c r="G338">
         <v>71901</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
-      <c r="A323" t="s">
-        <v>433</v>
-      </c>
-      <c r="B323" t="s">
-        <v>434</v>
-      </c>
-      <c r="C323">
-        <v>720</v>
-      </c>
-      <c r="D323" t="s">
-        <v>435</v>
-      </c>
-      <c r="E323" t="s">
-        <v>435</v>
-      </c>
-      <c r="F323" t="s">
-        <v>13</v>
-      </c>
-      <c r="G323">
-        <v>71901</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
-      <c r="A324" t="s">
+    <row r="339" spans="1:8">
+      <c r="A339" t="s">
         <v>426</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B339" t="s">
         <v>426</v>
       </c>
-      <c r="C324">
+      <c r="C339">
         <v>719</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D339" t="s">
         <v>429</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E339" t="s">
         <v>430</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F339" t="s">
         <v>20</v>
       </c>
-      <c r="G324">
+      <c r="G339">
         <v>71902</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
-      <c r="A325" t="s">
-        <v>433</v>
-      </c>
-      <c r="B325" t="s">
-        <v>434</v>
-      </c>
-      <c r="C325">
-        <v>720</v>
-      </c>
-      <c r="D325" t="s">
-        <v>436</v>
-      </c>
-      <c r="E325" t="s">
-        <v>436</v>
-      </c>
-      <c r="F325" t="s">
-        <v>13</v>
-      </c>
-      <c r="G325">
-        <v>71902</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326" t="s">
+    <row r="340" spans="1:8">
+      <c r="A340" t="s">
         <v>426</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B340" t="s">
         <v>426</v>
       </c>
-      <c r="C326">
+      <c r="C340">
         <v>719</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D340" t="s">
         <v>431</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E340" t="s">
         <v>432</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F340" t="s">
         <v>39</v>
       </c>
-      <c r="G326">
+      <c r="G340">
         <v>71903</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
-      <c r="A327" t="s">
-        <v>433</v>
-      </c>
-      <c r="B327" t="s">
-        <v>434</v>
-      </c>
-      <c r="C327">
-        <v>720</v>
-      </c>
-      <c r="D327" t="s">
-        <v>507</v>
-      </c>
-      <c r="E327" t="s">
-        <v>437</v>
-      </c>
-      <c r="F327" t="s">
-        <v>39</v>
-      </c>
-      <c r="G327">
-        <v>71903</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
-      <c r="A328" t="s">
-        <v>433</v>
-      </c>
-      <c r="B328" t="s">
-        <v>434</v>
-      </c>
-      <c r="C328">
-        <v>720</v>
-      </c>
-      <c r="D328" t="s">
-        <v>438</v>
-      </c>
-      <c r="E328" t="s">
-        <v>438</v>
-      </c>
-      <c r="F328" t="s">
-        <v>13</v>
-      </c>
-      <c r="G328">
-        <v>71904</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
-      <c r="A329" t="s">
-        <v>433</v>
-      </c>
-      <c r="B329" t="s">
-        <v>434</v>
-      </c>
-      <c r="C329">
-        <v>720</v>
-      </c>
-      <c r="D329" t="s">
-        <v>439</v>
-      </c>
-      <c r="E329" t="s">
-        <v>439</v>
-      </c>
-      <c r="F329" t="s">
-        <v>13</v>
-      </c>
-      <c r="G329">
-        <v>71905</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330" t="s">
-        <v>433</v>
-      </c>
-      <c r="B330" t="s">
-        <v>434</v>
-      </c>
-      <c r="C330">
-        <v>720</v>
-      </c>
-      <c r="D330" t="s">
-        <v>440</v>
-      </c>
-      <c r="E330" t="s">
-        <v>440</v>
-      </c>
-      <c r="F330" t="s">
-        <v>13</v>
-      </c>
-      <c r="G330">
-        <v>71906</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
-      <c r="A331" t="s">
-        <v>433</v>
-      </c>
-      <c r="B331" t="s">
-        <v>434</v>
-      </c>
-      <c r="C331">
-        <v>720</v>
-      </c>
-      <c r="D331" t="s">
-        <v>441</v>
-      </c>
-      <c r="E331" t="s">
-        <v>442</v>
-      </c>
-      <c r="F331" t="s">
-        <v>20</v>
-      </c>
-      <c r="G331">
-        <v>71907</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
-      <c r="A332" t="s">
-        <v>433</v>
-      </c>
-      <c r="B332" t="s">
-        <v>434</v>
-      </c>
-      <c r="C332">
-        <v>720</v>
-      </c>
-      <c r="D332" t="s">
-        <v>443</v>
-      </c>
-      <c r="E332" t="s">
-        <v>443</v>
-      </c>
-      <c r="F332" t="s">
-        <v>13</v>
-      </c>
-      <c r="G332">
-        <v>71908</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7">
-      <c r="A333" t="s">
-        <v>433</v>
-      </c>
-      <c r="B333" t="s">
-        <v>434</v>
-      </c>
-      <c r="C333">
-        <v>720</v>
-      </c>
-      <c r="D333" t="s">
-        <v>444</v>
-      </c>
-      <c r="E333" t="s">
-        <v>444</v>
-      </c>
-      <c r="F333" t="s">
-        <v>13</v>
-      </c>
-      <c r="G333">
-        <v>71909</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
-      <c r="A334" t="s">
-        <v>433</v>
-      </c>
-      <c r="B334" t="s">
-        <v>434</v>
-      </c>
-      <c r="C334">
-        <v>720</v>
-      </c>
-      <c r="D334" t="s">
-        <v>445</v>
-      </c>
-      <c r="E334" t="s">
-        <v>446</v>
-      </c>
-      <c r="F334" t="s">
-        <v>20</v>
-      </c>
-      <c r="G334">
-        <v>71910</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
-      <c r="A335" t="s">
-        <v>433</v>
-      </c>
-      <c r="B335" t="s">
-        <v>434</v>
-      </c>
-      <c r="C335">
-        <v>720</v>
-      </c>
-      <c r="D335" t="s">
-        <v>447</v>
-      </c>
-      <c r="E335" t="s">
-        <v>447</v>
-      </c>
-      <c r="F335" t="s">
-        <v>13</v>
-      </c>
-      <c r="G335">
-        <v>71911</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
-      <c r="A336" t="s">
-        <v>433</v>
-      </c>
-      <c r="B336" t="s">
-        <v>434</v>
-      </c>
-      <c r="C336">
-        <v>720</v>
-      </c>
-      <c r="D336" t="s">
-        <v>448</v>
-      </c>
-      <c r="E336" t="s">
-        <v>448</v>
-      </c>
-      <c r="F336" t="s">
-        <v>13</v>
-      </c>
-      <c r="G336">
-        <v>71912</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
-      <c r="A337" t="s">
-        <v>433</v>
-      </c>
-      <c r="B337" t="s">
-        <v>434</v>
-      </c>
-      <c r="C337">
-        <v>720</v>
-      </c>
-      <c r="D337" t="s">
-        <v>449</v>
-      </c>
-      <c r="E337" t="s">
-        <v>449</v>
-      </c>
-      <c r="F337" t="s">
-        <v>13</v>
-      </c>
-      <c r="G337">
-        <v>71913</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
-      <c r="A338" t="s">
-        <v>433</v>
-      </c>
-      <c r="B338" t="s">
-        <v>434</v>
-      </c>
-      <c r="C338">
-        <v>720</v>
-      </c>
-      <c r="D338" t="s">
-        <v>450</v>
-      </c>
-      <c r="E338" t="s">
-        <v>450</v>
-      </c>
-      <c r="F338" t="s">
-        <v>13</v>
-      </c>
-      <c r="G338">
-        <v>71914</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
-      <c r="A339" t="s">
-        <v>433</v>
-      </c>
-      <c r="B339" t="s">
-        <v>434</v>
-      </c>
-      <c r="C339">
-        <v>720</v>
-      </c>
-      <c r="D339" t="s">
-        <v>451</v>
-      </c>
-      <c r="E339" t="s">
-        <v>451</v>
-      </c>
-      <c r="F339" t="s">
-        <v>13</v>
-      </c>
-      <c r="G339">
-        <v>71915</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
-      <c r="A340" t="s">
-        <v>433</v>
-      </c>
-      <c r="B340" t="s">
-        <v>434</v>
-      </c>
-      <c r="C340">
-        <v>720</v>
-      </c>
-      <c r="D340" t="s">
-        <v>452</v>
-      </c>
-      <c r="E340" t="s">
-        <v>452</v>
-      </c>
-      <c r="F340" t="s">
-        <v>13</v>
-      </c>
-      <c r="G340">
-        <v>71916</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
-      <c r="A341" t="s">
-        <v>433</v>
-      </c>
-      <c r="B341" t="s">
-        <v>434</v>
+    <row r="341" spans="1:8">
+      <c r="A341" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C341">
         <v>720</v>
       </c>
-      <c r="D341" t="s">
-        <v>453</v>
-      </c>
-      <c r="E341" t="s">
-        <v>453</v>
-      </c>
-      <c r="F341" t="s">
-        <v>13</v>
-      </c>
-      <c r="G341">
-        <v>71917</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
-      <c r="A342" t="s">
+      <c r="D341" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B342" t="s">
-        <v>434</v>
+      <c r="E341" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G341" s="3">
+        <v>72001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C342">
         <v>720</v>
       </c>
-      <c r="D342" t="s">
-        <v>454</v>
-      </c>
-      <c r="E342" t="s">
-        <v>454</v>
-      </c>
-      <c r="F342" t="s">
-        <v>13</v>
-      </c>
-      <c r="G342">
-        <v>71918</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
-      <c r="A343" t="s">
-        <v>433</v>
-      </c>
-      <c r="B343" t="s">
+      <c r="D342" s="2" t="s">
         <v>434</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G342" s="3">
+        <v>72002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C343">
         <v>720</v>
       </c>
-      <c r="D343" t="s">
-        <v>455</v>
-      </c>
-      <c r="E343" t="s">
-        <v>455</v>
-      </c>
-      <c r="F343" t="s">
-        <v>13</v>
-      </c>
-      <c r="G343">
-        <v>71919</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
-      <c r="A344" t="s">
-        <v>433</v>
-      </c>
-      <c r="B344" t="s">
-        <v>434</v>
+      <c r="D343" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G343" s="3">
+        <v>72003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C344">
         <v>720</v>
       </c>
-      <c r="D344" t="s">
-        <v>456</v>
-      </c>
-      <c r="E344" t="s">
-        <v>456</v>
-      </c>
-      <c r="F344" t="s">
-        <v>13</v>
-      </c>
-      <c r="G344">
-        <v>71920</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" t="s">
-        <v>433</v>
-      </c>
-      <c r="B345" t="s">
-        <v>434</v>
+      <c r="D344" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G344" s="3">
+        <v>72004</v>
+      </c>
+      <c r="H344" s="2"/>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C345">
         <v>720</v>
       </c>
-      <c r="D345" t="s">
-        <v>457</v>
-      </c>
-      <c r="E345" t="s">
-        <v>457</v>
-      </c>
-      <c r="F345" t="s">
-        <v>13</v>
-      </c>
-      <c r="G345">
-        <v>71921</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
-      <c r="A346" t="s">
-        <v>433</v>
-      </c>
-      <c r="B346" t="s">
-        <v>434</v>
+      <c r="D345" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G345" s="3">
+        <v>72005</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C346">
         <v>720</v>
       </c>
-      <c r="D346" t="s">
-        <v>458</v>
-      </c>
-      <c r="E346" t="s">
-        <v>458</v>
-      </c>
-      <c r="F346" t="s">
-        <v>13</v>
-      </c>
-      <c r="G346">
-        <v>71922</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
-      <c r="A347" t="s">
-        <v>433</v>
-      </c>
-      <c r="B347" t="s">
-        <v>434</v>
+      <c r="D346" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G346" s="3">
+        <v>72006</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C347">
         <v>720</v>
       </c>
-      <c r="D347" t="s">
-        <v>459</v>
-      </c>
-      <c r="E347" t="s">
-        <v>459</v>
-      </c>
-      <c r="F347" t="s">
-        <v>13</v>
-      </c>
-      <c r="G347">
-        <v>71923</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
-      <c r="A348" t="s">
-        <v>433</v>
-      </c>
-      <c r="B348" t="s">
-        <v>434</v>
+      <c r="D347" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G347" s="3">
+        <v>72007</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C348">
         <v>720</v>
       </c>
-      <c r="D348" t="s">
-        <v>460</v>
-      </c>
-      <c r="E348" t="s">
-        <v>460</v>
-      </c>
-      <c r="F348" t="s">
-        <v>13</v>
-      </c>
-      <c r="G348">
-        <v>71924</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
-      <c r="A349" t="s">
-        <v>433</v>
-      </c>
-      <c r="B349" t="s">
-        <v>434</v>
+      <c r="D348" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G348" s="3">
+        <v>72008</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C349">
         <v>720</v>
       </c>
-      <c r="D349" t="s">
-        <v>461</v>
-      </c>
-      <c r="E349" t="s">
-        <v>461</v>
-      </c>
-      <c r="F349" t="s">
-        <v>13</v>
-      </c>
-      <c r="G349">
-        <v>71925</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
-      <c r="A350" t="s">
-        <v>515</v>
-      </c>
-      <c r="B350" t="s">
-        <v>515</v>
+      <c r="D349" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G349" s="3">
+        <v>72009</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C350">
-        <v>801</v>
-      </c>
-      <c r="D350" t="s">
-        <v>508</v>
-      </c>
-      <c r="E350" t="s">
-        <v>508</v>
-      </c>
-      <c r="F350" t="s">
-        <v>13</v>
-      </c>
-      <c r="G350">
-        <v>80101</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" t="s">
-        <v>515</v>
-      </c>
-      <c r="B351" t="s">
-        <v>515</v>
+        <v>720</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G350" s="3">
+        <v>72010</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C351">
-        <v>801</v>
-      </c>
-      <c r="D351" t="s">
-        <v>509</v>
-      </c>
-      <c r="E351" t="s">
-        <v>509</v>
-      </c>
-      <c r="F351" t="s">
-        <v>13</v>
-      </c>
-      <c r="G351">
-        <v>80102</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" t="s">
-        <v>515</v>
-      </c>
-      <c r="B352" t="s">
-        <v>515</v>
+        <v>720</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G351" s="3">
+        <v>72011</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C352">
-        <v>801</v>
-      </c>
-      <c r="D352" t="s">
-        <v>510</v>
-      </c>
-      <c r="E352" t="s">
-        <v>510</v>
-      </c>
-      <c r="F352" t="s">
-        <v>13</v>
-      </c>
-      <c r="G352">
-        <v>80103</v>
+        <v>720</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G352" s="3">
+        <v>72012</v>
       </c>
     </row>
     <row r="353" spans="1:7">
-      <c r="A353" t="s">
-        <v>515</v>
-      </c>
-      <c r="B353" t="s">
-        <v>515</v>
+      <c r="A353" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C353">
-        <v>801</v>
-      </c>
-      <c r="D353" t="s">
-        <v>511</v>
-      </c>
-      <c r="E353" t="s">
-        <v>511</v>
-      </c>
-      <c r="F353" t="s">
-        <v>13</v>
-      </c>
-      <c r="G353">
-        <v>80104</v>
+        <v>720</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G353" s="3">
+        <v>72013</v>
       </c>
     </row>
     <row r="354" spans="1:7">
-      <c r="A354" t="s">
-        <v>515</v>
-      </c>
-      <c r="B354" t="s">
-        <v>515</v>
+      <c r="A354" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C354">
-        <v>801</v>
-      </c>
-      <c r="D354" t="s">
-        <v>512</v>
-      </c>
-      <c r="E354" t="s">
-        <v>512</v>
-      </c>
-      <c r="F354" t="s">
-        <v>13</v>
-      </c>
-      <c r="G354">
-        <v>80105</v>
+        <v>720</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G354" s="3">
+        <v>72014</v>
       </c>
     </row>
     <row r="355" spans="1:7">
-      <c r="A355" t="s">
-        <v>515</v>
-      </c>
-      <c r="B355" t="s">
-        <v>515</v>
+      <c r="A355" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C355">
-        <v>801</v>
-      </c>
-      <c r="D355" t="s">
-        <v>513</v>
-      </c>
-      <c r="E355" t="s">
-        <v>514</v>
-      </c>
-      <c r="F355" t="s">
-        <v>39</v>
-      </c>
-      <c r="G355">
-        <v>80106</v>
+        <v>720</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G355" s="3">
+        <v>72015</v>
       </c>
     </row>
     <row r="356" spans="1:7">
-      <c r="A356" t="s">
-        <v>517</v>
-      </c>
-      <c r="B356" t="s">
-        <v>516</v>
+      <c r="A356" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C356">
-        <v>802</v>
-      </c>
-      <c r="D356" t="s">
-        <v>518</v>
-      </c>
-      <c r="E356" t="s">
-        <v>518</v>
-      </c>
-      <c r="F356" t="s">
-        <v>13</v>
-      </c>
-      <c r="G356">
-        <v>80201</v>
+        <v>720</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G356" s="3">
+        <v>72016</v>
       </c>
     </row>
     <row r="357" spans="1:7">
-      <c r="A357" t="s">
-        <v>517</v>
-      </c>
-      <c r="B357" t="s">
-        <v>516</v>
+      <c r="A357" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C357">
-        <v>802</v>
-      </c>
-      <c r="D357" t="s">
-        <v>519</v>
-      </c>
-      <c r="E357" t="s">
-        <v>519</v>
-      </c>
-      <c r="F357" t="s">
-        <v>13</v>
-      </c>
-      <c r="G357">
-        <v>80202</v>
+        <v>720</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357" s="3">
+        <v>72017</v>
       </c>
     </row>
     <row r="358" spans="1:7">
-      <c r="A358" t="s">
-        <v>517</v>
-      </c>
-      <c r="B358" t="s">
-        <v>516</v>
+      <c r="A358" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C358">
-        <v>802</v>
-      </c>
-      <c r="D358" t="s">
-        <v>520</v>
-      </c>
-      <c r="E358" t="s">
-        <v>520</v>
-      </c>
-      <c r="F358" t="s">
-        <v>13</v>
-      </c>
-      <c r="G358">
-        <v>80203</v>
+        <v>720</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G358" s="3">
+        <v>72018</v>
       </c>
     </row>
     <row r="359" spans="1:7">
-      <c r="A359" t="s">
-        <v>517</v>
-      </c>
-      <c r="B359" t="s">
-        <v>516</v>
+      <c r="A359" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C359">
-        <v>802</v>
-      </c>
-      <c r="D359" t="s">
-        <v>521</v>
-      </c>
-      <c r="E359" t="s">
-        <v>521</v>
-      </c>
-      <c r="F359" t="s">
-        <v>13</v>
-      </c>
-      <c r="G359">
-        <v>80204</v>
+        <v>720</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G359" s="3">
+        <v>72019</v>
       </c>
     </row>
     <row r="360" spans="1:7">
-      <c r="A360" t="s">
-        <v>517</v>
-      </c>
-      <c r="B360" t="s">
-        <v>516</v>
+      <c r="A360" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C360">
-        <v>802</v>
-      </c>
-      <c r="D360" t="s">
-        <v>522</v>
-      </c>
-      <c r="E360" t="s">
-        <v>522</v>
-      </c>
-      <c r="F360" t="s">
-        <v>13</v>
-      </c>
-      <c r="G360">
-        <v>80205</v>
+        <v>720</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360" s="3">
+        <v>72020</v>
       </c>
     </row>
     <row r="361" spans="1:7">
-      <c r="A361" t="s">
-        <v>517</v>
-      </c>
-      <c r="B361" t="s">
-        <v>516</v>
+      <c r="A361" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C361">
-        <v>802</v>
-      </c>
-      <c r="D361" t="s">
-        <v>523</v>
-      </c>
-      <c r="E361" t="s">
-        <v>523</v>
-      </c>
-      <c r="F361" t="s">
-        <v>13</v>
-      </c>
-      <c r="G361">
-        <v>80206</v>
+        <v>720</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G361" s="3">
+        <v>72021</v>
       </c>
     </row>
     <row r="362" spans="1:7">
-      <c r="A362" t="s">
-        <v>517</v>
-      </c>
-      <c r="B362" t="s">
-        <v>516</v>
+      <c r="A362" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C362">
-        <v>802</v>
-      </c>
-      <c r="D362" t="s">
-        <v>524</v>
-      </c>
-      <c r="E362" t="s">
-        <v>525</v>
-      </c>
-      <c r="F362" t="s">
-        <v>526</v>
-      </c>
-      <c r="G362">
-        <v>80207</v>
+        <v>720</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G362" s="3">
+        <v>72022</v>
       </c>
     </row>
     <row r="363" spans="1:7">
-      <c r="A363" t="s">
-        <v>517</v>
-      </c>
-      <c r="B363" t="s">
-        <v>516</v>
+      <c r="A363" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C363">
-        <v>802</v>
-      </c>
-      <c r="D363" t="s">
-        <v>527</v>
-      </c>
-      <c r="E363" t="s">
-        <v>528</v>
-      </c>
-      <c r="F363" t="s">
-        <v>46</v>
-      </c>
-      <c r="G363">
-        <v>80208</v>
+        <v>720</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G363" s="3">
+        <v>72023</v>
       </c>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" t="s">
-        <v>517</v>
-      </c>
-      <c r="B364" t="s">
-        <v>516</v>
+      <c r="A364" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C364">
-        <v>802</v>
-      </c>
-      <c r="D364" t="s">
-        <v>529</v>
-      </c>
-      <c r="E364" t="s">
-        <v>529</v>
-      </c>
-      <c r="F364" t="s">
-        <v>13</v>
-      </c>
-      <c r="G364">
-        <v>80209</v>
+        <v>720</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G364" s="3">
+        <v>72024</v>
       </c>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" t="s">
-        <v>517</v>
-      </c>
-      <c r="B365" t="s">
-        <v>516</v>
+      <c r="A365" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C365">
-        <v>802</v>
-      </c>
-      <c r="D365" t="s">
-        <v>530</v>
-      </c>
-      <c r="E365" t="s">
-        <v>530</v>
-      </c>
-      <c r="F365" t="s">
-        <v>13</v>
-      </c>
-      <c r="G365">
-        <v>80210</v>
+        <v>720</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G365" s="3">
+        <v>72025</v>
       </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B366" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C366">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D366" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="E366" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="F366" t="s">
         <v>13</v>
       </c>
       <c r="G366">
-        <v>80211</v>
+        <v>80101</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" t="s">
+        <v>512</v>
+      </c>
+      <c r="B367" t="s">
+        <v>512</v>
+      </c>
+      <c r="C367">
+        <v>801</v>
+      </c>
+      <c r="D367" t="s">
+        <v>506</v>
+      </c>
+      <c r="E367" t="s">
+        <v>506</v>
+      </c>
+      <c r="F367" t="s">
+        <v>13</v>
+      </c>
+      <c r="G367">
+        <v>80102</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" t="s">
+        <v>512</v>
+      </c>
+      <c r="B368" t="s">
+        <v>512</v>
+      </c>
+      <c r="C368">
+        <v>801</v>
+      </c>
+      <c r="D368" t="s">
+        <v>507</v>
+      </c>
+      <c r="E368" t="s">
+        <v>507</v>
+      </c>
+      <c r="F368" t="s">
+        <v>13</v>
+      </c>
+      <c r="G368">
+        <v>80103</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
+      <c r="A369" t="s">
+        <v>512</v>
+      </c>
+      <c r="B369" t="s">
+        <v>512</v>
+      </c>
+      <c r="C369">
+        <v>801</v>
+      </c>
+      <c r="D369" t="s">
+        <v>508</v>
+      </c>
+      <c r="E369" t="s">
+        <v>508</v>
+      </c>
+      <c r="F369" t="s">
+        <v>13</v>
+      </c>
+      <c r="G369">
+        <v>80104</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11">
+      <c r="A370" t="s">
+        <v>512</v>
+      </c>
+      <c r="B370" t="s">
+        <v>512</v>
+      </c>
+      <c r="C370">
+        <v>801</v>
+      </c>
+      <c r="D370" t="s">
+        <v>509</v>
+      </c>
+      <c r="E370" t="s">
+        <v>509</v>
+      </c>
+      <c r="F370" t="s">
+        <v>13</v>
+      </c>
+      <c r="G370">
+        <v>80105</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
+      <c r="A371" t="s">
+        <v>512</v>
+      </c>
+      <c r="B371" t="s">
+        <v>512</v>
+      </c>
+      <c r="C371">
+        <v>801</v>
+      </c>
+      <c r="D371" t="s">
+        <v>510</v>
+      </c>
+      <c r="E371" t="s">
+        <v>511</v>
+      </c>
+      <c r="F371" t="s">
+        <v>39</v>
+      </c>
+      <c r="G371">
+        <v>80106</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
+      <c r="A372" t="s">
+        <v>514</v>
+      </c>
+      <c r="B372" t="s">
+        <v>513</v>
+      </c>
+      <c r="C372">
+        <v>802</v>
+      </c>
+      <c r="D372" t="s">
+        <v>515</v>
+      </c>
+      <c r="E372" t="s">
+        <v>515</v>
+      </c>
+      <c r="F372" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372">
+        <v>80201</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
+      <c r="A373" t="s">
+        <v>514</v>
+      </c>
+      <c r="B373" t="s">
+        <v>513</v>
+      </c>
+      <c r="C373">
+        <v>802</v>
+      </c>
+      <c r="D373" t="s">
+        <v>516</v>
+      </c>
+      <c r="E373" t="s">
+        <v>516</v>
+      </c>
+      <c r="F373" t="s">
+        <v>13</v>
+      </c>
+      <c r="G373">
+        <v>80202</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
+      <c r="A374" t="s">
+        <v>514</v>
+      </c>
+      <c r="B374" t="s">
+        <v>513</v>
+      </c>
+      <c r="C374">
+        <v>802</v>
+      </c>
+      <c r="D374" t="s">
         <v>517</v>
       </c>
-      <c r="B367" t="s">
-        <v>516</v>
-      </c>
-      <c r="C367">
+      <c r="E374" t="s">
+        <v>517</v>
+      </c>
+      <c r="F374" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374">
+        <v>80203</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
+      <c r="A375" t="s">
+        <v>514</v>
+      </c>
+      <c r="B375" t="s">
+        <v>513</v>
+      </c>
+      <c r="C375">
         <v>802</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D375" t="s">
+        <v>518</v>
+      </c>
+      <c r="E375" t="s">
+        <v>518</v>
+      </c>
+      <c r="F375" t="s">
+        <v>13</v>
+      </c>
+      <c r="G375">
+        <v>80204</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
+      <c r="A376" t="s">
+        <v>514</v>
+      </c>
+      <c r="B376" t="s">
+        <v>513</v>
+      </c>
+      <c r="C376">
+        <v>802</v>
+      </c>
+      <c r="D376" t="s">
+        <v>519</v>
+      </c>
+      <c r="E376" t="s">
+        <v>519</v>
+      </c>
+      <c r="F376" t="s">
+        <v>13</v>
+      </c>
+      <c r="G376">
+        <v>80205</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
+      <c r="A377" t="s">
+        <v>514</v>
+      </c>
+      <c r="B377" t="s">
+        <v>513</v>
+      </c>
+      <c r="C377">
+        <v>802</v>
+      </c>
+      <c r="D377" t="s">
+        <v>520</v>
+      </c>
+      <c r="E377" t="s">
+        <v>520</v>
+      </c>
+      <c r="F377" t="s">
+        <v>13</v>
+      </c>
+      <c r="G377">
+        <v>80206</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
+      <c r="A378" t="s">
+        <v>514</v>
+      </c>
+      <c r="B378" t="s">
+        <v>513</v>
+      </c>
+      <c r="C378">
+        <v>802</v>
+      </c>
+      <c r="D378" t="s">
+        <v>521</v>
+      </c>
+      <c r="E378" t="s">
+        <v>522</v>
+      </c>
+      <c r="F378" t="s">
+        <v>523</v>
+      </c>
+      <c r="G378">
+        <v>80207</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
+      <c r="A379" t="s">
+        <v>514</v>
+      </c>
+      <c r="B379" t="s">
+        <v>513</v>
+      </c>
+      <c r="C379">
+        <v>802</v>
+      </c>
+      <c r="D379" t="s">
+        <v>524</v>
+      </c>
+      <c r="E379" t="s">
+        <v>525</v>
+      </c>
+      <c r="F379" t="s">
+        <v>46</v>
+      </c>
+      <c r="G379">
+        <v>80208</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
+      <c r="A380" t="s">
+        <v>514</v>
+      </c>
+      <c r="B380" t="s">
+        <v>513</v>
+      </c>
+      <c r="C380">
+        <v>802</v>
+      </c>
+      <c r="D380" t="s">
+        <v>526</v>
+      </c>
+      <c r="E380" t="s">
+        <v>526</v>
+      </c>
+      <c r="F380" t="s">
+        <v>13</v>
+      </c>
+      <c r="G380">
+        <v>80209</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
+      <c r="A381" t="s">
+        <v>514</v>
+      </c>
+      <c r="B381" t="s">
+        <v>513</v>
+      </c>
+      <c r="C381">
+        <v>802</v>
+      </c>
+      <c r="D381" t="s">
+        <v>527</v>
+      </c>
+      <c r="E381" t="s">
+        <v>527</v>
+      </c>
+      <c r="F381" t="s">
+        <v>13</v>
+      </c>
+      <c r="G381">
+        <v>80210</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11">
+      <c r="A382" t="s">
+        <v>514</v>
+      </c>
+      <c r="B382" t="s">
+        <v>513</v>
+      </c>
+      <c r="C382">
+        <v>802</v>
+      </c>
+      <c r="D382" t="s">
+        <v>528</v>
+      </c>
+      <c r="E382" t="s">
+        <v>528</v>
+      </c>
+      <c r="F382" t="s">
+        <v>13</v>
+      </c>
+      <c r="G382">
+        <v>80211</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11">
+      <c r="A383" t="s">
+        <v>514</v>
+      </c>
+      <c r="B383" t="s">
+        <v>513</v>
+      </c>
+      <c r="C383">
+        <v>802</v>
+      </c>
+      <c r="D383" t="s">
+        <v>529</v>
+      </c>
+      <c r="E383" t="s">
+        <v>529</v>
+      </c>
+      <c r="F383" t="s">
+        <v>13</v>
+      </c>
+      <c r="G383">
+        <v>80212</v>
+      </c>
+      <c r="I383" s="2"/>
+      <c r="J383" s="2"/>
+      <c r="K383" s="2"/>
+    </row>
+    <row r="384" spans="1:11">
+      <c r="A384" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C384">
+        <v>803</v>
+      </c>
+      <c r="D384" t="s">
         <v>532</v>
       </c>
-      <c r="E367" t="s">
-        <v>532</v>
-      </c>
-      <c r="F367" t="s">
-        <v>13</v>
-      </c>
-      <c r="G367">
-        <v>80212</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
-      <c r="A368" s="1" t="s">
+      <c r="E384" t="s">
         <v>533</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C368">
-        <v>803</v>
-      </c>
-      <c r="D368" t="s">
-        <v>535</v>
-      </c>
-      <c r="E368" t="s">
-        <v>536</v>
-      </c>
-      <c r="F368" t="s">
+      <c r="F384" t="s">
         <v>39</v>
       </c>
-      <c r="G368">
+      <c r="G384">
         <v>80301</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
-      <c r="A369" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C369">
-        <v>803</v>
-      </c>
-      <c r="D369" t="s">
-        <v>537</v>
-      </c>
-      <c r="E369" t="s">
-        <v>537</v>
-      </c>
-      <c r="F369" t="s">
-        <v>13</v>
-      </c>
-      <c r="G369">
-        <v>80302</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7">
-      <c r="A370" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C370">
-        <v>803</v>
-      </c>
-      <c r="D370" t="s">
-        <v>538</v>
-      </c>
-      <c r="E370" t="s">
-        <v>538</v>
-      </c>
-      <c r="F370" t="s">
-        <v>13</v>
-      </c>
-      <c r="G370">
-        <v>80303</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
-      <c r="A371" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C371">
-        <v>803</v>
-      </c>
-      <c r="D371" t="s">
-        <v>539</v>
-      </c>
-      <c r="E371" t="s">
-        <v>539</v>
-      </c>
-      <c r="F371" t="s">
-        <v>13</v>
-      </c>
-      <c r="G371">
-        <v>80304</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
-      <c r="A372" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C372">
-        <v>803</v>
-      </c>
-      <c r="D372" t="s">
-        <v>540</v>
-      </c>
-      <c r="E372" t="s">
-        <v>541</v>
-      </c>
-      <c r="F372" t="s">
-        <v>20</v>
-      </c>
-      <c r="G372">
-        <v>80305</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
-      <c r="A373" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C373">
-        <v>803</v>
-      </c>
-      <c r="D373" t="s">
-        <v>542</v>
-      </c>
-      <c r="E373" t="s">
-        <v>542</v>
-      </c>
-      <c r="F373" t="s">
-        <v>13</v>
-      </c>
-      <c r="G373">
-        <v>80306</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
-      <c r="A374" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C374">
-        <v>803</v>
-      </c>
-      <c r="D374" t="s">
-        <v>543</v>
-      </c>
-      <c r="E374" t="s">
-        <v>543</v>
-      </c>
-      <c r="F374" t="s">
-        <v>13</v>
-      </c>
-      <c r="G374">
-        <v>80307</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
-      <c r="A375" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C375">
-        <v>803</v>
-      </c>
-      <c r="D375" t="s">
-        <v>544</v>
-      </c>
-      <c r="E375" t="s">
-        <v>544</v>
-      </c>
-      <c r="F375" t="s">
-        <v>13</v>
-      </c>
-      <c r="G375">
-        <v>80308</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
-      <c r="A376" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C376">
-        <v>803</v>
-      </c>
-      <c r="D376" t="s">
-        <v>545</v>
-      </c>
-      <c r="E376" t="s">
-        <v>545</v>
-      </c>
-      <c r="F376" t="s">
-        <v>13</v>
-      </c>
-      <c r="G376">
-        <v>80309</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7">
-      <c r="A377" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C377">
-        <v>803</v>
-      </c>
-      <c r="D377" t="s">
-        <v>546</v>
-      </c>
-      <c r="E377" t="s">
-        <v>547</v>
-      </c>
-      <c r="F377" t="s">
-        <v>20</v>
-      </c>
-      <c r="G377">
-        <v>80310</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
-      <c r="A378" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C378">
-        <v>804</v>
-      </c>
-      <c r="D378" t="s">
-        <v>556</v>
-      </c>
-      <c r="E378" t="s">
-        <v>556</v>
-      </c>
-      <c r="F378" t="s">
-        <v>13</v>
-      </c>
-      <c r="G378">
-        <v>80401</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
-      <c r="A379" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C379">
-        <v>804</v>
-      </c>
-      <c r="D379" t="s">
-        <v>548</v>
-      </c>
-      <c r="E379" t="s">
-        <v>548</v>
-      </c>
-      <c r="F379" t="s">
-        <v>13</v>
-      </c>
-      <c r="G379">
-        <v>80402</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
-      <c r="A380" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C380">
-        <v>804</v>
-      </c>
-      <c r="D380" t="s">
-        <v>549</v>
-      </c>
-      <c r="E380" t="s">
-        <v>549</v>
-      </c>
-      <c r="F380" t="s">
-        <v>13</v>
-      </c>
-      <c r="G380">
-        <v>80403</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
-      <c r="A381" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C381">
-        <v>804</v>
-      </c>
-      <c r="D381" t="s">
-        <v>557</v>
-      </c>
-      <c r="E381" t="s">
-        <v>557</v>
-      </c>
-      <c r="F381" t="s">
-        <v>13</v>
-      </c>
-      <c r="G381">
-        <v>80404</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
-      <c r="A382" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C382">
-        <v>804</v>
-      </c>
-      <c r="D382" t="s">
-        <v>558</v>
-      </c>
-      <c r="E382" t="s">
-        <v>558</v>
-      </c>
-      <c r="F382" t="s">
-        <v>13</v>
-      </c>
-      <c r="G382">
-        <v>80405</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
-      <c r="A383" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C383">
-        <v>804</v>
-      </c>
-      <c r="D383" t="s">
-        <v>559</v>
-      </c>
-      <c r="E383" t="s">
-        <v>559</v>
-      </c>
-      <c r="F383" t="s">
-        <v>13</v>
-      </c>
-      <c r="G383">
-        <v>80406</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
-      <c r="A384" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C384">
-        <v>804</v>
-      </c>
-      <c r="D384" t="s">
-        <v>550</v>
-      </c>
-      <c r="E384" t="s">
-        <v>550</v>
-      </c>
-      <c r="F384" t="s">
-        <v>13</v>
-      </c>
-      <c r="G384">
-        <v>80407</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C385">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D385" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="E385" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F385" t="s">
         <v>13</v>
       </c>
       <c r="G385">
-        <v>80408</v>
+        <v>80302</v>
       </c>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C386">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D386" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="E386" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="F386" t="s">
         <v>13</v>
       </c>
       <c r="G386">
-        <v>80409</v>
+        <v>80303</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C387">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D387" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="E387" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="F387" t="s">
         <v>13</v>
       </c>
       <c r="G387">
-        <v>80410</v>
+        <v>80304</v>
       </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="C388">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D388" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="E388" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="F388" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G388">
-        <v>80501</v>
+        <v>80305</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="C389">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D389" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="E389" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="F389" t="s">
         <v>13</v>
       </c>
       <c r="G389">
-        <v>80502</v>
+        <v>80306</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="C390">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D390" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="E390" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="F390" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G390">
-        <v>80503</v>
+        <v>80307</v>
       </c>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="C391">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D391" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="E391" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="F391" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G391">
-        <v>80504</v>
+        <v>80308</v>
       </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="C392">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D392" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="E392" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="F392" t="s">
         <v>13</v>
       </c>
       <c r="G392">
-        <v>80505</v>
+        <v>80309</v>
       </c>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
-        <v>578</v>
+        <v>530</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="C393">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D393" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="E393" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="F393" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G393">
-        <v>80601</v>
+        <v>80310</v>
       </c>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C394">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D394" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="E394" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="F394" t="s">
         <v>13</v>
       </c>
       <c r="G394">
-        <v>80602</v>
+        <v>80401</v>
       </c>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C395">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D395" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="E395" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="F395" t="s">
         <v>13</v>
       </c>
       <c r="G395">
-        <v>80603</v>
+        <v>80402</v>
       </c>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C396">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D396" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="E396" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="F396" t="s">
         <v>13</v>
       </c>
       <c r="G396">
-        <v>80604</v>
+        <v>80403</v>
       </c>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C397">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D397" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="E397" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="F397" t="s">
         <v>13</v>
       </c>
       <c r="G397">
-        <v>80605</v>
+        <v>80404</v>
       </c>
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C398">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D398" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="E398" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="F398" t="s">
         <v>13</v>
       </c>
       <c r="G398">
-        <v>80606</v>
+        <v>80405</v>
       </c>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C399">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D399" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="E399" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="F399" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G399">
-        <v>80607</v>
+        <v>80406</v>
       </c>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="1" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="C400">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D400" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="E400" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="F400" t="s">
         <v>13</v>
       </c>
       <c r="G400">
-        <v>80701</v>
+        <v>80407</v>
       </c>
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="1" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="C401">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D401" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="E401" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="F401" t="s">
         <v>13</v>
       </c>
       <c r="G401">
-        <v>80702</v>
+        <v>80408</v>
       </c>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="1" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="C402">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D402" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="E402" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="F402" t="s">
         <v>13</v>
       </c>
       <c r="G402">
-        <v>80703</v>
+        <v>80409</v>
       </c>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="1" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="C403">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D403" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="E403" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="F403" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G403">
-        <v>80704</v>
+        <v>80410</v>
       </c>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="1" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="C404">
+        <v>805</v>
+      </c>
+      <c r="D404" t="s">
+        <v>559</v>
+      </c>
+      <c r="E404" t="s">
+        <v>559</v>
+      </c>
+      <c r="F404" t="s">
+        <v>13</v>
+      </c>
+      <c r="G404">
+        <v>80501</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C405">
+        <v>805</v>
+      </c>
+      <c r="D405" t="s">
+        <v>560</v>
+      </c>
+      <c r="E405" t="s">
+        <v>560</v>
+      </c>
+      <c r="F405" t="s">
+        <v>13</v>
+      </c>
+      <c r="G405">
+        <v>80502</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C406">
+        <v>805</v>
+      </c>
+      <c r="D406" t="s">
+        <v>561</v>
+      </c>
+      <c r="E406" t="s">
+        <v>562</v>
+      </c>
+      <c r="F406" t="s">
+        <v>39</v>
+      </c>
+      <c r="G406">
+        <v>80503</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C407">
+        <v>805</v>
+      </c>
+      <c r="D407" t="s">
+        <v>563</v>
+      </c>
+      <c r="E407" t="s">
+        <v>564</v>
+      </c>
+      <c r="F407" t="s">
+        <v>20</v>
+      </c>
+      <c r="G407">
+        <v>80504</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C408">
+        <v>805</v>
+      </c>
+      <c r="D408" t="s">
+        <v>565</v>
+      </c>
+      <c r="E408" t="s">
+        <v>565</v>
+      </c>
+      <c r="F408" t="s">
+        <v>13</v>
+      </c>
+      <c r="G408">
+        <v>80505</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C409">
+        <v>806</v>
+      </c>
+      <c r="D409" t="s">
+        <v>566</v>
+      </c>
+      <c r="E409" t="s">
+        <v>567</v>
+      </c>
+      <c r="F409" t="s">
+        <v>34</v>
+      </c>
+      <c r="G409">
+        <v>80601</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C410">
+        <v>806</v>
+      </c>
+      <c r="D410" t="s">
+        <v>568</v>
+      </c>
+      <c r="E410" t="s">
+        <v>568</v>
+      </c>
+      <c r="F410" t="s">
+        <v>13</v>
+      </c>
+      <c r="G410">
+        <v>80602</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C411">
+        <v>806</v>
+      </c>
+      <c r="D411" t="s">
+        <v>569</v>
+      </c>
+      <c r="E411" t="s">
+        <v>569</v>
+      </c>
+      <c r="F411" t="s">
+        <v>13</v>
+      </c>
+      <c r="G411">
+        <v>80603</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C412">
+        <v>806</v>
+      </c>
+      <c r="D412" t="s">
+        <v>570</v>
+      </c>
+      <c r="E412" t="s">
+        <v>570</v>
+      </c>
+      <c r="F412" t="s">
+        <v>13</v>
+      </c>
+      <c r="G412">
+        <v>80604</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C413">
+        <v>806</v>
+      </c>
+      <c r="D413" t="s">
+        <v>571</v>
+      </c>
+      <c r="E413" t="s">
+        <v>571</v>
+      </c>
+      <c r="F413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G413">
+        <v>80605</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C414">
+        <v>806</v>
+      </c>
+      <c r="D414" t="s">
+        <v>572</v>
+      </c>
+      <c r="E414" t="s">
+        <v>572</v>
+      </c>
+      <c r="F414" t="s">
+        <v>13</v>
+      </c>
+      <c r="G414">
+        <v>80606</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C415">
+        <v>806</v>
+      </c>
+      <c r="D415" t="s">
+        <v>573</v>
+      </c>
+      <c r="E415" t="s">
+        <v>574</v>
+      </c>
+      <c r="F415" t="s">
+        <v>39</v>
+      </c>
+      <c r="G415">
+        <v>80607</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C416">
         <v>807</v>
       </c>
-      <c r="D404" t="s">
-        <v>584</v>
-      </c>
-      <c r="E404" t="s">
-        <v>584</v>
-      </c>
-      <c r="F404" t="s">
-        <v>13</v>
-      </c>
-      <c r="G404">
+      <c r="D416" t="s">
+        <v>576</v>
+      </c>
+      <c r="E416" t="s">
+        <v>576</v>
+      </c>
+      <c r="F416" t="s">
+        <v>13</v>
+      </c>
+      <c r="G416">
+        <v>80701</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C417">
+        <v>807</v>
+      </c>
+      <c r="D417" t="s">
+        <v>577</v>
+      </c>
+      <c r="E417" t="s">
+        <v>577</v>
+      </c>
+      <c r="F417" t="s">
+        <v>13</v>
+      </c>
+      <c r="G417">
+        <v>80702</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C418">
+        <v>807</v>
+      </c>
+      <c r="D418" t="s">
+        <v>578</v>
+      </c>
+      <c r="E418" t="s">
+        <v>578</v>
+      </c>
+      <c r="F418" t="s">
+        <v>13</v>
+      </c>
+      <c r="G418">
+        <v>80703</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C419">
+        <v>807</v>
+      </c>
+      <c r="D419" t="s">
+        <v>579</v>
+      </c>
+      <c r="E419" t="s">
+        <v>580</v>
+      </c>
+      <c r="F419" t="s">
+        <v>39</v>
+      </c>
+      <c r="G419">
+        <v>80704</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C420">
+        <v>807</v>
+      </c>
+      <c r="D420" t="s">
+        <v>581</v>
+      </c>
+      <c r="E420" t="s">
+        <v>581</v>
+      </c>
+      <c r="F420" t="s">
+        <v>13</v>
+      </c>
+      <c r="G420">
         <v>80705</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H404">
-    <sortCondition ref="G397"/>
+  <autoFilter ref="A1:H379" xr:uid="{AD761CD6-8CBE-EF42-BAD8-57F8629122E3}"/>
+  <sortState ref="A2:H420">
+    <sortCondition ref="G408"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC5DC9-39BA-4C41-9FF2-B1736669F5A4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD78B8A-066E-3446-819C-C1C8C1E25B0F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25500" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="802">
   <si>
     <t>prefecture_han</t>
   </si>
@@ -2396,6 +2396,458 @@
       <t>jun</t>
     </rPh>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>禄福县</t>
+  </si>
+  <si>
+    <t>显德县</t>
+  </si>
+  <si>
+    <t>表是县</t>
+  </si>
+  <si>
+    <t>载武县</t>
+  </si>
+  <si>
+    <t>乐涫县</t>
+  </si>
+  <si>
+    <t>乐亭县</t>
+  </si>
+  <si>
+    <t>天县</t>
+  </si>
+  <si>
+    <t>玉门县</t>
+  </si>
+  <si>
+    <t>辅平亭县</t>
+  </si>
+  <si>
+    <t>会水县</t>
+  </si>
+  <si>
+    <t>萧武县</t>
+  </si>
+  <si>
+    <t>池头县</t>
+  </si>
+  <si>
+    <t>绥弥县</t>
+  </si>
+  <si>
+    <t>乾齐县</t>
+  </si>
+  <si>
+    <t>测虏县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒泉郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>jiu'quan'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辅平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高平县</t>
+  </si>
+  <si>
+    <t>铺睦县</t>
+  </si>
+  <si>
+    <t>复累县</t>
+  </si>
+  <si>
+    <t>安俾县</t>
+  </si>
+  <si>
+    <t>抚夷县</t>
+  </si>
+  <si>
+    <t>抚宁县</t>
+  </si>
+  <si>
+    <t>朝那县</t>
+  </si>
+  <si>
+    <t>泾阳县</t>
+  </si>
+  <si>
+    <t>临泾县</t>
+  </si>
+  <si>
+    <t>监泾县</t>
+  </si>
+  <si>
+    <t>卤县</t>
+  </si>
+  <si>
+    <t>乌氏县</t>
+  </si>
+  <si>
+    <t>乌亭县</t>
+  </si>
+  <si>
+    <t>阴密县</t>
+  </si>
+  <si>
+    <t>参县</t>
+  </si>
+  <si>
+    <t>三水县</t>
+  </si>
+  <si>
+    <t>广延亭县</t>
+  </si>
+  <si>
+    <t>阴槃县</t>
+  </si>
+  <si>
+    <t>安武县</t>
+  </si>
+  <si>
+    <t>安桓县</t>
+  </si>
+  <si>
+    <t>祖厉县</t>
+  </si>
+  <si>
+    <t>乡礼县</t>
+  </si>
+  <si>
+    <t>爰得县</t>
+  </si>
+  <si>
+    <t>眴卷县</t>
+  </si>
+  <si>
+    <t>彭阳县</t>
+  </si>
+  <si>
+    <t>鹑阴县</t>
+  </si>
+  <si>
+    <t>月氏道</t>
+  </si>
+  <si>
+    <t>月顺县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安定郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>an'ding'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安定郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>骐县</t>
+  </si>
+  <si>
+    <t>狐讘县</t>
+  </si>
+  <si>
+    <t>蒲子县</t>
+  </si>
+  <si>
+    <t>朕北县</t>
+  </si>
+  <si>
+    <t>北屈县</t>
+  </si>
+  <si>
+    <t>有年亭县</t>
+  </si>
+  <si>
+    <t>杨县</t>
+  </si>
+  <si>
+    <t>黄城县</t>
+  </si>
+  <si>
+    <t>彘县</t>
+  </si>
+  <si>
+    <t>干昌县</t>
+  </si>
+  <si>
+    <t>襄陵县</t>
+  </si>
+  <si>
+    <t>香平县</t>
+  </si>
+  <si>
+    <t>平阳县</t>
+  </si>
+  <si>
+    <t>长修县</t>
+  </si>
+  <si>
+    <t>延平县</t>
+  </si>
+  <si>
+    <t>皮氏县</t>
+  </si>
+  <si>
+    <t>垣县</t>
+  </si>
+  <si>
+    <t>临汾县</t>
+  </si>
+  <si>
+    <t>端氏县</t>
+  </si>
+  <si>
+    <t>濩泽县</t>
+  </si>
+  <si>
+    <t>闻喜县</t>
+  </si>
+  <si>
+    <t>汾阴县</t>
+  </si>
+  <si>
+    <t>兆亭县</t>
+  </si>
+  <si>
+    <t>左邑县</t>
+  </si>
+  <si>
+    <t>河北县</t>
+  </si>
+  <si>
+    <t>蒲城县</t>
+  </si>
+  <si>
+    <t>蒲反县</t>
+  </si>
+  <si>
+    <t>解县</t>
+  </si>
+  <si>
+    <t>猗氏县</t>
+  </si>
+  <si>
+    <t>勤田县</t>
+  </si>
+  <si>
+    <t>大阳县</t>
+  </si>
+  <si>
+    <t>河东县</t>
+  </si>
+  <si>
+    <t>安邑县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>河东郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>he'dong'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兆阳郡</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>zhao'yang'jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绛县</t>
+    <rPh sb="0" eb="2">
+      <t>jiang'zi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阳县</t>
+  </si>
+  <si>
+    <t>葰人县</t>
+  </si>
+  <si>
+    <t>界休县</t>
+  </si>
+  <si>
+    <t>界美县</t>
+  </si>
+  <si>
+    <t>榆次县</t>
+  </si>
+  <si>
+    <t>太原亭县</t>
+  </si>
+  <si>
+    <t>中都县</t>
+  </si>
+  <si>
+    <t>于离县</t>
+  </si>
+  <si>
+    <t>于合县</t>
+  </si>
+  <si>
+    <t>兹氏县</t>
+  </si>
+  <si>
+    <t>兹同县</t>
+  </si>
+  <si>
+    <t>狼孟县</t>
+  </si>
+  <si>
+    <t>狼调县</t>
+  </si>
+  <si>
+    <t>邬县</t>
+  </si>
+  <si>
+    <t>盂县</t>
+  </si>
+  <si>
+    <t>平陶县</t>
+  </si>
+  <si>
+    <t>多穰县</t>
+  </si>
+  <si>
+    <t>汾阳县</t>
+  </si>
+  <si>
+    <t>京陵县</t>
+  </si>
+  <si>
+    <t>致城县</t>
+  </si>
+  <si>
+    <t>阳曲县</t>
+  </si>
+  <si>
+    <t>大陵县</t>
+  </si>
+  <si>
+    <t>大宁县</t>
+  </si>
+  <si>
+    <t>原平县</t>
+  </si>
+  <si>
+    <t>祁县</t>
+  </si>
+  <si>
+    <t>示县</t>
+  </si>
+  <si>
+    <t>上艾县</t>
+  </si>
+  <si>
+    <t>虑虒县</t>
+  </si>
+  <si>
+    <t>阳邑县</t>
+  </si>
+  <si>
+    <t>繁穰县</t>
+  </si>
+  <si>
+    <t>广武县</t>
+  </si>
+  <si>
+    <t>信桓县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>太原郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>tai'yuan'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3395,10 +3847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K420"/>
+  <dimension ref="A1:K495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="G408" sqref="G408"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="G373" sqref="G373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8808,7 +9260,7 @@
         <v>13</v>
       </c>
       <c r="G235">
-        <v>50701</v>
+        <v>50236</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -11021,1199 +11473,1199 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>684</v>
+        <v>701</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="C332">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G332" s="3">
-        <v>60801</v>
+        <v>60236</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>684</v>
+        <v>701</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="C333">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G333" s="3">
-        <v>60802</v>
+        <v>60702</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>684</v>
+        <v>701</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="C334">
-        <v>608</v>
-      </c>
-      <c r="D334" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="E334" s="5" t="s">
-        <v>685</v>
+        <v>607</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G334" s="3">
-        <v>60803</v>
+        <v>60703</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>684</v>
+        <v>701</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="C335">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G335" s="3">
-        <v>60804</v>
+        <v>60704</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C336">
+        <v>607</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G336" s="3">
+        <v>60705</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C337">
+        <v>607</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G337" s="3">
+        <v>60706</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C338">
+        <v>607</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338" s="3">
+        <v>60707</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C339">
+        <v>607</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G339" s="3">
+        <v>60708</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C340">
+        <v>607</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G340" s="3">
+        <v>60709</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C336">
+      <c r="C341">
         <v>608</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="D341" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G341" s="3">
+        <v>60801</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C342">
+        <v>608</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G342" s="3">
+        <v>60802</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C343">
+        <v>608</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G343" s="3">
+        <v>60803</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C344">
+        <v>608</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G344" s="3">
+        <v>60804</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C345">
+        <v>608</v>
+      </c>
+      <c r="D345" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E336" s="2" t="s">
+      <c r="E345" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="F336" s="2" t="s">
+      <c r="F345" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G336" s="3">
+      <c r="G345" s="3">
         <v>60805</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
-      <c r="A337" s="1" t="s">
+    <row r="346" spans="1:7">
+      <c r="A346" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C337">
+      <c r="C346">
         <v>608</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="D346" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E337" s="2" t="s">
+      <c r="E346" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="F337" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G337" s="3">
+      <c r="F346" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G346" s="3">
         <v>60806</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
-      <c r="A338" t="s">
-        <v>426</v>
-      </c>
-      <c r="B338" t="s">
-        <v>426</v>
-      </c>
-      <c r="C338">
-        <v>719</v>
-      </c>
-      <c r="D338" t="s">
-        <v>427</v>
-      </c>
-      <c r="E338" t="s">
-        <v>428</v>
-      </c>
-      <c r="F338" t="s">
-        <v>20</v>
-      </c>
-      <c r="G338">
-        <v>71901</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="A339" t="s">
-        <v>426</v>
-      </c>
-      <c r="B339" t="s">
-        <v>426</v>
-      </c>
-      <c r="C339">
-        <v>719</v>
-      </c>
-      <c r="D339" t="s">
-        <v>429</v>
-      </c>
-      <c r="E339" t="s">
-        <v>430</v>
-      </c>
-      <c r="F339" t="s">
-        <v>20</v>
-      </c>
-      <c r="G339">
-        <v>71902</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
-      <c r="A340" t="s">
-        <v>426</v>
-      </c>
-      <c r="B340" t="s">
-        <v>426</v>
-      </c>
-      <c r="C340">
-        <v>719</v>
-      </c>
-      <c r="D340" t="s">
-        <v>431</v>
-      </c>
-      <c r="E340" t="s">
-        <v>432</v>
-      </c>
-      <c r="F340" t="s">
-        <v>39</v>
-      </c>
-      <c r="G340">
-        <v>71903</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="A341" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C341">
-        <v>720</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G341" s="3">
-        <v>72001</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
-      <c r="A342" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C342">
-        <v>720</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G342" s="3">
-        <v>72002</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
-      <c r="A343" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C343">
-        <v>720</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G343" s="3">
-        <v>72003</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
-      <c r="A344" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C344">
-        <v>720</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G344" s="3">
-        <v>72004</v>
-      </c>
-      <c r="H344" s="2"/>
-    </row>
-    <row r="345" spans="1:8">
-      <c r="A345" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C345">
-        <v>720</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G345" s="3">
-        <v>72005</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="A346" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C346">
-        <v>720</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E346" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G346" s="3">
-        <v>72006</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:7">
       <c r="A347" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C347">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>439</v>
+        <v>703</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>440</v>
+        <v>704</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G347" s="3">
-        <v>72007</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>60901</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C348">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>441</v>
+        <v>705</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>441</v>
+        <v>705</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G348" s="3">
-        <v>72008</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>60902</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C349">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>442</v>
+        <v>706</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>442</v>
+        <v>706</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G349" s="3">
-        <v>72009</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>60903</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C350">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>443</v>
+        <v>707</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>444</v>
+        <v>708</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G350" s="3">
-        <v>72010</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
+        <v>60904</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C351">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>445</v>
+        <v>709</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>445</v>
+        <v>709</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G351" s="3">
-        <v>72011</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>60905</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C352">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>446</v>
+        <v>710</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G352" s="3">
-        <v>72012</v>
+        <v>60906</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C353">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>447</v>
+        <v>711</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>447</v>
+        <v>712</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G353" s="3">
-        <v>72013</v>
+        <v>60907</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C354">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>448</v>
+        <v>713</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>448</v>
+        <v>713</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G354" s="3">
-        <v>72014</v>
+        <v>60908</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C355">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>449</v>
+        <v>714</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>449</v>
+        <v>715</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G355" s="3">
-        <v>72015</v>
+        <v>60909</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C356">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>450</v>
+        <v>716</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>450</v>
+        <v>716</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G356" s="3">
-        <v>72016</v>
+        <v>60910</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C357">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>451</v>
+        <v>545</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>451</v>
+        <v>545</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G357" s="3">
-        <v>72017</v>
+        <v>60911</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C358">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>452</v>
+        <v>717</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>452</v>
+        <v>717</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G358" s="3">
-        <v>72018</v>
+        <v>60912</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C359">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>453</v>
+        <v>718</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>453</v>
+        <v>719</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G359" s="3">
-        <v>72019</v>
+        <v>60913</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C360">
+        <v>609</v>
+      </c>
+      <c r="D360" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D360" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="E360" s="2" t="s">
-        <v>454</v>
+        <v>720</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G360" s="3">
-        <v>72020</v>
+        <v>60914</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C361">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>455</v>
+        <v>721</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>455</v>
+        <v>722</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G361" s="3">
-        <v>72021</v>
+        <v>60915</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C362">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>456</v>
+        <v>723</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>456</v>
+        <v>724</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G362" s="3">
-        <v>72022</v>
+        <v>60916</v>
       </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C363">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>457</v>
+        <v>725</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>457</v>
+        <v>725</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G363" s="3">
-        <v>72023</v>
+        <v>60917</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C364">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>458</v>
+        <v>726</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>458</v>
+        <v>726</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G364" s="3">
-        <v>72024</v>
+        <v>60918</v>
       </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C365">
-        <v>720</v>
+        <v>609</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>459</v>
+        <v>727</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>459</v>
+        <v>727</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G365" s="3">
-        <v>72025</v>
+        <v>60919</v>
       </c>
     </row>
     <row r="366" spans="1:7">
-      <c r="A366" t="s">
-        <v>512</v>
-      </c>
-      <c r="B366" t="s">
-        <v>512</v>
+      <c r="A366" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C366">
-        <v>801</v>
-      </c>
-      <c r="D366" t="s">
-        <v>505</v>
-      </c>
-      <c r="E366" t="s">
-        <v>505</v>
-      </c>
-      <c r="F366" t="s">
-        <v>13</v>
-      </c>
-      <c r="G366">
-        <v>80101</v>
+        <v>609</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G366" s="3">
+        <v>60920</v>
       </c>
     </row>
     <row r="367" spans="1:7">
-      <c r="A367" t="s">
-        <v>512</v>
-      </c>
-      <c r="B367" t="s">
-        <v>512</v>
+      <c r="A367" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="C367">
-        <v>801</v>
-      </c>
-      <c r="D367" t="s">
-        <v>506</v>
-      </c>
-      <c r="E367" t="s">
-        <v>506</v>
-      </c>
-      <c r="F367" t="s">
-        <v>13</v>
-      </c>
-      <c r="G367">
-        <v>80102</v>
+        <v>609</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G367" s="3">
+        <v>60921</v>
       </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="B368" t="s">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="C368">
-        <v>801</v>
+        <v>717</v>
       </c>
       <c r="D368" t="s">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="E368" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="F368" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G368">
-        <v>80103</v>
+        <v>71701</v>
       </c>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" t="s">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="B369" t="s">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="C369">
-        <v>801</v>
+        <v>717</v>
       </c>
       <c r="D369" t="s">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="E369" t="s">
-        <v>508</v>
+        <v>430</v>
       </c>
       <c r="F369" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G369">
-        <v>80104</v>
+        <v>71702</v>
       </c>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" t="s">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="B370" t="s">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="C370">
-        <v>801</v>
+        <v>717</v>
       </c>
       <c r="D370" t="s">
-        <v>509</v>
+        <v>431</v>
       </c>
       <c r="E370" t="s">
-        <v>509</v>
+        <v>432</v>
       </c>
       <c r="F370" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G370">
-        <v>80105</v>
+        <v>71703</v>
       </c>
     </row>
     <row r="371" spans="1:11">
-      <c r="A371" t="s">
-        <v>512</v>
-      </c>
-      <c r="B371" t="s">
-        <v>512</v>
+      <c r="A371" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C371">
-        <v>801</v>
-      </c>
-      <c r="D371" t="s">
-        <v>510</v>
-      </c>
-      <c r="E371" t="s">
-        <v>511</v>
-      </c>
-      <c r="F371" t="s">
+        <v>718</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G371" s="3">
+        <v>71801</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
+      <c r="A372" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C372">
+        <v>718</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" s="3">
+        <v>71802</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
+      <c r="A373" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C373">
+        <v>718</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F373" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G371">
-        <v>80106</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11">
-      <c r="A372" t="s">
-        <v>514</v>
-      </c>
-      <c r="B372" t="s">
-        <v>513</v>
-      </c>
-      <c r="C372">
-        <v>802</v>
-      </c>
-      <c r="D372" t="s">
-        <v>515</v>
-      </c>
-      <c r="E372" t="s">
-        <v>515</v>
-      </c>
-      <c r="F372" t="s">
-        <v>13</v>
-      </c>
-      <c r="G372">
-        <v>80201</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11">
-      <c r="A373" t="s">
-        <v>514</v>
-      </c>
-      <c r="B373" t="s">
-        <v>513</v>
-      </c>
-      <c r="C373">
-        <v>802</v>
-      </c>
-      <c r="D373" t="s">
-        <v>516</v>
-      </c>
-      <c r="E373" t="s">
-        <v>516</v>
-      </c>
-      <c r="F373" t="s">
-        <v>13</v>
-      </c>
-      <c r="G373">
-        <v>80202</v>
+      <c r="G373" s="3">
+        <v>71803</v>
       </c>
     </row>
     <row r="374" spans="1:11">
-      <c r="A374" t="s">
-        <v>514</v>
-      </c>
-      <c r="B374" t="s">
-        <v>513</v>
+      <c r="A374" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C374">
-        <v>802</v>
-      </c>
-      <c r="D374" t="s">
-        <v>517</v>
-      </c>
-      <c r="E374" t="s">
-        <v>517</v>
-      </c>
-      <c r="F374" t="s">
-        <v>13</v>
-      </c>
-      <c r="G374">
-        <v>80203</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374" s="3">
+        <v>71804</v>
+      </c>
+      <c r="H374" s="2"/>
     </row>
     <row r="375" spans="1:11">
-      <c r="A375" t="s">
-        <v>514</v>
-      </c>
-      <c r="B375" t="s">
-        <v>513</v>
+      <c r="A375" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C375">
-        <v>802</v>
-      </c>
-      <c r="D375" t="s">
-        <v>518</v>
-      </c>
-      <c r="E375" t="s">
-        <v>518</v>
-      </c>
-      <c r="F375" t="s">
-        <v>13</v>
-      </c>
-      <c r="G375">
-        <v>80204</v>
+        <v>718</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G375" s="3">
+        <v>71805</v>
       </c>
     </row>
     <row r="376" spans="1:11">
-      <c r="A376" t="s">
-        <v>514</v>
-      </c>
-      <c r="B376" t="s">
-        <v>513</v>
+      <c r="A376" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C376">
-        <v>802</v>
-      </c>
-      <c r="D376" t="s">
-        <v>519</v>
-      </c>
-      <c r="E376" t="s">
-        <v>519</v>
-      </c>
-      <c r="F376" t="s">
-        <v>13</v>
-      </c>
-      <c r="G376">
-        <v>80205</v>
+        <v>718</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G376" s="3">
+        <v>71806</v>
       </c>
     </row>
     <row r="377" spans="1:11">
-      <c r="A377" t="s">
-        <v>514</v>
-      </c>
-      <c r="B377" t="s">
-        <v>513</v>
+      <c r="A377" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C377">
-        <v>802</v>
-      </c>
-      <c r="D377" t="s">
-        <v>520</v>
-      </c>
-      <c r="E377" t="s">
-        <v>520</v>
-      </c>
-      <c r="F377" t="s">
-        <v>13</v>
-      </c>
-      <c r="G377">
-        <v>80206</v>
+        <v>718</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G377" s="3">
+        <v>71807</v>
       </c>
     </row>
     <row r="378" spans="1:11">
-      <c r="A378" t="s">
-        <v>514</v>
-      </c>
-      <c r="B378" t="s">
-        <v>513</v>
+      <c r="A378" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C378">
-        <v>802</v>
-      </c>
-      <c r="D378" t="s">
-        <v>521</v>
-      </c>
-      <c r="E378" t="s">
-        <v>522</v>
-      </c>
-      <c r="F378" t="s">
-        <v>523</v>
-      </c>
-      <c r="G378">
-        <v>80207</v>
+        <v>718</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G378" s="3">
+        <v>71808</v>
       </c>
     </row>
     <row r="379" spans="1:11">
-      <c r="A379" t="s">
-        <v>514</v>
-      </c>
-      <c r="B379" t="s">
-        <v>513</v>
+      <c r="A379" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C379">
-        <v>802</v>
-      </c>
-      <c r="D379" t="s">
-        <v>524</v>
-      </c>
-      <c r="E379" t="s">
-        <v>525</v>
-      </c>
-      <c r="F379" t="s">
-        <v>46</v>
-      </c>
-      <c r="G379">
-        <v>80208</v>
+        <v>718</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G379" s="3">
+        <v>71809</v>
       </c>
     </row>
     <row r="380" spans="1:11">
-      <c r="A380" t="s">
-        <v>514</v>
-      </c>
-      <c r="B380" t="s">
-        <v>513</v>
+      <c r="A380" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C380">
-        <v>802</v>
-      </c>
-      <c r="D380" t="s">
-        <v>526</v>
-      </c>
-      <c r="E380" t="s">
-        <v>526</v>
-      </c>
-      <c r="F380" t="s">
-        <v>13</v>
-      </c>
-      <c r="G380">
-        <v>80209</v>
+        <v>718</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G380" s="3">
+        <v>71810</v>
       </c>
     </row>
     <row r="381" spans="1:11">
-      <c r="A381" t="s">
-        <v>514</v>
-      </c>
-      <c r="B381" t="s">
-        <v>513</v>
+      <c r="A381" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C381">
-        <v>802</v>
-      </c>
-      <c r="D381" t="s">
-        <v>527</v>
-      </c>
-      <c r="E381" t="s">
-        <v>527</v>
-      </c>
-      <c r="F381" t="s">
-        <v>13</v>
-      </c>
-      <c r="G381">
-        <v>80210</v>
+        <v>718</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G381" s="3">
+        <v>71811</v>
       </c>
     </row>
     <row r="382" spans="1:11">
-      <c r="A382" t="s">
-        <v>514</v>
-      </c>
-      <c r="B382" t="s">
-        <v>513</v>
+      <c r="A382" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C382">
-        <v>802</v>
-      </c>
-      <c r="D382" t="s">
-        <v>528</v>
-      </c>
-      <c r="E382" t="s">
-        <v>528</v>
-      </c>
-      <c r="F382" t="s">
-        <v>13</v>
-      </c>
-      <c r="G382">
-        <v>80211</v>
+        <v>718</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G382" s="3">
+        <v>71812</v>
       </c>
     </row>
     <row r="383" spans="1:11">
-      <c r="A383" t="s">
-        <v>514</v>
-      </c>
-      <c r="B383" t="s">
-        <v>513</v>
+      <c r="A383" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C383">
-        <v>802</v>
-      </c>
-      <c r="D383" t="s">
-        <v>529</v>
-      </c>
-      <c r="E383" t="s">
-        <v>529</v>
-      </c>
-      <c r="F383" t="s">
-        <v>13</v>
-      </c>
-      <c r="G383">
-        <v>80212</v>
+        <v>718</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G383" s="3">
+        <v>71813</v>
       </c>
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
@@ -12221,859 +12673,2584 @@
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C384">
-        <v>803</v>
-      </c>
-      <c r="D384" t="s">
-        <v>532</v>
-      </c>
-      <c r="E384" t="s">
-        <v>533</v>
-      </c>
-      <c r="F384" t="s">
-        <v>39</v>
-      </c>
-      <c r="G384">
-        <v>80301</v>
+        <v>718</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384" s="3">
+        <v>71814</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C385">
-        <v>803</v>
-      </c>
-      <c r="D385" t="s">
-        <v>534</v>
-      </c>
-      <c r="E385" t="s">
-        <v>534</v>
-      </c>
-      <c r="F385" t="s">
-        <v>13</v>
-      </c>
-      <c r="G385">
-        <v>80302</v>
+        <v>718</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G385" s="3">
+        <v>71815</v>
       </c>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C386">
-        <v>803</v>
-      </c>
-      <c r="D386" t="s">
-        <v>535</v>
-      </c>
-      <c r="E386" t="s">
-        <v>535</v>
-      </c>
-      <c r="F386" t="s">
-        <v>13</v>
-      </c>
-      <c r="G386">
-        <v>80303</v>
+        <v>718</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386" s="3">
+        <v>71816</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C387">
-        <v>803</v>
-      </c>
-      <c r="D387" t="s">
-        <v>536</v>
-      </c>
-      <c r="E387" t="s">
-        <v>536</v>
-      </c>
-      <c r="F387" t="s">
-        <v>13</v>
-      </c>
-      <c r="G387">
-        <v>80304</v>
+        <v>718</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G387" s="3">
+        <v>71817</v>
       </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C388">
-        <v>803</v>
-      </c>
-      <c r="D388" t="s">
-        <v>537</v>
-      </c>
-      <c r="E388" t="s">
-        <v>538</v>
-      </c>
-      <c r="F388" t="s">
-        <v>20</v>
-      </c>
-      <c r="G388">
-        <v>80305</v>
+        <v>718</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G388" s="3">
+        <v>71818</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C389">
-        <v>803</v>
-      </c>
-      <c r="D389" t="s">
-        <v>539</v>
-      </c>
-      <c r="E389" t="s">
-        <v>539</v>
-      </c>
-      <c r="F389" t="s">
-        <v>13</v>
-      </c>
-      <c r="G389">
-        <v>80306</v>
+        <v>718</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G389" s="3">
+        <v>71819</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C390">
-        <v>803</v>
-      </c>
-      <c r="D390" t="s">
-        <v>540</v>
-      </c>
-      <c r="E390" t="s">
-        <v>540</v>
-      </c>
-      <c r="F390" t="s">
-        <v>13</v>
-      </c>
-      <c r="G390">
-        <v>80307</v>
+        <v>718</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G390" s="3">
+        <v>71820</v>
       </c>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C391">
-        <v>803</v>
-      </c>
-      <c r="D391" t="s">
-        <v>541</v>
-      </c>
-      <c r="E391" t="s">
-        <v>541</v>
-      </c>
-      <c r="F391" t="s">
-        <v>13</v>
-      </c>
-      <c r="G391">
-        <v>80308</v>
+        <v>718</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G391" s="3">
+        <v>71821</v>
       </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C392">
-        <v>803</v>
-      </c>
-      <c r="D392" t="s">
-        <v>542</v>
-      </c>
-      <c r="E392" t="s">
-        <v>542</v>
-      </c>
-      <c r="F392" t="s">
-        <v>13</v>
-      </c>
-      <c r="G392">
-        <v>80309</v>
+        <v>718</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392" s="3">
+        <v>71822</v>
       </c>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
-        <v>530</v>
+        <v>653</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C393">
-        <v>803</v>
-      </c>
-      <c r="D393" t="s">
-        <v>543</v>
-      </c>
-      <c r="E393" t="s">
-        <v>544</v>
-      </c>
-      <c r="F393" t="s">
-        <v>20</v>
-      </c>
-      <c r="G393">
-        <v>80310</v>
+        <v>718</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" s="3">
+        <v>71823</v>
       </c>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="1" t="s">
-        <v>551</v>
+        <v>653</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>552</v>
+        <v>654</v>
       </c>
       <c r="C394">
-        <v>804</v>
-      </c>
-      <c r="D394" t="s">
-        <v>553</v>
-      </c>
-      <c r="E394" t="s">
-        <v>553</v>
-      </c>
-      <c r="F394" t="s">
-        <v>13</v>
-      </c>
-      <c r="G394">
-        <v>80401</v>
+        <v>718</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G394" s="3">
+        <v>71824</v>
       </c>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="1" t="s">
-        <v>551</v>
+        <v>653</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>552</v>
+        <v>654</v>
       </c>
       <c r="C395">
-        <v>804</v>
-      </c>
-      <c r="D395" t="s">
-        <v>545</v>
-      </c>
-      <c r="E395" t="s">
-        <v>545</v>
-      </c>
-      <c r="F395" t="s">
-        <v>13</v>
-      </c>
-      <c r="G395">
-        <v>80402</v>
+        <v>718</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G395" s="3">
+        <v>71825</v>
       </c>
     </row>
     <row r="396" spans="1:7">
-      <c r="A396" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>552</v>
+      <c r="A396" t="s">
+        <v>512</v>
+      </c>
+      <c r="B396" t="s">
+        <v>512</v>
       </c>
       <c r="C396">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D396" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="E396" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="F396" t="s">
         <v>13</v>
       </c>
       <c r="G396">
-        <v>80403</v>
+        <v>80101</v>
       </c>
     </row>
     <row r="397" spans="1:7">
-      <c r="A397" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>552</v>
+      <c r="A397" t="s">
+        <v>512</v>
+      </c>
+      <c r="B397" t="s">
+        <v>512</v>
       </c>
       <c r="C397">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D397" t="s">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="E397" t="s">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="F397" t="s">
         <v>13</v>
       </c>
       <c r="G397">
-        <v>80404</v>
+        <v>80102</v>
       </c>
     </row>
     <row r="398" spans="1:7">
-      <c r="A398" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>552</v>
+      <c r="A398" t="s">
+        <v>512</v>
+      </c>
+      <c r="B398" t="s">
+        <v>512</v>
       </c>
       <c r="C398">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D398" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="E398" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="F398" t="s">
         <v>13</v>
       </c>
       <c r="G398">
-        <v>80405</v>
+        <v>80103</v>
       </c>
     </row>
     <row r="399" spans="1:7">
-      <c r="A399" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>552</v>
+      <c r="A399" t="s">
+        <v>512</v>
+      </c>
+      <c r="B399" t="s">
+        <v>512</v>
       </c>
       <c r="C399">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D399" t="s">
-        <v>556</v>
+        <v>508</v>
       </c>
       <c r="E399" t="s">
-        <v>556</v>
+        <v>508</v>
       </c>
       <c r="F399" t="s">
         <v>13</v>
       </c>
       <c r="G399">
-        <v>80406</v>
+        <v>80104</v>
       </c>
     </row>
     <row r="400" spans="1:7">
-      <c r="A400" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>552</v>
+      <c r="A400" t="s">
+        <v>512</v>
+      </c>
+      <c r="B400" t="s">
+        <v>512</v>
       </c>
       <c r="C400">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D400" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="E400" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="F400" t="s">
         <v>13</v>
       </c>
       <c r="G400">
-        <v>80407</v>
+        <v>80105</v>
       </c>
     </row>
     <row r="401" spans="1:7">
-      <c r="A401" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>552</v>
+      <c r="A401" t="s">
+        <v>512</v>
+      </c>
+      <c r="B401" t="s">
+        <v>512</v>
       </c>
       <c r="C401">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D401" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="E401" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="F401" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G401">
-        <v>80408</v>
+        <v>80106</v>
       </c>
     </row>
     <row r="402" spans="1:7">
-      <c r="A402" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>552</v>
+      <c r="A402" t="s">
+        <v>514</v>
+      </c>
+      <c r="B402" t="s">
+        <v>513</v>
       </c>
       <c r="C402">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D402" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="E402" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="F402" t="s">
         <v>13</v>
       </c>
       <c r="G402">
-        <v>80409</v>
+        <v>80201</v>
       </c>
     </row>
     <row r="403" spans="1:7">
-      <c r="A403" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>552</v>
+      <c r="A403" t="s">
+        <v>514</v>
+      </c>
+      <c r="B403" t="s">
+        <v>513</v>
       </c>
       <c r="C403">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D403" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="E403" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="F403" t="s">
         <v>13</v>
       </c>
       <c r="G403">
-        <v>80410</v>
+        <v>80202</v>
       </c>
     </row>
     <row r="404" spans="1:7">
-      <c r="A404" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>557</v>
+      <c r="A404" t="s">
+        <v>514</v>
+      </c>
+      <c r="B404" t="s">
+        <v>513</v>
       </c>
       <c r="C404">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D404" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
       <c r="E404" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
       <c r="F404" t="s">
         <v>13</v>
       </c>
       <c r="G404">
-        <v>80501</v>
+        <v>80203</v>
       </c>
     </row>
     <row r="405" spans="1:7">
-      <c r="A405" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>557</v>
+      <c r="A405" t="s">
+        <v>514</v>
+      </c>
+      <c r="B405" t="s">
+        <v>513</v>
       </c>
       <c r="C405">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D405" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="E405" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="F405" t="s">
         <v>13</v>
       </c>
       <c r="G405">
-        <v>80502</v>
+        <v>80204</v>
       </c>
     </row>
     <row r="406" spans="1:7">
-      <c r="A406" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>557</v>
+      <c r="A406" t="s">
+        <v>514</v>
+      </c>
+      <c r="B406" t="s">
+        <v>513</v>
       </c>
       <c r="C406">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D406" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
       <c r="E406" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="F406" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G406">
-        <v>80503</v>
+        <v>80205</v>
       </c>
     </row>
     <row r="407" spans="1:7">
-      <c r="A407" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>557</v>
+      <c r="A407" t="s">
+        <v>514</v>
+      </c>
+      <c r="B407" t="s">
+        <v>513</v>
       </c>
       <c r="C407">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D407" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="E407" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="F407" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G407">
-        <v>80504</v>
+        <v>80206</v>
       </c>
     </row>
     <row r="408" spans="1:7">
-      <c r="A408" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>557</v>
+      <c r="A408" t="s">
+        <v>514</v>
+      </c>
+      <c r="B408" t="s">
+        <v>513</v>
       </c>
       <c r="C408">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D408" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="E408" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
       <c r="F408" t="s">
-        <v>13</v>
+        <v>523</v>
       </c>
       <c r="G408">
-        <v>80505</v>
+        <v>80207</v>
       </c>
     </row>
     <row r="409" spans="1:7">
-      <c r="A409" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>575</v>
+      <c r="A409" t="s">
+        <v>514</v>
+      </c>
+      <c r="B409" t="s">
+        <v>513</v>
       </c>
       <c r="C409">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D409" t="s">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="E409" t="s">
-        <v>567</v>
+        <v>525</v>
       </c>
       <c r="F409" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G409">
-        <v>80601</v>
+        <v>80208</v>
       </c>
     </row>
     <row r="410" spans="1:7">
-      <c r="A410" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>575</v>
+      <c r="A410" t="s">
+        <v>514</v>
+      </c>
+      <c r="B410" t="s">
+        <v>513</v>
       </c>
       <c r="C410">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D410" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="E410" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="F410" t="s">
         <v>13</v>
       </c>
       <c r="G410">
-        <v>80602</v>
+        <v>80209</v>
       </c>
     </row>
     <row r="411" spans="1:7">
-      <c r="A411" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>575</v>
+      <c r="A411" t="s">
+        <v>514</v>
+      </c>
+      <c r="B411" t="s">
+        <v>513</v>
       </c>
       <c r="C411">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D411" t="s">
-        <v>569</v>
+        <v>527</v>
       </c>
       <c r="E411" t="s">
-        <v>569</v>
+        <v>527</v>
       </c>
       <c r="F411" t="s">
         <v>13</v>
       </c>
       <c r="G411">
-        <v>80603</v>
+        <v>80210</v>
       </c>
     </row>
     <row r="412" spans="1:7">
-      <c r="A412" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>575</v>
+      <c r="A412" t="s">
+        <v>514</v>
+      </c>
+      <c r="B412" t="s">
+        <v>513</v>
       </c>
       <c r="C412">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D412" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="E412" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="F412" t="s">
         <v>13</v>
       </c>
       <c r="G412">
-        <v>80604</v>
+        <v>80211</v>
       </c>
     </row>
     <row r="413" spans="1:7">
-      <c r="A413" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>575</v>
+      <c r="A413" t="s">
+        <v>514</v>
+      </c>
+      <c r="B413" t="s">
+        <v>513</v>
       </c>
       <c r="C413">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D413" t="s">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="E413" t="s">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="F413" t="s">
         <v>13</v>
       </c>
       <c r="G413">
-        <v>80605</v>
+        <v>80212</v>
       </c>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="1" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="C414">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D414" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="E414" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="F414" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G414">
-        <v>80606</v>
+        <v>80301</v>
       </c>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="1" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="C415">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D415" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="E415" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="F415" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G415">
-        <v>80607</v>
+        <v>80302</v>
       </c>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="1" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="C416">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D416" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="E416" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="F416" t="s">
         <v>13</v>
       </c>
       <c r="G416">
-        <v>80701</v>
+        <v>80303</v>
       </c>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="1" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="C417">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D417" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="E417" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="F417" t="s">
         <v>13</v>
       </c>
       <c r="G417">
-        <v>80702</v>
+        <v>80304</v>
       </c>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="1" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="C418">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D418" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="E418" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="F418" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G418">
-        <v>80703</v>
+        <v>80305</v>
       </c>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="1" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="C419">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D419" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="E419" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="F419" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G419">
-        <v>80704</v>
+        <v>80306</v>
       </c>
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C420">
+        <v>803</v>
+      </c>
+      <c r="D420" t="s">
+        <v>540</v>
+      </c>
+      <c r="E420" t="s">
+        <v>540</v>
+      </c>
+      <c r="F420" t="s">
+        <v>13</v>
+      </c>
+      <c r="G420">
+        <v>80307</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C421">
+        <v>803</v>
+      </c>
+      <c r="D421" t="s">
+        <v>541</v>
+      </c>
+      <c r="E421" t="s">
+        <v>541</v>
+      </c>
+      <c r="F421" t="s">
+        <v>13</v>
+      </c>
+      <c r="G421">
+        <v>80308</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C422">
+        <v>803</v>
+      </c>
+      <c r="D422" t="s">
+        <v>542</v>
+      </c>
+      <c r="E422" t="s">
+        <v>542</v>
+      </c>
+      <c r="F422" t="s">
+        <v>13</v>
+      </c>
+      <c r="G422">
+        <v>80309</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C423">
+        <v>803</v>
+      </c>
+      <c r="D423" t="s">
+        <v>543</v>
+      </c>
+      <c r="E423" t="s">
+        <v>544</v>
+      </c>
+      <c r="F423" t="s">
+        <v>20</v>
+      </c>
+      <c r="G423">
+        <v>80310</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C424">
+        <v>804</v>
+      </c>
+      <c r="D424" t="s">
+        <v>553</v>
+      </c>
+      <c r="E424" t="s">
+        <v>553</v>
+      </c>
+      <c r="F424" t="s">
+        <v>13</v>
+      </c>
+      <c r="G424">
+        <v>80401</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C425">
+        <v>804</v>
+      </c>
+      <c r="D425" t="s">
+        <v>545</v>
+      </c>
+      <c r="E425" t="s">
+        <v>545</v>
+      </c>
+      <c r="F425" t="s">
+        <v>13</v>
+      </c>
+      <c r="G425">
+        <v>80402</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C426">
+        <v>804</v>
+      </c>
+      <c r="D426" t="s">
+        <v>546</v>
+      </c>
+      <c r="E426" t="s">
+        <v>546</v>
+      </c>
+      <c r="F426" t="s">
+        <v>13</v>
+      </c>
+      <c r="G426">
+        <v>80403</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C427">
+        <v>804</v>
+      </c>
+      <c r="D427" t="s">
+        <v>554</v>
+      </c>
+      <c r="E427" t="s">
+        <v>554</v>
+      </c>
+      <c r="F427" t="s">
+        <v>13</v>
+      </c>
+      <c r="G427">
+        <v>80404</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C428">
+        <v>804</v>
+      </c>
+      <c r="D428" t="s">
+        <v>555</v>
+      </c>
+      <c r="E428" t="s">
+        <v>555</v>
+      </c>
+      <c r="F428" t="s">
+        <v>13</v>
+      </c>
+      <c r="G428">
+        <v>80405</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C429">
+        <v>804</v>
+      </c>
+      <c r="D429" t="s">
+        <v>556</v>
+      </c>
+      <c r="E429" t="s">
+        <v>556</v>
+      </c>
+      <c r="F429" t="s">
+        <v>13</v>
+      </c>
+      <c r="G429">
+        <v>80406</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C430">
+        <v>804</v>
+      </c>
+      <c r="D430" t="s">
+        <v>547</v>
+      </c>
+      <c r="E430" t="s">
+        <v>547</v>
+      </c>
+      <c r="F430" t="s">
+        <v>13</v>
+      </c>
+      <c r="G430">
+        <v>80407</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C431">
+        <v>804</v>
+      </c>
+      <c r="D431" t="s">
+        <v>548</v>
+      </c>
+      <c r="E431" t="s">
+        <v>548</v>
+      </c>
+      <c r="F431" t="s">
+        <v>13</v>
+      </c>
+      <c r="G431">
+        <v>80408</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C432">
+        <v>804</v>
+      </c>
+      <c r="D432" t="s">
+        <v>549</v>
+      </c>
+      <c r="E432" t="s">
+        <v>549</v>
+      </c>
+      <c r="F432" t="s">
+        <v>13</v>
+      </c>
+      <c r="G432">
+        <v>80409</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C433">
+        <v>804</v>
+      </c>
+      <c r="D433" t="s">
+        <v>550</v>
+      </c>
+      <c r="E433" t="s">
+        <v>550</v>
+      </c>
+      <c r="F433" t="s">
+        <v>13</v>
+      </c>
+      <c r="G433">
+        <v>80410</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C434">
+        <v>805</v>
+      </c>
+      <c r="D434" t="s">
+        <v>559</v>
+      </c>
+      <c r="E434" t="s">
+        <v>559</v>
+      </c>
+      <c r="F434" t="s">
+        <v>13</v>
+      </c>
+      <c r="G434">
+        <v>80501</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C435">
+        <v>805</v>
+      </c>
+      <c r="D435" t="s">
+        <v>560</v>
+      </c>
+      <c r="E435" t="s">
+        <v>560</v>
+      </c>
+      <c r="F435" t="s">
+        <v>13</v>
+      </c>
+      <c r="G435">
+        <v>80502</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C436">
+        <v>805</v>
+      </c>
+      <c r="D436" t="s">
+        <v>561</v>
+      </c>
+      <c r="E436" t="s">
+        <v>562</v>
+      </c>
+      <c r="F436" t="s">
+        <v>39</v>
+      </c>
+      <c r="G436">
+        <v>80503</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C437">
+        <v>805</v>
+      </c>
+      <c r="D437" t="s">
+        <v>563</v>
+      </c>
+      <c r="E437" t="s">
+        <v>564</v>
+      </c>
+      <c r="F437" t="s">
+        <v>20</v>
+      </c>
+      <c r="G437">
+        <v>80504</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C438">
+        <v>805</v>
+      </c>
+      <c r="D438" t="s">
+        <v>565</v>
+      </c>
+      <c r="E438" t="s">
+        <v>565</v>
+      </c>
+      <c r="F438" t="s">
+        <v>13</v>
+      </c>
+      <c r="G438">
+        <v>80505</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C439">
+        <v>806</v>
+      </c>
+      <c r="D439" t="s">
+        <v>566</v>
+      </c>
+      <c r="E439" t="s">
+        <v>567</v>
+      </c>
+      <c r="F439" t="s">
+        <v>34</v>
+      </c>
+      <c r="G439">
+        <v>80601</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C440">
+        <v>806</v>
+      </c>
+      <c r="D440" t="s">
+        <v>568</v>
+      </c>
+      <c r="E440" t="s">
+        <v>568</v>
+      </c>
+      <c r="F440" t="s">
+        <v>13</v>
+      </c>
+      <c r="G440">
+        <v>80602</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C441">
+        <v>806</v>
+      </c>
+      <c r="D441" t="s">
+        <v>569</v>
+      </c>
+      <c r="E441" t="s">
+        <v>569</v>
+      </c>
+      <c r="F441" t="s">
+        <v>13</v>
+      </c>
+      <c r="G441">
+        <v>80603</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C442">
+        <v>806</v>
+      </c>
+      <c r="D442" t="s">
+        <v>570</v>
+      </c>
+      <c r="E442" t="s">
+        <v>570</v>
+      </c>
+      <c r="F442" t="s">
+        <v>13</v>
+      </c>
+      <c r="G442">
+        <v>80604</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C443">
+        <v>806</v>
+      </c>
+      <c r="D443" t="s">
+        <v>571</v>
+      </c>
+      <c r="E443" t="s">
+        <v>571</v>
+      </c>
+      <c r="F443" t="s">
+        <v>13</v>
+      </c>
+      <c r="G443">
+        <v>80605</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C444">
+        <v>806</v>
+      </c>
+      <c r="D444" t="s">
+        <v>572</v>
+      </c>
+      <c r="E444" t="s">
+        <v>572</v>
+      </c>
+      <c r="F444" t="s">
+        <v>13</v>
+      </c>
+      <c r="G444">
+        <v>80606</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C445">
+        <v>806</v>
+      </c>
+      <c r="D445" t="s">
+        <v>573</v>
+      </c>
+      <c r="E445" t="s">
+        <v>574</v>
+      </c>
+      <c r="F445" t="s">
+        <v>39</v>
+      </c>
+      <c r="G445">
+        <v>80607</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C420">
+      <c r="C446">
         <v>807</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D446" t="s">
+        <v>576</v>
+      </c>
+      <c r="E446" t="s">
+        <v>576</v>
+      </c>
+      <c r="F446" t="s">
+        <v>13</v>
+      </c>
+      <c r="G446">
+        <v>80236</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C447">
+        <v>807</v>
+      </c>
+      <c r="D447" t="s">
+        <v>577</v>
+      </c>
+      <c r="E447" t="s">
+        <v>577</v>
+      </c>
+      <c r="F447" t="s">
+        <v>13</v>
+      </c>
+      <c r="G447">
+        <v>80702</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C448">
+        <v>807</v>
+      </c>
+      <c r="D448" t="s">
+        <v>578</v>
+      </c>
+      <c r="E448" t="s">
+        <v>578</v>
+      </c>
+      <c r="F448" t="s">
+        <v>13</v>
+      </c>
+      <c r="G448">
+        <v>80703</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C449">
+        <v>807</v>
+      </c>
+      <c r="D449" t="s">
+        <v>579</v>
+      </c>
+      <c r="E449" t="s">
+        <v>580</v>
+      </c>
+      <c r="F449" t="s">
+        <v>39</v>
+      </c>
+      <c r="G449">
+        <v>80704</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C450">
+        <v>807</v>
+      </c>
+      <c r="D450" t="s">
         <v>581</v>
       </c>
-      <c r="E420" t="s">
+      <c r="E450" t="s">
         <v>581</v>
       </c>
-      <c r="F420" t="s">
-        <v>13</v>
-      </c>
-      <c r="G420">
+      <c r="F450" t="s">
+        <v>13</v>
+      </c>
+      <c r="G450">
         <v>80705</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C451">
+        <v>105</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G451" s="3">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C452">
+        <v>105</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G452" s="3">
+        <v>10502</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C453">
+        <v>105</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G453" s="3">
+        <v>10503</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C454">
+        <v>105</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G454" s="3">
+        <v>10504</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C455">
+        <v>105</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G455" s="3">
+        <v>10505</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C456">
+        <v>105</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G456" s="3">
+        <v>10506</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C457">
+        <v>105</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G457" s="3">
+        <v>10507</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C458">
+        <v>105</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G458" s="3">
+        <v>10508</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C459">
+        <v>105</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G459" s="3">
+        <v>10509</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C460">
+        <v>105</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G460" s="3">
+        <v>10510</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C461">
+        <v>105</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G461" s="3">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C462">
+        <v>105</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G462" s="3">
+        <v>10512</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C463">
+        <v>105</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G463" s="3">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C464">
+        <v>105</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G464" s="3">
+        <v>10514</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C465">
+        <v>105</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G465" s="3">
+        <v>10515</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C466">
+        <v>105</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G466" s="3">
+        <v>10516</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C467">
+        <v>105</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G467" s="3">
+        <v>10517</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C468">
+        <v>105</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G468" s="3">
+        <v>10518</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C469">
+        <v>105</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G469" s="3">
+        <v>10519</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C470">
+        <v>105</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G470" s="3">
+        <v>10520</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C471">
+        <v>105</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G471" s="3">
+        <v>10521</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C472">
+        <v>105</v>
+      </c>
+      <c r="D472" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G472" s="3">
+        <v>10522</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C473">
+        <v>105</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G473" s="3">
+        <v>10523</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C474">
+        <v>105</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G474" s="3">
+        <v>10524</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C475">
+        <v>105</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G475" s="3">
+        <v>23601</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C476">
+        <v>105</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G476" s="3">
+        <v>23602</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C477">
+        <v>105</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G477" s="3">
+        <v>23603</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C478">
+        <v>105</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G478" s="3">
+        <v>23604</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C479">
+        <v>105</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G479" s="3">
+        <v>23605</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C480">
+        <v>105</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G480" s="3">
+        <v>23606</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C481">
+        <v>105</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G481" s="3">
+        <v>23607</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C482">
+        <v>105</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G482" s="3">
+        <v>23608</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C483">
+        <v>105</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G483" s="3">
+        <v>23609</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C484">
+        <v>105</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G484" s="3">
+        <v>23610</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C485">
+        <v>105</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G485" s="3">
+        <v>23611</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C486">
+        <v>105</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G486" s="3">
+        <v>23612</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C487">
+        <v>105</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G487" s="3">
+        <v>23613</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C488">
+        <v>105</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G488" s="3">
+        <v>23614</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C489">
+        <v>105</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G489" s="3">
+        <v>23615</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="A490" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C490">
+        <v>105</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G490" s="3">
+        <v>23616</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
+      <c r="A491" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C491">
+        <v>105</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G491" s="3">
+        <v>23617</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C492">
+        <v>105</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G492" s="3">
+        <v>23618</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
+      <c r="A493" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C493">
+        <v>105</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G493" s="3">
+        <v>23619</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C494">
+        <v>105</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G494" s="3">
+        <v>23620</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
+      <c r="A495" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C495">
+        <v>105</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G495" s="3">
+        <v>23621</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H379" xr:uid="{AD761CD6-8CBE-EF42-BAD8-57F8629122E3}"/>
-  <sortState ref="A2:H420">
-    <sortCondition ref="G408"/>
+  <sortState ref="A2:H474">
+    <sortCondition ref="G430"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD78B8A-066E-3446-819C-C1C8C1E25B0F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B08BF4-0737-484A-93C1-1673607A41A3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5200" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="825">
   <si>
     <t>prefecture_han</t>
   </si>
@@ -2846,6 +2846,105 @@
     </r>
     <rPh sb="0" eb="3">
       <t>tai'yuan'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>成乐县</t>
+  </si>
+  <si>
+    <t>桐过县</t>
+  </si>
+  <si>
+    <t>椅桐县</t>
+  </si>
+  <si>
+    <t>都武县</t>
+  </si>
+  <si>
+    <t>通德县</t>
+  </si>
+  <si>
+    <t>武进县</t>
+  </si>
+  <si>
+    <t>伐蛮县</t>
+  </si>
+  <si>
+    <t>襄阴县</t>
+  </si>
+  <si>
+    <t>武皋县</t>
+  </si>
+  <si>
+    <t>永武县</t>
+  </si>
+  <si>
+    <t>骆县</t>
+  </si>
+  <si>
+    <t>遮要县</t>
+  </si>
+  <si>
+    <t>迎符县</t>
+  </si>
+  <si>
+    <t>桓就县</t>
+  </si>
+  <si>
+    <t>武要县</t>
+  </si>
+  <si>
+    <t>厌胡县</t>
+  </si>
+  <si>
+    <t>定襄县</t>
+  </si>
+  <si>
+    <t>著武县</t>
+  </si>
+  <si>
+    <t>复陆县</t>
+  </si>
+  <si>
+    <t>闻武县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定襄郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ding'xiang'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得降郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>安陶县</t>
+    <rPh sb="0" eb="1">
+      <t>an</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3847,10 +3946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K495"/>
+  <dimension ref="A1:K507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="G373" sqref="G373"/>
+    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="D503" sqref="D503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15245,6 +15344,282 @@
       </c>
       <c r="G495" s="3">
         <v>23621</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
+      <c r="A496" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C496">
+        <v>702</v>
+      </c>
+      <c r="D496" t="s">
+        <v>802</v>
+      </c>
+      <c r="E496" t="s">
+        <v>802</v>
+      </c>
+      <c r="F496" t="s">
+        <v>13</v>
+      </c>
+      <c r="G496">
+        <v>70201</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
+      <c r="A497" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C497">
+        <v>702</v>
+      </c>
+      <c r="D497" t="s">
+        <v>803</v>
+      </c>
+      <c r="E497" t="s">
+        <v>804</v>
+      </c>
+      <c r="F497" t="s">
+        <v>20</v>
+      </c>
+      <c r="G497">
+        <v>70202</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
+      <c r="A498" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C498">
+        <v>702</v>
+      </c>
+      <c r="D498" t="s">
+        <v>805</v>
+      </c>
+      <c r="E498" t="s">
+        <v>806</v>
+      </c>
+      <c r="F498" t="s">
+        <v>30</v>
+      </c>
+      <c r="G498">
+        <v>70203</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="A499" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C499">
+        <v>702</v>
+      </c>
+      <c r="D499" t="s">
+        <v>807</v>
+      </c>
+      <c r="E499" t="s">
+        <v>808</v>
+      </c>
+      <c r="F499" t="s">
+        <v>27</v>
+      </c>
+      <c r="G499">
+        <v>70204</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
+      <c r="A500" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C500">
+        <v>702</v>
+      </c>
+      <c r="D500" t="s">
+        <v>809</v>
+      </c>
+      <c r="E500" t="s">
+        <v>809</v>
+      </c>
+      <c r="F500" t="s">
+        <v>13</v>
+      </c>
+      <c r="G500">
+        <v>70205</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
+      <c r="A501" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C501">
+        <v>702</v>
+      </c>
+      <c r="D501" t="s">
+        <v>810</v>
+      </c>
+      <c r="E501" t="s">
+        <v>811</v>
+      </c>
+      <c r="F501" t="s">
+        <v>27</v>
+      </c>
+      <c r="G501">
+        <v>70206</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
+      <c r="A502" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C502">
+        <v>702</v>
+      </c>
+      <c r="D502" t="s">
+        <v>812</v>
+      </c>
+      <c r="E502" t="s">
+        <v>813</v>
+      </c>
+      <c r="F502" t="s">
+        <v>34</v>
+      </c>
+      <c r="G502">
+        <v>70207</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="A503" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C503">
+        <v>702</v>
+      </c>
+      <c r="D503" t="s">
+        <v>824</v>
+      </c>
+      <c r="E503" t="s">
+        <v>814</v>
+      </c>
+      <c r="F503" t="s">
+        <v>30</v>
+      </c>
+      <c r="G503">
+        <v>70208</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7">
+      <c r="A504" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C504">
+        <v>702</v>
+      </c>
+      <c r="D504" t="s">
+        <v>61</v>
+      </c>
+      <c r="E504" t="s">
+        <v>815</v>
+      </c>
+      <c r="F504" t="s">
+        <v>184</v>
+      </c>
+      <c r="G504">
+        <v>70209</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
+      <c r="A505" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C505">
+        <v>702</v>
+      </c>
+      <c r="D505" t="s">
+        <v>816</v>
+      </c>
+      <c r="E505" t="s">
+        <v>817</v>
+      </c>
+      <c r="F505" t="s">
+        <v>27</v>
+      </c>
+      <c r="G505">
+        <v>70210</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
+      <c r="A506" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C506">
+        <v>702</v>
+      </c>
+      <c r="D506" t="s">
+        <v>818</v>
+      </c>
+      <c r="E506" t="s">
+        <v>819</v>
+      </c>
+      <c r="F506" t="s">
+        <v>27</v>
+      </c>
+      <c r="G506">
+        <v>70211</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="A507" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C507">
+        <v>702</v>
+      </c>
+      <c r="D507" t="s">
+        <v>820</v>
+      </c>
+      <c r="E507" t="s">
+        <v>821</v>
+      </c>
+      <c r="F507" t="s">
+        <v>27</v>
+      </c>
+      <c r="G507">
+        <v>70212</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B08BF4-0737-484A-93C1-1673607A41A3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FDA22A-DB7C-5640-BCD9-7512CF82CC5E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5200" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="883">
   <si>
     <t>prefecture_han</t>
   </si>
@@ -2945,6 +2945,227 @@
     <t>安陶县</t>
     <rPh sb="0" eb="1">
       <t>an</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃阳县</t>
+  </si>
+  <si>
+    <t>敬阳县</t>
+  </si>
+  <si>
+    <t>𣷪陶县</t>
+  </si>
+  <si>
+    <t>疆阴县</t>
+    <rPh sb="0" eb="1">
+      <t>c</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏阴县</t>
+  </si>
+  <si>
+    <t>善无县</t>
+  </si>
+  <si>
+    <t>阴馆县</t>
+  </si>
+  <si>
+    <t>繁畤县</t>
+  </si>
+  <si>
+    <t>当要县</t>
+  </si>
+  <si>
+    <t>中陵县</t>
+  </si>
+  <si>
+    <t>遮害县</t>
+  </si>
+  <si>
+    <t>富代县</t>
+  </si>
+  <si>
+    <t>楼烦县</t>
+  </si>
+  <si>
+    <t>武州县</t>
+  </si>
+  <si>
+    <t>桓州县</t>
+  </si>
+  <si>
+    <t>剧阳县</t>
+  </si>
+  <si>
+    <t>善阳县</t>
+  </si>
+  <si>
+    <t>崞县</t>
+  </si>
+  <si>
+    <t>崞张县</t>
+  </si>
+  <si>
+    <t>平城县</t>
+  </si>
+  <si>
+    <t>平顺县</t>
+  </si>
+  <si>
+    <t>埒县</t>
+  </si>
+  <si>
+    <t>填狄亭县</t>
+  </si>
+  <si>
+    <t>马邑县</t>
+  </si>
+  <si>
+    <t>章昭县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雁门郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>yan'men'jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填狄郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>tian'yi'jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑乾县</t>
+  </si>
+  <si>
+    <t>安德县</t>
+  </si>
+  <si>
+    <t>道人县</t>
+  </si>
+  <si>
+    <t>道仁县</t>
+  </si>
+  <si>
+    <t>当城县</t>
+  </si>
+  <si>
+    <t>高柳县</t>
+  </si>
+  <si>
+    <t>马城县</t>
+  </si>
+  <si>
+    <t>班氏县</t>
+  </si>
+  <si>
+    <t>班副县</t>
+  </si>
+  <si>
+    <t>延陵县</t>
+  </si>
+  <si>
+    <t>狋氏县</t>
+  </si>
+  <si>
+    <t>狋聚县</t>
+  </si>
+  <si>
+    <t>聚</t>
+  </si>
+  <si>
+    <t>且如县</t>
+  </si>
+  <si>
+    <t>平邑</t>
+  </si>
+  <si>
+    <t>平胡县</t>
+  </si>
+  <si>
+    <t>阳原县</t>
+  </si>
+  <si>
+    <t>东安阳县</t>
+  </si>
+  <si>
+    <t>竟安县</t>
+  </si>
+  <si>
+    <t>参合县</t>
+  </si>
+  <si>
+    <t>平舒县</t>
+  </si>
+  <si>
+    <t>平葆县</t>
+  </si>
+  <si>
+    <t>代县</t>
+  </si>
+  <si>
+    <t>厌狄亭县</t>
+  </si>
+  <si>
+    <t>灵丘县</t>
+  </si>
+  <si>
+    <t>广昌县</t>
+  </si>
+  <si>
+    <t>广屏县</t>
+  </si>
+  <si>
+    <t>卤城县</t>
+  </si>
+  <si>
+    <t>鲁盾县</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>厌狄郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3578,7 +3799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3591,6 +3812,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3946,10 +4170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K507"/>
+  <dimension ref="A1:K539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="D503" sqref="D503"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:B539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15369,7 +15593,7 @@
         <v>70201</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:8">
       <c r="A497" s="1" t="s">
         <v>822</v>
       </c>
@@ -15392,7 +15616,7 @@
         <v>70202</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:8">
       <c r="A498" s="1" t="s">
         <v>822</v>
       </c>
@@ -15415,7 +15639,7 @@
         <v>70203</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:8">
       <c r="A499" s="1" t="s">
         <v>822</v>
       </c>
@@ -15438,7 +15662,7 @@
         <v>70204</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:8">
       <c r="A500" s="1" t="s">
         <v>822</v>
       </c>
@@ -15461,7 +15685,7 @@
         <v>70205</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:8">
       <c r="A501" s="1" t="s">
         <v>822</v>
       </c>
@@ -15484,7 +15708,7 @@
         <v>70206</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:8">
       <c r="A502" s="1" t="s">
         <v>822</v>
       </c>
@@ -15507,7 +15731,7 @@
         <v>70207</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:8">
       <c r="A503" s="1" t="s">
         <v>822</v>
       </c>
@@ -15530,7 +15754,7 @@
         <v>70208</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:8">
       <c r="A504" s="1" t="s">
         <v>822</v>
       </c>
@@ -15553,7 +15777,7 @@
         <v>70209</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:8">
       <c r="A505" s="1" t="s">
         <v>822</v>
       </c>
@@ -15576,7 +15800,7 @@
         <v>70210</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:8">
       <c r="A506" s="1" t="s">
         <v>822</v>
       </c>
@@ -15599,7 +15823,7 @@
         <v>70211</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:8">
       <c r="A507" s="1" t="s">
         <v>822</v>
       </c>
@@ -15620,6 +15844,756 @@
       </c>
       <c r="G507">
         <v>70212</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="A508" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C508">
+        <v>703</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G508" s="3">
+        <v>70302</v>
+      </c>
+      <c r="H508" s="2"/>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="A509" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C509">
+        <v>703</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G509" s="3">
+        <v>70308</v>
+      </c>
+      <c r="H509" s="2"/>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C510">
+        <v>703</v>
+      </c>
+      <c r="D510" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G510" s="3">
+        <v>70314</v>
+      </c>
+      <c r="H510" s="2"/>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C511">
+        <v>703</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G511" s="3">
+        <v>70301</v>
+      </c>
+      <c r="H511" s="2"/>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C512">
+        <v>703</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G512" s="3">
+        <v>70303</v>
+      </c>
+      <c r="H512" s="2"/>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C513">
+        <v>703</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G513" s="3">
+        <v>70304</v>
+      </c>
+      <c r="H513" s="2"/>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C514">
+        <v>703</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G514" s="3">
+        <v>70305</v>
+      </c>
+      <c r="H514" s="2"/>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C515">
+        <v>703</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G515" s="3">
+        <v>70306</v>
+      </c>
+      <c r="H515" s="2"/>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C516">
+        <v>703</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G516" s="3">
+        <v>70307</v>
+      </c>
+      <c r="H516" s="2"/>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="A517" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C517">
+        <v>703</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G517" s="3">
+        <v>70309</v>
+      </c>
+      <c r="H517" s="2"/>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C518">
+        <v>703</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G518" s="3">
+        <v>70310</v>
+      </c>
+      <c r="H518" s="2"/>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C519">
+        <v>703</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G519" s="3">
+        <v>70311</v>
+      </c>
+      <c r="H519" s="2"/>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="A520" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C520">
+        <v>703</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G520" s="3">
+        <v>70312</v>
+      </c>
+      <c r="H520" s="2"/>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C521">
+        <v>703</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G521" s="3">
+        <v>70313</v>
+      </c>
+      <c r="H521" s="2"/>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C522">
+        <v>704</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G522" s="3">
+        <v>70401</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C523">
+        <v>704</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G523" s="3">
+        <v>70402</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C524">
+        <v>704</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G524" s="3">
+        <v>70403</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C525">
+        <v>704</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G525" s="3">
+        <v>70404</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C526">
+        <v>704</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G526" s="3">
+        <v>70405</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C527">
+        <v>704</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G527" s="3">
+        <v>70406</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C528">
+        <v>704</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G528" s="3">
+        <v>70407</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C529">
+        <v>704</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="G529" s="3">
+        <v>70408</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C530">
+        <v>704</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G530" s="3">
+        <v>70409</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C531">
+        <v>704</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G531" s="3">
+        <v>70410</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C532">
+        <v>704</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G532" s="3">
+        <v>70411</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C533">
+        <v>704</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G533" s="3">
+        <v>70412</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C534">
+        <v>704</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G534" s="3">
+        <v>70413</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C535">
+        <v>704</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G535" s="3">
+        <v>70414</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C536">
+        <v>704</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G536" s="3">
+        <v>70415</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C537">
+        <v>704</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G537" s="3">
+        <v>70416</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C538">
+        <v>704</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G538" s="3">
+        <v>70417</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C539">
+        <v>704</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G539" s="3">
+        <v>70418</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670D18E-7CB3-0B4C-9D55-18E7CACFAA17}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A59E19D-9851-BF45-A19E-A4FAA83DE6B4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1740" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$A$1:$H$379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$D$1:$D$653</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1058">
   <si>
     <t>京兆尹</t>
   </si>
@@ -3719,7 +3719,7 @@
   </si>
   <si>
     <t>新成郡</t>
-    <rPh sb="0" eb="19">
+    <rPh sb="0" eb="3">
       <t>xin'cheng'jun</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -3789,6 +3789,13 @@
     <t>受降郡</t>
     <rPh sb="0" eb="1">
       <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>骐侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'guo</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4779,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="G645" sqref="G645"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6889,7 +6896,7 @@
         <v>105</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>725</v>
+        <v>1057</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>725</v>
@@ -19796,8 +19803,9 @@
       <c r="H652" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D653" xr:uid="{AFB86854-3CEE-CC4A-8C4A-BF1C7C1907B3}"/>
   <sortState ref="A1:G652">
-    <sortCondition ref="G645"/>
+    <sortCondition ref="G96"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB9A0B-7ED2-644C-9A34-F51400ED218A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8CCBA0-73CD-FD48-9951-5A727949364A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="1220" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
@@ -4537,7 +4537,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>乐昌侯国</t>
+    <t>乐昌县</t>
     <rPh sb="0" eb="2">
       <t>hou'guo</t>
     </rPh>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9A69B22E-126C-3F48-87E7-EA27C4C30FDC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6BD6C59B-B577-6640-B44F-E91AE2AE8A3D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4917" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4977" uniqueCount="1616">
   <si>
     <t>京兆尹</t>
   </si>
@@ -5648,6 +5648,58 @@
     <rPh sb="0" eb="1">
       <t>jun</t>
     </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒县</t>
+  </si>
+  <si>
+    <t>昆乡县</t>
+  </si>
+  <si>
+    <t>居巢县</t>
+  </si>
+  <si>
+    <t>龙舒县</t>
+  </si>
+  <si>
+    <t>临湖县</t>
+  </si>
+  <si>
+    <t>雩娄县</t>
+  </si>
+  <si>
+    <t>襄安县</t>
+  </si>
+  <si>
+    <t>庐江亭县</t>
+  </si>
+  <si>
+    <t>枞阳县</t>
+  </si>
+  <si>
+    <t>寻阳县</t>
+  </si>
+  <si>
+    <t>灊县</t>
+  </si>
+  <si>
+    <t>皖县</t>
+  </si>
+  <si>
+    <t>湖陵邑</t>
+  </si>
+  <si>
+    <t>松兹侯国</t>
+  </si>
+  <si>
+    <t>诵善县</t>
+  </si>
+  <si>
+    <t>庐江郡</t>
+  </si>
+  <si>
+    <t>湖陵邑</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6638,10 +6690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K978"/>
+  <dimension ref="A1:K990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
-      <selection activeCell="A961" sqref="A961:B978"/>
+    <sheetView tabSelected="1" topLeftCell="A961" workbookViewId="0">
+      <selection activeCell="E989" sqref="E989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29647,6 +29699,282 @@
       </c>
       <c r="G978">
         <v>30818</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7">
+      <c r="A979" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B979" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C979" s="3">
+        <v>304</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E979" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F979" t="s">
+        <v>171</v>
+      </c>
+      <c r="G979">
+        <v>30401</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7">
+      <c r="A980" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B980" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C980" s="3">
+        <v>304</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E980" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F980" t="s">
+        <v>5</v>
+      </c>
+      <c r="G980">
+        <v>30402</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7">
+      <c r="A981" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B981" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C981" s="3">
+        <v>304</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E981" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F981" t="s">
+        <v>5</v>
+      </c>
+      <c r="G981">
+        <v>30403</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7">
+      <c r="A982" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B982" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C982" s="3">
+        <v>304</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E982" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F982" t="s">
+        <v>5</v>
+      </c>
+      <c r="G982">
+        <v>30404</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7">
+      <c r="A983" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B983" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C983" s="3">
+        <v>304</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E983" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F983" t="s">
+        <v>5</v>
+      </c>
+      <c r="G983">
+        <v>30405</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7">
+      <c r="A984" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B984" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C984" s="3">
+        <v>304</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E984" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F984" t="s">
+        <v>31</v>
+      </c>
+      <c r="G984">
+        <v>30406</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="A985" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B985" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C985" s="3">
+        <v>304</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E985" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F985" t="s">
+        <v>5</v>
+      </c>
+      <c r="G985">
+        <v>30407</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B986" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C986" s="3">
+        <v>304</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E986" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F986" t="s">
+        <v>5</v>
+      </c>
+      <c r="G986">
+        <v>30408</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B987" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C987" s="3">
+        <v>304</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E987" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F987" t="s">
+        <v>5</v>
+      </c>
+      <c r="G987">
+        <v>30409</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B988" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C988" s="3">
+        <v>304</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E988" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F988" t="s">
+        <v>5</v>
+      </c>
+      <c r="G988">
+        <v>30410</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B989" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C989" s="3">
+        <v>304</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F989" t="s">
+        <v>5</v>
+      </c>
+      <c r="G989">
+        <v>30411</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="A990" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B990" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C990" s="3">
+        <v>304</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E990" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F990" t="s">
+        <v>22</v>
+      </c>
+      <c r="G990">
+        <v>30412</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{9D5DEE51-E1B6-104D-9569-FD95521CA107}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3D7CB7CF-7BD3-B448-9CA9-A76DE20DC128}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="840" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$A$1:$I$1028</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$A$1:$I$1109</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5357" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5662" uniqueCount="1856">
   <si>
     <t>京兆尹</t>
   </si>
@@ -5249,7 +5249,7 @@
   </si>
   <si>
     <t>改属琅琊</t>
-    <rPh sb="0" eb="53">
+    <rPh sb="0" eb="4">
       <t>gai'shu</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -5270,7 +5270,7 @@
   </si>
   <si>
     <t>改属泰山</t>
-    <rPh sb="0" eb="64">
+    <rPh sb="0" eb="4">
       <t>gai'shu'tai'shan</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -6225,6 +6225,369 @@
   </si>
   <si>
     <t>杜乡县</t>
+  </si>
+  <si>
+    <t>沟搜郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>朔方郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>三封县</t>
+  </si>
+  <si>
+    <t>朔方县</t>
+  </si>
+  <si>
+    <t>武符县</t>
+  </si>
+  <si>
+    <t>修都县</t>
+  </si>
+  <si>
+    <t>临河县</t>
+  </si>
+  <si>
+    <t>监河县</t>
+  </si>
+  <si>
+    <t>呼遒县</t>
+  </si>
+  <si>
+    <t>窳浑县</t>
+  </si>
+  <si>
+    <t>极武县</t>
+  </si>
+  <si>
+    <t>渠搜县</t>
+  </si>
+  <si>
+    <t>沟搜县</t>
+  </si>
+  <si>
+    <t>沃野县</t>
+  </si>
+  <si>
+    <t>绥武县</t>
+  </si>
+  <si>
+    <t>广牧县</t>
+  </si>
+  <si>
+    <t>临戎县</t>
+  </si>
+  <si>
+    <t>推武县</t>
+  </si>
+  <si>
+    <t>高密县</t>
+  </si>
+  <si>
+    <t>章牟县</t>
+  </si>
+  <si>
+    <t>昌安县</t>
+  </si>
+  <si>
+    <t>石泉县</t>
+  </si>
+  <si>
+    <t>养信县</t>
+  </si>
+  <si>
+    <t>夷安县</t>
+  </si>
+  <si>
+    <t>原亭县</t>
+  </si>
+  <si>
+    <t>顺成县</t>
+  </si>
+  <si>
+    <t>高密国</t>
+    <rPh sb="0" eb="3">
+      <t>gao'mi'guo</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密郡</t>
+    <rPh sb="0" eb="2">
+      <t>gao'mi</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>即墨县</t>
+  </si>
+  <si>
+    <t>即善县</t>
+  </si>
+  <si>
+    <t>昌武县</t>
+  </si>
+  <si>
+    <t>下密县</t>
+  </si>
+  <si>
+    <t>壮武县</t>
+  </si>
+  <si>
+    <t>晓武县</t>
+  </si>
+  <si>
+    <t>郁秩县</t>
+  </si>
+  <si>
+    <t>挺县</t>
+  </si>
+  <si>
+    <t>观阳县</t>
+  </si>
+  <si>
+    <t>邹卢县</t>
+  </si>
+  <si>
+    <t>始斯县</t>
+  </si>
+  <si>
+    <t>胶东国</t>
+    <rPh sb="0" eb="3">
+      <t>jiao'dong'guo</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁秩郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鹿郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鹿县</t>
+  </si>
+  <si>
+    <t>南县</t>
+  </si>
+  <si>
+    <t>广阿县</t>
+  </si>
+  <si>
+    <t>象氏侯国</t>
+  </si>
+  <si>
+    <t>宁昌县</t>
+  </si>
+  <si>
+    <t>廮陶县</t>
+  </si>
+  <si>
+    <t>宋子县</t>
+  </si>
+  <si>
+    <t>宜子县</t>
+  </si>
+  <si>
+    <t>杨氏县</t>
+  </si>
+  <si>
+    <t>功陆县</t>
+  </si>
+  <si>
+    <t>临平县</t>
+  </si>
+  <si>
+    <t>贳县</t>
+  </si>
+  <si>
+    <t>郻县</t>
+  </si>
+  <si>
+    <t>秦聚县</t>
+  </si>
+  <si>
+    <t>新市侯国</t>
+  </si>
+  <si>
+    <t>市乐县</t>
+  </si>
+  <si>
+    <t>堂阳县</t>
+  </si>
+  <si>
+    <t>安定侯国</t>
+  </si>
+  <si>
+    <t>敬武县</t>
+  </si>
+  <si>
+    <t>历乡侯国</t>
+  </si>
+  <si>
+    <t>历聚县</t>
+  </si>
+  <si>
+    <t>乐信侯国</t>
+  </si>
+  <si>
+    <t>乐信县</t>
+  </si>
+  <si>
+    <t>武陶侯国</t>
+  </si>
+  <si>
+    <t>武陶县</t>
+  </si>
+  <si>
+    <t>柏乡侯国</t>
+  </si>
+  <si>
+    <t>柏乡县</t>
+  </si>
+  <si>
+    <t>安乡侯国</t>
+  </si>
+  <si>
+    <t>安乡县</t>
+  </si>
+  <si>
+    <t>和戎郡</t>
+    <rPh sb="0" eb="40">
+      <t>ju'lu'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下曲阳县</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>常山郡</t>
+    <rPh sb="0" eb="2">
+      <t>chang'shan</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>井关郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>元氏县</t>
+  </si>
+  <si>
+    <t>井关亭县</t>
+  </si>
+  <si>
+    <t>石邑</t>
+  </si>
+  <si>
+    <t>桑中侯国</t>
+  </si>
+  <si>
+    <t>桑中县</t>
+  </si>
+  <si>
+    <t>灵寿县</t>
+  </si>
+  <si>
+    <t>蒲吾县</t>
+  </si>
+  <si>
+    <t>上曲阳县</t>
+  </si>
+  <si>
+    <t>常山亭县</t>
+  </si>
+  <si>
+    <t>九门县</t>
+  </si>
+  <si>
+    <t>久门县</t>
+  </si>
+  <si>
+    <t>井陉县</t>
+  </si>
+  <si>
+    <t>房子县</t>
+  </si>
+  <si>
+    <t>多子县</t>
+  </si>
+  <si>
+    <t>中丘县</t>
+  </si>
+  <si>
+    <t>直聚县</t>
+  </si>
+  <si>
+    <t>封斯侯国</t>
+  </si>
+  <si>
+    <t>封斯县</t>
+  </si>
+  <si>
+    <t>关县</t>
+  </si>
+  <si>
+    <t>平棘县</t>
+  </si>
+  <si>
+    <t>鄗县</t>
+  </si>
+  <si>
+    <t>禾成亭县</t>
+  </si>
+  <si>
+    <t>乐阳侯国</t>
+  </si>
+  <si>
+    <t>畅苗县</t>
+  </si>
+  <si>
+    <t>平台侯国</t>
+  </si>
+  <si>
+    <t>顺台县</t>
+  </si>
+  <si>
+    <t>都乡侯国</t>
+  </si>
+  <si>
+    <t>分乡县</t>
+  </si>
+  <si>
+    <t>南行唐县</t>
+  </si>
+  <si>
+    <t>延亿县</t>
+  </si>
+  <si>
+    <t>石邑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7214,10 +7577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1066"/>
+  <dimension ref="A1:K1127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1041" workbookViewId="0">
-      <selection activeCell="A1063" sqref="A1063:B1066"/>
+    <sheetView tabSelected="1" topLeftCell="A1099" workbookViewId="0">
+      <selection activeCell="F1112" sqref="F1112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32249,8 +32612,1411 @@
         <v>30304</v>
       </c>
     </row>
+    <row r="1067" spans="1:7">
+      <c r="A1067" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1067" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1067" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1067">
+        <v>70801</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7">
+      <c r="A1068" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1068" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1068" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1068">
+        <v>70802</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7">
+      <c r="A1069" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1069" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1069" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1069">
+        <v>70803</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7">
+      <c r="A1070" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1070" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1070" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1070">
+        <v>70804</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7">
+      <c r="A1071" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1071" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1071" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1071">
+        <v>70805</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7">
+      <c r="A1072" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1072" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1072" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1072">
+        <v>70806</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7">
+      <c r="A1073" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1073" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1073" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1073">
+        <v>70807</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7">
+      <c r="A1074" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1074" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1074" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1074">
+        <v>70808</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7">
+      <c r="A1075" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1075" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1075" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>996</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1075">
+        <v>70809</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7">
+      <c r="A1076" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1076" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1076" s="3">
+        <v>708</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1076">
+        <v>70810</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7">
+      <c r="A1077" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1077" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1077" s="3">
+        <v>232</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1077">
+        <v>23201</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7">
+      <c r="A1078" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1078" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1078" s="3">
+        <v>232</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1078">
+        <v>23202</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7">
+      <c r="A1079" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1079" s="3">
+        <v>232</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1079">
+        <v>23203</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7">
+      <c r="A1080" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1080" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1080" s="3">
+        <v>232</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1080">
+        <v>23204</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7">
+      <c r="A1081" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1081" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1081" s="3">
+        <v>232</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1081">
+        <v>23205</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7">
+      <c r="A1082" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1082" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1082" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1082">
+        <v>23101</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7">
+      <c r="A1083" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1083" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1083" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1083">
+        <v>23102</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7">
+      <c r="A1084" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1084" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1084" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1084">
+        <v>23103</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7">
+      <c r="A1085" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1085" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1085" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1085">
+        <v>23104</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7">
+      <c r="A1086" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1086" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1086" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1086">
+        <v>23105</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7">
+      <c r="A1087" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1087" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1087" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1087">
+        <v>23106</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7">
+      <c r="A1088" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1088" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1088" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1088">
+        <v>23107</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7">
+      <c r="A1089" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1089" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1089" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1089">
+        <v>23108</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7">
+      <c r="A1090" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1090" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1090" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1090">
+        <v>20701</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7">
+      <c r="A1091" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1091" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1091" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1091">
+        <v>20702</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7">
+      <c r="A1092" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1092" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1092" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1092">
+        <v>20703</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7">
+      <c r="A1093" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1093" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1093" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1093">
+        <v>20704</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7">
+      <c r="A1094" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1094" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1094">
+        <v>20705</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7">
+      <c r="A1095" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1095" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1095" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1095">
+        <v>20706</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7">
+      <c r="A1096" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1096" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1096" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1096">
+        <v>20707</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7">
+      <c r="A1097" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1097" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1097" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1097">
+        <v>20708</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7">
+      <c r="A1098" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1098" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1098" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1098">
+        <v>20709</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7">
+      <c r="A1099" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1099" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1099">
+        <v>20710</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7">
+      <c r="A1100" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1100" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1100">
+        <v>20711</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7">
+      <c r="A1101" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1101" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1101">
+        <v>20712</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7">
+      <c r="A1102" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1102" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1102">
+        <v>20713</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7">
+      <c r="A1103" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1103" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1103">
+        <v>20714</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7">
+      <c r="A1104" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1104" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1104" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1104">
+        <v>20715</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7">
+      <c r="A1105" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1105" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1105" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1105">
+        <v>20716</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7">
+      <c r="A1106" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1106" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1106" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1106">
+        <v>20717</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7">
+      <c r="A1107" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1107" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1107" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1107">
+        <v>20718</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7">
+      <c r="A1108" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1108" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1108" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1108">
+        <v>20719</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7">
+      <c r="A1109" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1109" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1109" s="3">
+        <v>207</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1109">
+        <v>20720</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7">
+      <c r="A1110" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1110" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1110" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1110">
+        <v>20801</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7">
+      <c r="A1111" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1111" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1111" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1111">
+        <v>20802</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7">
+      <c r="A1112" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1112" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1112" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1112">
+        <v>20803</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7">
+      <c r="A1113" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1113" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1113" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1113">
+        <v>20804</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7">
+      <c r="A1114" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1114" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1114" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1114">
+        <v>20805</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7">
+      <c r="A1115" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1115" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1115" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1115">
+        <v>20806</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7">
+      <c r="A1116" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1116" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1116" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1116">
+        <v>20807</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7">
+      <c r="A1117" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1117" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1117" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1117">
+        <v>20808</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7">
+      <c r="A1118" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1118" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1118" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1118">
+        <v>20809</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7">
+      <c r="A1119" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1119" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1119" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1119">
+        <v>20810</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7">
+      <c r="A1120" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1120" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1120" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1120">
+        <v>20811</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7">
+      <c r="A1121" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1121" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1121" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1121">
+        <v>20812</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7">
+      <c r="A1122" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1122" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1122" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1122">
+        <v>20813</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7">
+      <c r="A1123" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1123" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1123" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1123">
+        <v>20814</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7">
+      <c r="A1124" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1124" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1124" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1124">
+        <v>20815</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7">
+      <c r="A1125" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1125" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1125" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1125">
+        <v>20816</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7">
+      <c r="A1126" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1126" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1126" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1126">
+        <v>20817</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7">
+      <c r="A1127" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1127" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1127" s="3">
+        <v>208</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1127">
+        <v>20818</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I1028" xr:uid="{5EC3BED7-C0EB-6246-A346-3FB7A4805013}"/>
+  <autoFilter ref="A1:I1109" xr:uid="{5EC3BED7-C0EB-6246-A346-3FB7A4805013}"/>
   <sortState ref="A2:I1062">
     <sortCondition ref="G1056"/>
   </sortState>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3D7CB7CF-7BD3-B448-9CA9-A76DE20DC128}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA2856E-3182-2340-80EF-322989EEF2BB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5662" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="1858">
   <si>
     <t>京兆尹</t>
   </si>
@@ -6587,6 +6587,20 @@
   </si>
   <si>
     <t>石邑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平河郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>清河郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7577,10 +7591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1127"/>
+  <dimension ref="A1:K1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1099" workbookViewId="0">
-      <selection activeCell="F1112" sqref="F1112"/>
+    <sheetView tabSelected="1" topLeftCell="A1118" workbookViewId="0">
+      <selection activeCell="C1128" sqref="C1128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34013,6 +34027,17 @@
       </c>
       <c r="G1127">
         <v>20818</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7">
+      <c r="A1128" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1128" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1128" s="3">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA2856E-3182-2340-80EF-322989EEF2BB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D4CE6686-70E9-EF49-85E7-F2FDA2856878}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="1878">
   <si>
     <t>京兆尹</t>
   </si>
@@ -6469,7 +6469,7 @@
   </si>
   <si>
     <t>和戎郡</t>
-    <rPh sb="0" eb="40">
+    <rPh sb="0" eb="3">
       <t>ju'lu'j</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -6602,6 +6602,71 @@
       <t>jun</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>清阳县</t>
+  </si>
+  <si>
+    <t>东武城县</t>
+  </si>
+  <si>
+    <t>绎幕县</t>
+  </si>
+  <si>
+    <t>灵县</t>
+  </si>
+  <si>
+    <t>播县</t>
+  </si>
+  <si>
+    <t>厝县</t>
+  </si>
+  <si>
+    <t>厝治县</t>
+  </si>
+  <si>
+    <t>鄃县</t>
+  </si>
+  <si>
+    <t>善陆县</t>
+  </si>
+  <si>
+    <t>贝丘县</t>
+  </si>
+  <si>
+    <t>信成县</t>
+  </si>
+  <si>
+    <t>𢘿题县</t>
+  </si>
+  <si>
+    <t>东阳侯国</t>
+  </si>
+  <si>
+    <t>胥陵县</t>
+  </si>
+  <si>
+    <t>信乡侯国</t>
+  </si>
+  <si>
+    <t>信乡县</t>
+  </si>
+  <si>
+    <t>缭县</t>
+  </si>
+  <si>
+    <t>枣疆县</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>枣疆县</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐岁县</t>
   </si>
 </sst>
 </file>
@@ -7220,7 +7285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7236,6 +7301,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7591,10 +7657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1128"/>
+  <dimension ref="A1:K1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1118" workbookViewId="0">
-      <selection activeCell="C1128" sqref="C1128"/>
+    <sheetView tabSelected="1" topLeftCell="A1114" workbookViewId="0">
+      <selection activeCell="J1127" sqref="J1127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33868,7 +33934,7 @@
         <v>20811</v>
       </c>
     </row>
-    <row r="1121" spans="1:7">
+    <row r="1121" spans="1:8">
       <c r="A1121" s="3" t="s">
         <v>1823</v>
       </c>
@@ -33891,7 +33957,7 @@
         <v>20812</v>
       </c>
     </row>
-    <row r="1122" spans="1:7">
+    <row r="1122" spans="1:8">
       <c r="A1122" s="3" t="s">
         <v>1823</v>
       </c>
@@ -33914,7 +33980,7 @@
         <v>20813</v>
       </c>
     </row>
-    <row r="1123" spans="1:7">
+    <row r="1123" spans="1:8">
       <c r="A1123" s="3" t="s">
         <v>1823</v>
       </c>
@@ -33937,7 +34003,7 @@
         <v>20814</v>
       </c>
     </row>
-    <row r="1124" spans="1:7">
+    <row r="1124" spans="1:8">
       <c r="A1124" s="3" t="s">
         <v>1823</v>
       </c>
@@ -33960,7 +34026,7 @@
         <v>20815</v>
       </c>
     </row>
-    <row r="1125" spans="1:7">
+    <row r="1125" spans="1:8">
       <c r="A1125" s="3" t="s">
         <v>1823</v>
       </c>
@@ -33983,7 +34049,7 @@
         <v>20816</v>
       </c>
     </row>
-    <row r="1126" spans="1:7">
+    <row r="1126" spans="1:8">
       <c r="A1126" s="3" t="s">
         <v>1823</v>
       </c>
@@ -34006,7 +34072,7 @@
         <v>20817</v>
       </c>
     </row>
-    <row r="1127" spans="1:7">
+    <row r="1127" spans="1:8">
       <c r="A1127" s="3" t="s">
         <v>1823</v>
       </c>
@@ -34029,7 +34095,7 @@
         <v>20818</v>
       </c>
     </row>
-    <row r="1128" spans="1:7">
+    <row r="1128" spans="1:8">
       <c r="A1128" s="3" t="s">
         <v>1857</v>
       </c>
@@ -34039,6 +34105,362 @@
       <c r="C1128" s="3">
         <v>209</v>
       </c>
+      <c r="D1128" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E1128" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F1128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1128" s="7">
+        <v>20901</v>
+      </c>
+      <c r="H1128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8">
+      <c r="A1129" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1129" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1129" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E1129" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F1129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1129" s="7">
+        <v>20902</v>
+      </c>
+      <c r="H1129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8">
+      <c r="A1130" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1130" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1130" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E1130" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F1130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1130" s="7">
+        <v>20903</v>
+      </c>
+      <c r="H1130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8">
+      <c r="A1131" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1131" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1131" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E1131" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F1131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1131" s="7">
+        <v>20904</v>
+      </c>
+      <c r="H1131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8">
+      <c r="A1132" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1132" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E1132" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F1132" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1132" s="7">
+        <v>20905</v>
+      </c>
+      <c r="H1132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8">
+      <c r="A1133" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1133" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E1133" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F1133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1133" s="7">
+        <v>20906</v>
+      </c>
+      <c r="H1133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8">
+      <c r="A1134" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1134" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E1134" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F1134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1134" s="7">
+        <v>20907</v>
+      </c>
+      <c r="H1134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8">
+      <c r="A1135" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1135" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E1135" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F1135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1135" s="7">
+        <v>20908</v>
+      </c>
+      <c r="H1135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8">
+      <c r="A1136" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1136" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E1136" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F1136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1136" s="7">
+        <v>20909</v>
+      </c>
+      <c r="H1136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8">
+      <c r="A1137" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1137" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1137" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E1137" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F1137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1137" s="7">
+        <v>20910</v>
+      </c>
+      <c r="H1137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8">
+      <c r="A1138" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1138" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1138" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E1138" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F1138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1138" s="7">
+        <v>20911</v>
+      </c>
+      <c r="H1138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8">
+      <c r="A1139" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1139" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1139" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E1139" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F1139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1139" s="7">
+        <v>20912</v>
+      </c>
+      <c r="H1139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8">
+      <c r="A1140" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1140" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1140" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1140" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E1140" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F1140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1140" s="7">
+        <v>20913</v>
+      </c>
+      <c r="H1140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8">
+      <c r="A1141" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1141" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1141" s="3">
+        <v>209</v>
+      </c>
+      <c r="D1141" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E1141" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F1141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1141" s="7">
+        <v>20914</v>
+      </c>
+      <c r="H1141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8">
+      <c r="H1142" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1109" xr:uid="{5EC3BED7-C0EB-6246-A346-3FB7A4805013}"/>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA281D5A-3F0A-764A-BCBC-7545B762A41F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463AD0A2-9D21-684C-B125-093D22F42629}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$A$1:$I$1141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$A$1:$I$1173</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5775" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5895" uniqueCount="1936">
   <si>
     <t>京兆尹</t>
   </si>
@@ -6747,6 +6747,137 @@
     <t>改属陈留</t>
     <rPh sb="0" eb="2">
       <t>gai'shu</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁国</t>
+    <rPh sb="0" eb="2">
+      <t>lu'guo</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁郡</t>
+    <rPh sb="0" eb="1">
+      <t>lu'jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁县</t>
+  </si>
+  <si>
+    <t>卞县</t>
+  </si>
+  <si>
+    <t>汶阳县</t>
+  </si>
+  <si>
+    <t>汶亭县</t>
+  </si>
+  <si>
+    <t>蕃县</t>
+  </si>
+  <si>
+    <t>驺县</t>
+  </si>
+  <si>
+    <t>驺亭县</t>
+  </si>
+  <si>
+    <t>薛县</t>
+  </si>
+  <si>
+    <t>邺县</t>
+  </si>
+  <si>
+    <t>馆陶县</t>
+  </si>
+  <si>
+    <t>斥丘县</t>
+  </si>
+  <si>
+    <t>利丘县</t>
+  </si>
+  <si>
+    <t>沙县</t>
+  </si>
+  <si>
+    <t>内黄县</t>
+  </si>
+  <si>
+    <t>清渊县</t>
+  </si>
+  <si>
+    <t>魏城亭县</t>
+  </si>
+  <si>
+    <t>繁阳县</t>
+  </si>
+  <si>
+    <t>元城县</t>
+  </si>
+  <si>
+    <t>梁期县</t>
+  </si>
+  <si>
+    <t>黎阳县</t>
+  </si>
+  <si>
+    <t>黎蒸县</t>
+  </si>
+  <si>
+    <t>即裴侯国</t>
+  </si>
+  <si>
+    <t>即是县</t>
+  </si>
+  <si>
+    <t>武始县</t>
+  </si>
+  <si>
+    <t>邯会侯国</t>
+  </si>
+  <si>
+    <t>邯会县</t>
+  </si>
+  <si>
+    <t>阴安县</t>
+  </si>
+  <si>
+    <t>平恩侯国</t>
+  </si>
+  <si>
+    <t>邯沟侯国</t>
+  </si>
+  <si>
+    <t>邯沟县</t>
+  </si>
+  <si>
+    <t>武安县</t>
+  </si>
+  <si>
+    <t>桓安县</t>
+  </si>
+  <si>
+    <t>魏郡</t>
+    <rPh sb="0" eb="2">
+      <t>wei'jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏城郡</t>
+    <rPh sb="0" eb="2">
+      <t>wei'cheng</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏县</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
     </rPh>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -7739,10 +7870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1149"/>
+  <dimension ref="A1:K1173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1132" workbookViewId="0">
-      <selection activeCell="J1143" sqref="J1143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1167" sqref="B1167:H1172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34763,8 +34894,632 @@
       </c>
       <c r="I1149" s="1"/>
     </row>
+    <row r="1150" spans="1:9">
+      <c r="A1150" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1150" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1150" s="3">
+        <v>205</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1150">
+        <v>20501</v>
+      </c>
+      <c r="H1150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9">
+      <c r="A1151" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1151" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1151" s="3">
+        <v>205</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1151">
+        <v>20502</v>
+      </c>
+      <c r="H1151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9">
+      <c r="A1152" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1152" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1152" s="3">
+        <v>205</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1152">
+        <v>20503</v>
+      </c>
+      <c r="H1152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8">
+      <c r="A1153" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1153" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1153" s="3">
+        <v>205</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1153">
+        <v>20504</v>
+      </c>
+      <c r="H1153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8">
+      <c r="A1154" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1154" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1154" s="3">
+        <v>205</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1154">
+        <v>20505</v>
+      </c>
+      <c r="H1154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8">
+      <c r="A1155" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1155" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1155" s="3">
+        <v>205</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1155">
+        <v>20506</v>
+      </c>
+      <c r="H1155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8">
+      <c r="A1156" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1156" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1156" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1156">
+        <v>20601</v>
+      </c>
+      <c r="H1156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8">
+      <c r="A1157" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1157" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1157" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1157">
+        <v>20602</v>
+      </c>
+      <c r="H1157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8">
+      <c r="A1158" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1158" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1158" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1158">
+        <v>20603</v>
+      </c>
+      <c r="H1158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8">
+      <c r="A1159" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1159" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1159" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1159">
+        <v>20604</v>
+      </c>
+      <c r="H1159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8">
+      <c r="A1160" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1160" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1160" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1160">
+        <v>20605</v>
+      </c>
+      <c r="H1160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8">
+      <c r="A1161" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1161" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1161" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1161">
+        <v>20606</v>
+      </c>
+      <c r="H1161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" s="1" customFormat="1">
+      <c r="A1162" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1162" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1162" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E1162" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F1162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1162">
+        <v>20607</v>
+      </c>
+      <c r="H1162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8">
+      <c r="A1163" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1163" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1163" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1163">
+        <v>20608</v>
+      </c>
+      <c r="H1163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8">
+      <c r="A1164" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1164" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1164" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1164">
+        <v>20609</v>
+      </c>
+      <c r="H1164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8">
+      <c r="A1165" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1165" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1165" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1165">
+        <v>20610</v>
+      </c>
+      <c r="H1165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8">
+      <c r="A1166" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1166" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1166" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1166">
+        <v>20611</v>
+      </c>
+      <c r="H1166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8">
+      <c r="A1167" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1167" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1167" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1167">
+        <v>20612</v>
+      </c>
+      <c r="H1167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8">
+      <c r="A1168" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1168" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1168" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1168">
+        <v>20613</v>
+      </c>
+      <c r="H1168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8">
+      <c r="A1169" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1169" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1169" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1169">
+        <v>20614</v>
+      </c>
+      <c r="H1169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8">
+      <c r="A1170" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1170" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1170" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1170">
+        <v>20615</v>
+      </c>
+      <c r="H1170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8">
+      <c r="A1171" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1171" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1171" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>739</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1171">
+        <v>20616</v>
+      </c>
+      <c r="H1171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8">
+      <c r="A1172" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1172" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1172" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1172">
+        <v>20617</v>
+      </c>
+      <c r="H1172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8">
+      <c r="A1173" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1173" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1173" s="3">
+        <v>206</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1173">
+        <v>20618</v>
+      </c>
+      <c r="H1173" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I1141" xr:uid="{5EC3BED7-C0EB-6246-A346-3FB7A4805013}"/>
+  <autoFilter ref="A1:I1173" xr:uid="{5EC3BED7-C0EB-6246-A346-3FB7A4805013}"/>
   <sortState ref="A2:I1141">
     <sortCondition ref="G5"/>
   </sortState>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463AD0A2-9D21-684C-B125-093D22F42629}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13552365-E01E-0248-8973-D836AA26EC9F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5895" uniqueCount="1936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="1983">
   <si>
     <t>京兆尹</t>
   </si>
@@ -6880,6 +6880,163 @@
       <t>jun</t>
     </rPh>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>南郡</t>
+    <rPh sb="0" eb="2">
+      <t>nan'jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南顺郡</t>
+    <rPh sb="0" eb="2">
+      <t>nan'shun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵县</t>
+  </si>
+  <si>
+    <t>江陆县</t>
+  </si>
+  <si>
+    <t>临沮县</t>
+  </si>
+  <si>
+    <t>夷陵县</t>
+  </si>
+  <si>
+    <t>居利县</t>
+  </si>
+  <si>
+    <t>华容县</t>
+  </si>
+  <si>
+    <t>宜城县</t>
+  </si>
+  <si>
+    <t>郢县</t>
+  </si>
+  <si>
+    <t>郢亭县</t>
+  </si>
+  <si>
+    <t>邔县</t>
+  </si>
+  <si>
+    <t>当阳县</t>
+  </si>
+  <si>
+    <t>中庐县</t>
+  </si>
+  <si>
+    <t>枝江县</t>
+  </si>
+  <si>
+    <t>襄阳县</t>
+  </si>
+  <si>
+    <t>相阳县</t>
+  </si>
+  <si>
+    <t>编县</t>
+  </si>
+  <si>
+    <t>南顺县</t>
+  </si>
+  <si>
+    <t>秭归县</t>
+  </si>
+  <si>
+    <t>夷道县</t>
+  </si>
+  <si>
+    <t>江南县</t>
+  </si>
+  <si>
+    <t>州陵县</t>
+  </si>
+  <si>
+    <t>江夏县</t>
+  </si>
+  <si>
+    <t>若县</t>
+  </si>
+  <si>
+    <t>巫县</t>
+  </si>
+  <si>
+    <t>高成县</t>
+  </si>
+  <si>
+    <t>言程县</t>
+  </si>
+  <si>
+    <t>江夏郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏郡</t>
+    <rPh sb="0" eb="3">
+      <t>jiang'xia'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西陵县</t>
+  </si>
+  <si>
+    <t>竟陵县</t>
+  </si>
+  <si>
+    <t>守平县</t>
+  </si>
+  <si>
+    <t>襄县</t>
+  </si>
+  <si>
+    <t>襄非县</t>
+  </si>
+  <si>
+    <t>邾县</t>
+  </si>
+  <si>
+    <t>轪县</t>
+  </si>
+  <si>
+    <t>鄂县</t>
+  </si>
+  <si>
+    <t>安陆县</t>
+  </si>
+  <si>
+    <t>沙羡县</t>
+  </si>
+  <si>
+    <t>蕲春县</t>
+  </si>
+  <si>
+    <t>鄳县</t>
+  </si>
+  <si>
+    <t>云杜县</t>
+  </si>
+  <si>
+    <t>下雉县</t>
+  </si>
+  <si>
+    <t>闰光县</t>
+  </si>
+  <si>
+    <t>钟武侯国</t>
+  </si>
+  <si>
+    <t>当利县</t>
   </si>
 </sst>
 </file>
@@ -7870,10 +8027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1173"/>
+  <dimension ref="A1:K1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1167" sqref="B1167:H1172"/>
+    <sheetView tabSelected="1" topLeftCell="A1171" workbookViewId="0">
+      <selection activeCell="C1192" sqref="C1192:C1205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35516,6 +35673,742 @@
       </c>
       <c r="H1173" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8">
+      <c r="A1174" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1174" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1174" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F1174" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G1174">
+        <v>40101</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8">
+      <c r="A1175" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1175" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1175" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F1175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1175">
+        <v>40102</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8">
+      <c r="A1176" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1176" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1176" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F1176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1176">
+        <v>40103</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8">
+      <c r="A1177" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1177" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1177" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F1177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1177">
+        <v>40104</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8">
+      <c r="A1178" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1178" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1178" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F1178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1178">
+        <v>40105</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8">
+      <c r="A1179" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1179" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1179" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F1179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1179">
+        <v>40106</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8">
+      <c r="A1180" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1180" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1180" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F1180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1180">
+        <v>40107</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8">
+      <c r="A1181" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1181" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1181" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F1181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1181">
+        <v>40108</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8">
+      <c r="A1182" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1182" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1182" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F1182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1182">
+        <v>40109</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8">
+      <c r="A1183" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1183" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1183" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F1183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1183">
+        <v>40110</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8">
+      <c r="A1184" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1184" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1184" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F1184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1184">
+        <v>40111</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7">
+      <c r="A1185" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1185" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1185" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F1185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1185">
+        <v>40112</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7">
+      <c r="A1186" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1186" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1186" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F1186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1186">
+        <v>40113</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7">
+      <c r="A1187" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1187" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1187" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F1187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1187">
+        <v>40114</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7">
+      <c r="A1188" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1188" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1188" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F1188" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1188">
+        <v>40115</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7">
+      <c r="A1189" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1189" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1189" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F1189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1189">
+        <v>40116</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7">
+      <c r="A1190" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1190" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1190" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F1190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1190">
+        <v>40117</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7">
+      <c r="A1191" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1191" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1191" s="3">
+        <v>401</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1191">
+        <v>40118</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7">
+      <c r="A1192" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1192" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1192" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1192">
+        <v>40201</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7">
+      <c r="A1193" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1193" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1193" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G1193">
+        <v>40202</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7">
+      <c r="A1194" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1194" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1194" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1194">
+        <v>40203</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7">
+      <c r="A1195" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1195" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1195" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1195">
+        <v>40204</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7">
+      <c r="A1196" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1196" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1196" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1196">
+        <v>40205</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7">
+      <c r="A1197" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1197" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1197" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1197">
+        <v>40206</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7">
+      <c r="A1198" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1198" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1198" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1198">
+        <v>40207</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7">
+      <c r="A1199" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1199" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1199" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1199">
+        <v>40208</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7">
+      <c r="A1200" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1200" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1200" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1200">
+        <v>40209</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7">
+      <c r="A1201" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1201" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1201" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1201">
+        <v>40210</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7">
+      <c r="A1202" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1202" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1202" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1202">
+        <v>40211</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7">
+      <c r="A1203" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1203" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1203" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1203">
+        <v>40212</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7">
+      <c r="A1204" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1204" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1204" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1204">
+        <v>40213</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7">
+      <c r="A1205" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1205" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1205" s="3">
+        <v>402</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1205">
+        <v>40214</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13552365-E01E-0248-8973-D836AA26EC9F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9799B-9C9F-8B4F-A29F-6122A3E1F320}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="2003">
   <si>
     <t>京兆尹</t>
   </si>
@@ -7037,6 +7037,74 @@
   </si>
   <si>
     <t>当利县</t>
+  </si>
+  <si>
+    <t>桂阳郡</t>
+    <rPh sb="0" eb="3">
+      <t>gui'yang'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南平郡</t>
+    <rPh sb="0" eb="2">
+      <t>nan'ping</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郴县</t>
+  </si>
+  <si>
+    <t>宣风县</t>
+  </si>
+  <si>
+    <t>临武县</t>
+  </si>
+  <si>
+    <t>大武县</t>
+  </si>
+  <si>
+    <t>便县</t>
+  </si>
+  <si>
+    <t>便屏县</t>
+  </si>
+  <si>
+    <t>南平县</t>
+  </si>
+  <si>
+    <t>耒阳县</t>
+  </si>
+  <si>
+    <t>南平亭县</t>
+  </si>
+  <si>
+    <t>桂阳县</t>
+  </si>
+  <si>
+    <t>阳山侯国</t>
+  </si>
+  <si>
+    <t>阳山县</t>
+  </si>
+  <si>
+    <t>曲江县</t>
+  </si>
+  <si>
+    <t>除虏县</t>
+  </si>
+  <si>
+    <t>含洭县</t>
+  </si>
+  <si>
+    <t>浈阳县</t>
+  </si>
+  <si>
+    <t>基武县</t>
+  </si>
+  <si>
+    <t>阴山侯国</t>
   </si>
 </sst>
 </file>
@@ -8027,10 +8095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1205"/>
+  <dimension ref="A1:K1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1171" workbookViewId="0">
-      <selection activeCell="C1192" sqref="C1192:C1205"/>
+    <sheetView tabSelected="1" topLeftCell="A1191" workbookViewId="0">
+      <selection activeCell="D1216" sqref="D1216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36409,6 +36477,259 @@
       </c>
       <c r="G1205">
         <v>40214</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7">
+      <c r="A1206" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1206" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1206" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1206">
+        <v>40301</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7">
+      <c r="A1207" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1207" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1207" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1207">
+        <v>40302</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7">
+      <c r="A1208" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1208" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1208" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1208">
+        <v>40303</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7">
+      <c r="A1209" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1209" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1209" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1209">
+        <v>40304</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7">
+      <c r="A1210" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1210" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1210" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1210">
+        <v>40305</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7">
+      <c r="A1211" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1211" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1211" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1211">
+        <v>40306</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7">
+      <c r="A1212" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1212" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1212" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1212">
+        <v>40307</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7">
+      <c r="A1213" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1213" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1213" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1213">
+        <v>40308</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7">
+      <c r="A1214" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1214" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1214" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1214">
+        <v>40309</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7">
+      <c r="A1215" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1215" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1215" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1215">
+        <v>40310</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7">
+      <c r="A1216" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1216" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1216" s="3">
+        <v>403</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>990</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1216">
+        <v>40311</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_sample/县级区划编号.xlsx
+++ b/coordinates_sample/县级区划编号.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/coordinates_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9799B-9C9F-8B4F-A29F-6122A3E1F320}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B584A56-FBA9-064A-B4E8-09066098A4A7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7520" yWindow="920" windowWidth="24240" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="县级区划编号" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$A$1:$I$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">县级区划编号!$A$1:$I$1290</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="2003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6717" uniqueCount="2207">
   <si>
     <t>京兆尹</t>
   </si>
@@ -7106,12 +7106,732 @@
   <si>
     <t>阴山侯国</t>
   </si>
+  <si>
+    <t>索县</t>
+  </si>
+  <si>
+    <t>孱陵县</t>
+  </si>
+  <si>
+    <t>孱陆县</t>
+  </si>
+  <si>
+    <t>临沅县</t>
+  </si>
+  <si>
+    <t>监元县</t>
+  </si>
+  <si>
+    <t>沅陵县</t>
+  </si>
+  <si>
+    <t>沅陆县</t>
+  </si>
+  <si>
+    <t>镡成县</t>
+  </si>
+  <si>
+    <t>无阳县</t>
+  </si>
+  <si>
+    <t>迁陵县</t>
+  </si>
+  <si>
+    <t>迁陆县</t>
+  </si>
+  <si>
+    <t>辰阳县</t>
+  </si>
+  <si>
+    <t>会亭县</t>
+  </si>
+  <si>
+    <t>酉阳县</t>
+  </si>
+  <si>
+    <t>义陵县</t>
+  </si>
+  <si>
+    <t>建平县</t>
+  </si>
+  <si>
+    <t>佷山县</t>
+  </si>
+  <si>
+    <t>零阳县</t>
+  </si>
+  <si>
+    <t>充县</t>
+  </si>
+  <si>
+    <t>武陵郡</t>
+    <rPh sb="0" eb="3">
+      <t>wu'ling'j</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>建平郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙国</t>
+    <rPh sb="0" eb="2">
+      <t>chagn'sha</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>填蛮郡</t>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>临湘县</t>
+  </si>
+  <si>
+    <t>抚睦县</t>
+  </si>
+  <si>
+    <t>罗县</t>
+  </si>
+  <si>
+    <t>连道</t>
+  </si>
+  <si>
+    <t>益阳县</t>
+  </si>
+  <si>
+    <t>下隽县</t>
+  </si>
+  <si>
+    <t>闰隽县</t>
+  </si>
+  <si>
+    <t>攸县</t>
+  </si>
+  <si>
+    <t>酃县</t>
+  </si>
+  <si>
+    <t>承阳县</t>
+  </si>
+  <si>
+    <t>湘南县</t>
+  </si>
+  <si>
+    <t>昭陵县</t>
+  </si>
+  <si>
+    <t>荼陵县</t>
+  </si>
+  <si>
+    <t>声乡县</t>
+  </si>
+  <si>
+    <t>容陵县</t>
+  </si>
+  <si>
+    <t>安成县</t>
+  </si>
+  <si>
+    <t>思成县</t>
+  </si>
+  <si>
+    <t>连道</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>甾川国</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>甾川郡</t>
+    <rPh sb="0" eb="1">
+      <t>zi'chuanjun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧县</t>
+  </si>
+  <si>
+    <t>俞县</t>
+  </si>
+  <si>
+    <t>东安平县</t>
+  </si>
+  <si>
+    <t>楼乡县</t>
+  </si>
+  <si>
+    <t>改属北海</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>九原县</t>
+  </si>
+  <si>
+    <t>成平县</t>
+  </si>
+  <si>
+    <t>固陵县</t>
+  </si>
+  <si>
+    <t>固调县</t>
+  </si>
+  <si>
+    <t>五原县</t>
+  </si>
+  <si>
+    <t>填河亭县</t>
+  </si>
+  <si>
+    <t>临沃县</t>
+  </si>
+  <si>
+    <t>振武县</t>
+  </si>
+  <si>
+    <t>文国县</t>
+  </si>
+  <si>
+    <t>繁聚县</t>
+  </si>
+  <si>
+    <t>河阴县</t>
+  </si>
+  <si>
+    <t>蒱泽县</t>
+  </si>
+  <si>
+    <t>南兴县</t>
+  </si>
+  <si>
+    <t>南利县</t>
+  </si>
+  <si>
+    <t>桓都县</t>
+  </si>
+  <si>
+    <t>宜梁县</t>
+  </si>
+  <si>
+    <t>曼柏县</t>
+  </si>
+  <si>
+    <t>延柏县</t>
+  </si>
+  <si>
+    <t>成宜县</t>
+  </si>
+  <si>
+    <t>艾虏县</t>
+  </si>
+  <si>
+    <t>稒阳县</t>
+  </si>
+  <si>
+    <t>固阴县</t>
+  </si>
+  <si>
+    <t>莫䵣县</t>
+  </si>
+  <si>
+    <t>西安阳县</t>
+  </si>
+  <si>
+    <t>鄣安县</t>
+  </si>
+  <si>
+    <t>河目县</t>
+  </si>
+  <si>
+    <t>获降郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>五原郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垣翰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>涿郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>涿县</t>
+  </si>
+  <si>
+    <t>逎县</t>
+  </si>
+  <si>
+    <t>逎屏县</t>
+  </si>
+  <si>
+    <t>穀丘县</t>
+  </si>
+  <si>
+    <t>故安县</t>
+  </si>
+  <si>
+    <t>南深泽县</t>
+  </si>
+  <si>
+    <t>范阳县</t>
+  </si>
+  <si>
+    <t>顺阴县</t>
+  </si>
+  <si>
+    <t>蠡吾县</t>
+  </si>
+  <si>
+    <t>容城县</t>
+  </si>
+  <si>
+    <t>易县</t>
+  </si>
+  <si>
+    <t>广望侯国</t>
+  </si>
+  <si>
+    <t>广望县</t>
+  </si>
+  <si>
+    <t>鄚县</t>
+  </si>
+  <si>
+    <t>言符县</t>
+  </si>
+  <si>
+    <t>高亭县</t>
+  </si>
+  <si>
+    <t>州乡侯国</t>
+  </si>
+  <si>
+    <t>州乡县</t>
+  </si>
+  <si>
+    <t>安平县</t>
+  </si>
+  <si>
+    <t>广望亭县</t>
+  </si>
+  <si>
+    <t>樊舆侯国</t>
+  </si>
+  <si>
+    <t>握符县</t>
+  </si>
+  <si>
+    <t>成侯国</t>
+  </si>
+  <si>
+    <t>宜家县</t>
+  </si>
+  <si>
+    <t>良乡侯国</t>
+  </si>
+  <si>
+    <t>广阳县</t>
+  </si>
+  <si>
+    <t>利乡侯国</t>
+  </si>
+  <si>
+    <t>章符县</t>
+  </si>
+  <si>
+    <t>临乡侯国</t>
+  </si>
+  <si>
+    <t>临乡县</t>
+  </si>
+  <si>
+    <t>益昌侯国</t>
+  </si>
+  <si>
+    <t>有袟县</t>
+  </si>
+  <si>
+    <t>阳乡侯国</t>
+  </si>
+  <si>
+    <t>章武县</t>
+  </si>
+  <si>
+    <t>西乡侯国</t>
+  </si>
+  <si>
+    <t>移风县</t>
+  </si>
+  <si>
+    <t>饶阳县</t>
+  </si>
+  <si>
+    <t>中水县</t>
+  </si>
+  <si>
+    <t>武垣县</t>
+  </si>
+  <si>
+    <t>垣翰亭县</t>
+  </si>
+  <si>
+    <t>阿陵县</t>
+  </si>
+  <si>
+    <t>阿陆县</t>
+  </si>
+  <si>
+    <t>阿武侯国</t>
+  </si>
+  <si>
+    <t>阿武县</t>
+  </si>
+  <si>
+    <t>高郭侯国</t>
+  </si>
+  <si>
+    <t>广堤县</t>
+  </si>
+  <si>
+    <t>新昌侯国</t>
+  </si>
+  <si>
+    <t>新昌县</t>
+  </si>
+  <si>
+    <t>勃海郡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迎河郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮阳县</t>
+  </si>
+  <si>
+    <t>浮城县</t>
+  </si>
+  <si>
+    <t>阳信县</t>
+  </si>
+  <si>
+    <t>东光县</t>
+  </si>
+  <si>
+    <t>阜城县</t>
+  </si>
+  <si>
+    <t>吾城县</t>
+  </si>
+  <si>
+    <t>千童县</t>
+  </si>
+  <si>
+    <t>重合县</t>
+  </si>
+  <si>
+    <t>南皮县</t>
+  </si>
+  <si>
+    <t>迎河亭县</t>
+  </si>
+  <si>
+    <t>定侯国</t>
+  </si>
+  <si>
+    <t>定县</t>
+  </si>
+  <si>
+    <t>桓章县</t>
+  </si>
+  <si>
+    <t>中邑</t>
+  </si>
+  <si>
+    <t>检阴县</t>
+  </si>
+  <si>
+    <t>高乐县</t>
+  </si>
+  <si>
+    <t>为乡县</t>
+  </si>
+  <si>
+    <t>参户侯国</t>
+  </si>
+  <si>
+    <t>参户县</t>
+  </si>
+  <si>
+    <t>泽亭县</t>
+  </si>
+  <si>
+    <t>柳侯国</t>
+  </si>
+  <si>
+    <t>柳县</t>
+  </si>
+  <si>
+    <t>临乐侯国</t>
+  </si>
+  <si>
+    <t>东平舒县</t>
+  </si>
+  <si>
+    <t>重平县</t>
+  </si>
+  <si>
+    <t>安次县</t>
+  </si>
+  <si>
+    <t>脩市侯国</t>
+  </si>
+  <si>
+    <t>居宁县</t>
+  </si>
+  <si>
+    <t>文安县</t>
+  </si>
+  <si>
+    <t>景成侯国</t>
+  </si>
+  <si>
+    <t>景成县</t>
+  </si>
+  <si>
+    <t>束州县</t>
+  </si>
+  <si>
+    <t>章乡侯国</t>
+  </si>
+  <si>
+    <t>章乡县</t>
+  </si>
+  <si>
+    <t>蒲领侯国</t>
+  </si>
+  <si>
+    <t>蒲领县</t>
+  </si>
+  <si>
+    <t>信都国</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新博郡</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>xin'bo</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信都县</t>
+  </si>
+  <si>
+    <t>新博亭县</t>
+  </si>
+  <si>
+    <t>历县</t>
+  </si>
+  <si>
+    <t>历宁县</t>
+  </si>
+  <si>
+    <t>扶柳县</t>
+  </si>
+  <si>
+    <t>辟阳县</t>
+  </si>
+  <si>
+    <t>南宫县</t>
+  </si>
+  <si>
+    <t>序下县</t>
+  </si>
+  <si>
+    <t>下博县</t>
+  </si>
+  <si>
+    <t>闰博县</t>
+  </si>
+  <si>
+    <t>武邑</t>
+  </si>
+  <si>
+    <t>顺桓县</t>
+  </si>
+  <si>
+    <t>观津县</t>
+  </si>
+  <si>
+    <t>朔定亭县</t>
+  </si>
+  <si>
+    <t>广川县</t>
+  </si>
+  <si>
+    <t>乐乡侯国</t>
+  </si>
+  <si>
+    <t>乐丘县</t>
+  </si>
+  <si>
+    <t>平堤侯国</t>
+  </si>
+  <si>
+    <t>平堤县</t>
+  </si>
+  <si>
+    <t>桃县</t>
+  </si>
+  <si>
+    <t>桓分县</t>
+  </si>
+  <si>
+    <t>西梁侯国</t>
+  </si>
+  <si>
+    <t>西梁县</t>
+  </si>
+  <si>
+    <t>昌成侯国</t>
+  </si>
+  <si>
+    <t>昌成县</t>
+  </si>
+  <si>
+    <t>东昌侯国</t>
+  </si>
+  <si>
+    <t>田昌县</t>
+  </si>
+  <si>
+    <t>脩县</t>
+  </si>
+  <si>
+    <t>脩治县</t>
+  </si>
+  <si>
+    <t>高隄县</t>
+  </si>
+  <si>
+    <t>河间国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朔定郡</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>shuo'fang</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐成县</t>
+  </si>
+  <si>
+    <t>陆信县</t>
+  </si>
+  <si>
+    <t>候井县</t>
+  </si>
+  <si>
+    <t>武隧县</t>
+  </si>
+  <si>
+    <t>桓隧县</t>
+  </si>
+  <si>
+    <t>弓高县</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7293,6 +8013,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Adobe Fangsong Std R"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Adobe Fangsong Std R"/>
       <family val="3"/>
       <charset val="134"/>
@@ -7723,7 +8456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7740,6 +8473,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8095,10 +8832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1216"/>
+  <dimension ref="A1:K1337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1191" workbookViewId="0">
-      <selection activeCell="D1216" sqref="D1216"/>
+    <sheetView tabSelected="1" topLeftCell="A1328" workbookViewId="0">
+      <selection activeCell="A1334" sqref="A1334:B1337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36732,8 +37469,2854 @@
         <v>40311</v>
       </c>
     </row>
+    <row r="1217" spans="1:7">
+      <c r="A1217" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1217" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1217" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1217">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7">
+      <c r="A1218" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1218" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1218" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1218">
+        <v>40402</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7">
+      <c r="A1219" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1219" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1219" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1219">
+        <v>40403</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7">
+      <c r="A1220" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1220" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1220" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1220">
+        <v>40404</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7">
+      <c r="A1221" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1221" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1221" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1221">
+        <v>40405</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7">
+      <c r="A1222" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1222" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1222" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1222">
+        <v>40406</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7">
+      <c r="A1223" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1223" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1223" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1223">
+        <v>40407</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7">
+      <c r="A1224" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1224" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1224" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1224">
+        <v>40408</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7">
+      <c r="A1225" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1225" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1225" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1225">
+        <v>40409</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7">
+      <c r="A1226" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1226" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1226" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1226">
+        <v>40410</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7">
+      <c r="A1227" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1227" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1227" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1227">
+        <v>40411</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7">
+      <c r="A1228" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1228" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1228" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1228">
+        <v>40412</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7">
+      <c r="A1229" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1229" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1229" s="3">
+        <v>404</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1229">
+        <v>40413</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7">
+      <c r="A1230" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1230" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1230" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1230">
+        <v>40601</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7">
+      <c r="A1231" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1231" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1231" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1231">
+        <v>40602</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7">
+      <c r="A1232" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1232" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1232" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1232">
+        <v>40603</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9">
+      <c r="A1233" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1233" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1233" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1233">
+        <v>40604</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9">
+      <c r="A1234" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1234" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1234" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1234">
+        <v>40605</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9">
+      <c r="A1235" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1235" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1235" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1235">
+        <v>40606</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9">
+      <c r="A1236" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1236" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1236" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1236">
+        <v>40607</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9">
+      <c r="A1237" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1237" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1237" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1237">
+        <v>40608</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9">
+      <c r="A1238" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1238" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1238" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1238">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9">
+      <c r="A1239" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1239" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1239" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1239">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9">
+      <c r="A1240" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1240" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1240" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1240">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9">
+      <c r="A1241" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1241" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1241" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1241">
+        <v>40612</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9">
+      <c r="A1242" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1242" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1242" s="3">
+        <v>406</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1242">
+        <v>40613</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9">
+      <c r="A1243" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1243" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C1243" s="3">
+        <v>230</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1243">
+        <v>23001</v>
+      </c>
+      <c r="H1243">
+        <v>1</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9">
+      <c r="A1244" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1244" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C1244" s="3">
+        <v>230</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1244">
+        <v>23002</v>
+      </c>
+      <c r="H1244">
+        <v>1</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9">
+      <c r="A1245" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1245" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C1245" s="3">
+        <v>230</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1245">
+        <v>23003</v>
+      </c>
+      <c r="H1245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9">
+      <c r="A1246" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1246" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1246" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1246">
+        <v>70901</v>
+      </c>
+      <c r="H1246" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9">
+      <c r="A1247" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1247" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1247" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1247">
+        <v>70902</v>
+      </c>
+      <c r="H1247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9">
+      <c r="A1248" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1248" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1248" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1248">
+        <v>70903</v>
+      </c>
+      <c r="H1248" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8">
+      <c r="A1249" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1249" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1249" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1249">
+        <v>70904</v>
+      </c>
+      <c r="H1249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8">
+      <c r="A1250" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1250" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1250" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1250">
+        <v>70905</v>
+      </c>
+      <c r="H1250" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8">
+      <c r="A1251" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1251" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1251" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1251">
+        <v>70906</v>
+      </c>
+      <c r="H1251" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8">
+      <c r="A1252" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1252" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1252" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1252">
+        <v>70907</v>
+      </c>
+      <c r="H1252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8">
+      <c r="A1253" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1253" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1253" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1253">
+        <v>70908</v>
+      </c>
+      <c r="H1253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8">
+      <c r="A1254" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1254" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1254" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1254">
+        <v>70909</v>
+      </c>
+      <c r="H1254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8">
+      <c r="A1255" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1255" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1255" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1255">
+        <v>70910</v>
+      </c>
+      <c r="H1255" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8">
+      <c r="A1256" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1256" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1256" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1256">
+        <v>70911</v>
+      </c>
+      <c r="H1256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8">
+      <c r="A1257" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1257" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1257" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1257">
+        <v>70912</v>
+      </c>
+      <c r="H1257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8">
+      <c r="A1258" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1258" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1258" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1258">
+        <v>70913</v>
+      </c>
+      <c r="H1258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8">
+      <c r="A1259" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1259" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1259" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1259">
+        <v>70914</v>
+      </c>
+      <c r="H1259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8">
+      <c r="A1260" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1260" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1260" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1260">
+        <v>70915</v>
+      </c>
+      <c r="H1260" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8">
+      <c r="A1261" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1261" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1261" s="3">
+        <v>709</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1261">
+        <v>70916</v>
+      </c>
+      <c r="H1261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8">
+      <c r="A1262" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1262" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1262" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1262">
+        <v>23801</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8">
+      <c r="A1263" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1263" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1263" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1263">
+        <v>23802</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8">
+      <c r="A1264" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1264" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1264" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1264">
+        <v>23803</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7">
+      <c r="A1265" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1265" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1265" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1265">
+        <v>23804</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7">
+      <c r="A1266" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1266" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1266" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1266">
+        <v>23805</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7">
+      <c r="A1267" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1267" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1267" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1267">
+        <v>23806</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7">
+      <c r="A1268" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1268" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1268" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1268">
+        <v>23807</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7">
+      <c r="A1269" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1269" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1269" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1269">
+        <v>23808</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7">
+      <c r="A1270" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1270" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1270" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1270">
+        <v>23809</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7">
+      <c r="A1271" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1271" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1271" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1271">
+        <v>23810</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7">
+      <c r="A1272" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1272" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1272" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1272">
+        <v>23811</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7">
+      <c r="A1273" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1273" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1273" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1273">
+        <v>23812</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7">
+      <c r="A1274" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1274" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1274" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1274">
+        <v>23813</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7">
+      <c r="A1275" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1275" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1275" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1275">
+        <v>23814</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7">
+      <c r="A1276" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1276" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1276" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1276">
+        <v>23815</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7">
+      <c r="A1277" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1277" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1277" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1277">
+        <v>23816</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7">
+      <c r="A1278" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1278" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1278" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1278">
+        <v>23817</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7">
+      <c r="A1279" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1279" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1279" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1279">
+        <v>23818</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7">
+      <c r="A1280" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1280" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1280" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1280">
+        <v>23819</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7">
+      <c r="A1281" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1281" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1281" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1281">
+        <v>23820</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:7">
+      <c r="A1282" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1282" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1282" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1282">
+        <v>23821</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:7">
+      <c r="A1283" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1283" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1283" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1283">
+        <v>23822</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7">
+      <c r="A1284" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1284" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1284" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1284">
+        <v>23823</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7">
+      <c r="A1285" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1285" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1285" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1285">
+        <v>23824</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7">
+      <c r="A1286" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1286" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1286" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1286">
+        <v>23825</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7">
+      <c r="A1287" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1287" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1287" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1287">
+        <v>23826</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7">
+      <c r="A1288" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1288" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1288" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1288">
+        <v>23827</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:7">
+      <c r="A1289" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1289" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1289" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1289">
+        <v>23828</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7">
+      <c r="A1290" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1290" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1290" s="3">
+        <v>238</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1290">
+        <v>23829</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:7">
+      <c r="A1291" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1291" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1291" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>2132</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1291">
+        <v>71101</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7">
+      <c r="A1292" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1292" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1292" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1292">
+        <v>71102</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7">
+      <c r="A1293" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1293" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1293" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1293">
+        <v>71103</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7">
+      <c r="A1294" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1294" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1294" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1294">
+        <v>71104</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7">
+      <c r="A1295" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1295" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1295" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1295">
+        <v>71105</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7">
+      <c r="A1296" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1296" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1296" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1296">
+        <v>71106</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:7">
+      <c r="A1297" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1297" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1297" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1297">
+        <v>71107</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:7">
+      <c r="A1298" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1298" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1298" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1298">
+        <v>71108</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:7">
+      <c r="A1299" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1299" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1299" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1299">
+        <v>71109</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:7">
+      <c r="A1300" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1300" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1300" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1300">
+        <v>71110</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7">
+      <c r="A1301" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1301" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1301" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1301">
+        <v>71111</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7">
+      <c r="A1302" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1302" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1302" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1302">
+        <v>71112</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7">
+      <c r="A1303" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1303" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1303" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1303">
+        <v>71113</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:7">
+      <c r="A1304" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1304" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1304" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1304">
+        <v>71114</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:7">
+      <c r="A1305" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1305" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1305" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1305">
+        <v>71115</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:7">
+      <c r="A1306" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1306" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1306" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>683</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1306">
+        <v>71116</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:7">
+      <c r="A1307" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1307" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1307" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1307">
+        <v>71117</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:7">
+      <c r="A1308" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1308" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1308" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1308">
+        <v>71118</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:7">
+      <c r="A1309" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1309" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1309" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1309">
+        <v>71119</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:7">
+      <c r="A1310" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1310" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1310" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1310">
+        <v>71120</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7">
+      <c r="A1311" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1311" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1311" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1311">
+        <v>71121</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7">
+      <c r="A1312" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1312" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1312" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1312">
+        <v>71122</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7">
+      <c r="A1313" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1313" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1313" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1313">
+        <v>71123</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7">
+      <c r="A1314" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1314" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1314" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1314">
+        <v>71124</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7">
+      <c r="A1315" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1315" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1315" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1315">
+        <v>71125</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7">
+      <c r="A1316" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1316" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1316" s="3">
+        <v>711</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1316">
+        <v>71126</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7">
+      <c r="A1317" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1317" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1317" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1317">
+        <v>21401</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7">
+      <c r="A1318" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1318" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1318" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1318">
+        <v>21402</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7">
+      <c r="A1319" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1319" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1319" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1319">
+        <v>21403</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7">
+      <c r="A1320" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1320" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1320" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1320">
+        <v>21404</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7">
+      <c r="A1321" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1321" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1321" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1321">
+        <v>21405</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7">
+      <c r="A1322" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1322" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1322" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1322">
+        <v>21406</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7">
+      <c r="A1323" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1323" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1323" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1323">
+        <v>21407</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7">
+      <c r="A1324" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1324" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1324" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1324">
+        <v>21408</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" ht="20">
+      <c r="A1325" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1325" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1325" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1325" s="9" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E1325" s="9" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1325">
+        <v>21409</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7">
+      <c r="A1326" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1326" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1326" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1326">
+        <v>21410</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7">
+      <c r="A1327" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1327" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1327" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1327">
+        <v>21411</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7">
+      <c r="A1328" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1328" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1328" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1328">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7">
+      <c r="A1329" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1329" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1329" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1329">
+        <v>21413</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7">
+      <c r="A1330" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1330" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1330" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1330">
+        <v>21414</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7">
+      <c r="A1331" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1331" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1331" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1331">
+        <v>21415</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7">
+      <c r="A1332" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1332" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1332" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1332">
+        <v>21416</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7">
+      <c r="A1333" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1333" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1333" s="3">
+        <v>214</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1333">
+        <v>21417</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7">
+      <c r="A1334" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1334" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1334" s="3">
+        <v>215</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1334">
+        <v>21501</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7">
+      <c r="A1335" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1335" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1335" s="3">
+        <v>215</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1335">
+        <v>21502</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7">
+      <c r="A1336" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1336" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1336" s="3">
+        <v>215</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1336">
+        <v>21503</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7">
+      <c r="A1337" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1337" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1337" s="3">
+        <v>215</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1337">
+        <v>21504</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I1173" xr:uid="{5EC3BED7-C0EB-6246-A346-3FB7A4805013}"/>
+  <autoFilter ref="A1:I1290" xr:uid="{5EC3BED7-C0EB-6246-A346-3FB7A4805013}"/>
   <sortState ref="A2:I1141">
     <sortCondition ref="G5"/>
   </sortState>
